--- a/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_0_36.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_0_36.xlsx
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3747436.922958293</v>
+        <v>3747436.922958294</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>863998.3026772569</v>
+        <v>334138.8104956986</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1169509.511665969</v>
+        <v>1169509.51166597</v>
       </c>
     </row>
     <row r="9">
@@ -659,13 +659,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>100.7763998124752</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
@@ -674,10 +674,10 @@
         <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -710,16 +710,16 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>83.05158760959891</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -814,31 +814,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>22.05029585290891</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>52.10844059186275</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -862,7 +862,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -871,7 +871,7 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -893,25 +893,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>100.7763998124752</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>87.23559050687969</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>151.9313162448613</v>
@@ -941,10 +941,10 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481181</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089716</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -953,10 +953,10 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -993,7 +993,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250821</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229337</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1054,7 +1054,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -1075,7 +1075,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853705</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1096,7 +1096,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.12274995491437</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1108,16 +1108,16 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>139.5927378781515</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>144.3968844608071</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1133,19 +1133,19 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>186.2507170030312</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>280.9192854911005</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1178,19 +1178,19 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481182</v>
+        <v>54.47840257481165</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089716</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -1199,7 +1199,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1227,10 +1227,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H9" t="n">
-        <v>104.3883541553076</v>
+        <v>104.3883541553075</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250822</v>
+        <v>61.42221998250817</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229338</v>
+        <v>49.71123688229329</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1333,7 +1333,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.12274995491438</v>
+        <v>29.12274995491427</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1342,19 +1342,19 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>160.4740936944289</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>99.66075074687615</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1367,28 +1367,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634805</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710075</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206829</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722617</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896914</v>
       </c>
       <c r="H11" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113176</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274067</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,16 +1418,16 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051993</v>
       </c>
       <c r="T11" t="n">
-        <v>208.4827883385019</v>
+        <v>208.4827883385018</v>
       </c>
       <c r="U11" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498008</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701348</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
@@ -1436,7 +1436,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560535</v>
       </c>
     </row>
     <row r="12">
@@ -1467,7 +1467,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1528,25 +1528,25 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1576,19 +1576,19 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>139.1537278750035</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>277.0440578542891</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -1604,16 +1604,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634805</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710075</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722617</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
@@ -1622,7 +1622,7 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H14" t="n">
-        <v>305.2872491113174</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
         <v>81.77913505274077</v>
@@ -1658,13 +1658,13 @@
         <v>132.9503648051989</v>
       </c>
       <c r="T14" t="n">
-        <v>208.4827883385019</v>
+        <v>208.4827883385018</v>
       </c>
       <c r="U14" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498009</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>327.752258470135</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
@@ -1762,28 +1762,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>119.8338438389643</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1813,25 +1813,25 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>101.1426547140132</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1841,7 +1841,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051975</v>
       </c>
       <c r="T17" t="n">
         <v>208.4827883385019</v>
@@ -1901,7 +1901,7 @@
         <v>251.078595249801</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701348</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
@@ -1999,7 +1999,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
@@ -2008,19 +2008,19 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I19" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2050,25 +2050,25 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>194.0348211511709</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>233.4219550112783</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2099,7 +2099,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274074</v>
+        <v>81.7791350527396</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2144,7 +2144,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>369.7311006784686</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
         <v>386.2379386560536</v>
@@ -2236,28 +2236,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>132.5906791667248</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2296,16 +2296,16 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>75.49838637028854</v>
       </c>
     </row>
     <row r="23">
@@ -2473,25 +2473,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>128.7553331830983</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2521,25 +2521,25 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>206.806426921486</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -2552,28 +2552,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710075</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>354.6830416206829</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722617</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>411.9645167896914</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H26" t="n">
-        <v>305.2872491113176</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274068</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2606,22 +2606,22 @@
         <v>132.9503648051988</v>
       </c>
       <c r="T26" t="n">
-        <v>208.4827883385018</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U26" t="n">
-        <v>251.0785952498017</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701348</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174122</v>
       </c>
       <c r="X26" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="27">
@@ -2710,10 +2710,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -2722,13 +2722,13 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>166.4935684633776</v>
+        <v>55.21533678566915</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2761,25 +2761,25 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
-        <v>223.5811178510804</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2789,25 +2789,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710075</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722617</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>411.9645167896914</v>
+        <v>411.9645167896912</v>
       </c>
       <c r="H29" t="n">
-        <v>305.2872491113195</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
         <v>81.77913505274074</v>
@@ -2849,7 +2849,7 @@
         <v>251.078595249801</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701348</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
         <v>349.240968717413</v>
@@ -2858,7 +2858,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="30">
@@ -2889,7 +2889,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2995,10 +2995,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
-        <v>115.526976800218</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T31" t="n">
         <v>221.5475610583892</v>
@@ -3013,7 +3013,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>33.35146980185879</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -3029,7 +3029,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710075</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
         <v>354.683041620683</v>
@@ -3041,7 +3041,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>411.964516789693</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H32" t="n">
         <v>305.2872491113177</v>
@@ -3083,7 +3083,7 @@
         <v>208.4827883385019</v>
       </c>
       <c r="U32" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498008</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
@@ -3126,7 +3126,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3235,13 +3235,13 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>197.9208099836032</v>
+        <v>183.1796758467</v>
       </c>
       <c r="T34" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U34" t="n">
-        <v>203.8435192151921</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3253,7 +3253,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3275,10 +3275,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>406.876045741713</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>411.9645167896914</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H35" t="n">
         <v>305.2872491113177</v>
@@ -3317,10 +3317,10 @@
         <v>132.9503648051988</v>
       </c>
       <c r="T35" t="n">
-        <v>208.4827883385018</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U35" t="n">
-        <v>251.0785952498009</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -3329,7 +3329,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784694</v>
       </c>
       <c r="Y35" t="n">
         <v>386.2379386560536</v>
@@ -3363,7 +3363,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3436,13 +3436,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,28 +3469,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T37" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>145.8998232290787</v>
+        <v>206.806426921486</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3500,28 +3500,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710075</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>354.6830416206829</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722617</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>411.9645167896914</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H38" t="n">
-        <v>305.2872491113176</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274068</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,16 +3551,16 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051993</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T38" t="n">
-        <v>208.4827883385018</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U38" t="n">
-        <v>251.0785952498008</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701348</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
         <v>349.240968717413</v>
@@ -3569,7 +3569,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="39">
@@ -3600,7 +3600,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3667,7 +3667,7 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -3679,7 +3679,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>84.83831713889334</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,10 +3706,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T40" t="n">
         <v>221.5475610583892</v>
@@ -3718,13 +3718,13 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>169.7438101404423</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -3755,7 +3755,7 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H41" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113183</v>
       </c>
       <c r="I41" t="n">
         <v>81.77913505274074</v>
@@ -3837,7 +3837,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3907,7 +3907,7 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -3946,13 +3946,13 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T43" t="n">
-        <v>118.4898845065123</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2373523985773</v>
+        <v>58.42247119226039</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -3964,7 +3964,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -3995,7 +3995,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274049</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4074,7 +4074,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4135,16 +4135,16 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>101.9166902817504</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>166.4935684633776</v>
@@ -4183,19 +4183,19 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>221.5475610583892</v>
+        <v>136.9575509524583</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -4304,31 +4304,31 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1865.381229508782</v>
+        <v>1210.087414675782</v>
       </c>
       <c r="C2" t="n">
-        <v>1496.41871256837</v>
+        <v>1210.087414675782</v>
       </c>
       <c r="D2" t="n">
-        <v>1138.15301396162</v>
+        <v>1210.087414675782</v>
       </c>
       <c r="E2" t="n">
-        <v>1036.358670716696</v>
+        <v>1210.087414675782</v>
       </c>
       <c r="F2" t="n">
-        <v>625.3727659270879</v>
+        <v>799.1015098861748</v>
       </c>
       <c r="G2" t="n">
-        <v>207.4089578252748</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H2" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K2" t="n">
         <v>463.9616490733127</v>
@@ -4358,22 +4358,22 @@
         <v>2642.120401548716</v>
       </c>
       <c r="T2" t="n">
-        <v>2642.120401548716</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="U2" t="n">
-        <v>2642.120401548716</v>
+        <v>2339.59524198583</v>
       </c>
       <c r="V2" t="n">
-        <v>2642.120401548716</v>
+        <v>2339.59524198583</v>
       </c>
       <c r="W2" t="n">
-        <v>2642.120401548716</v>
+        <v>1986.826586715716</v>
       </c>
       <c r="X2" t="n">
-        <v>2642.120401548716</v>
+        <v>1986.826586715716</v>
       </c>
       <c r="Y2" t="n">
-        <v>2251.981069572904</v>
+        <v>1596.687254739904</v>
       </c>
     </row>
     <row r="3">
@@ -4398,10 +4398,10 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424004</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673427</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
@@ -4410,10 +4410,10 @@
         <v>53.94298182036445</v>
       </c>
       <c r="K3" t="n">
-        <v>309.190302261463</v>
+        <v>266.2060027641987</v>
       </c>
       <c r="L3" t="n">
-        <v>713.8062203571349</v>
+        <v>670.8219208598706</v>
       </c>
       <c r="M3" t="n">
         <v>1194.968834417901</v>
@@ -4462,28 +4462,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>728.1289842064344</v>
+        <v>268.535689181137</v>
       </c>
       <c r="C4" t="n">
-        <v>728.1289842064344</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="D4" t="n">
-        <v>728.1289842064344</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="E4" t="n">
-        <v>580.2158906240413</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="F4" t="n">
-        <v>433.3259431261309</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="G4" t="n">
-        <v>264.3261428644633</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="H4" t="n">
-        <v>106.5777702969935</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="I4" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="J4" t="n">
         <v>53.94298182036445</v>
@@ -4510,28 +4510,28 @@
         <v>728.1289842064344</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064344</v>
+        <v>579.9823256406185</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064344</v>
+        <v>579.9823256406185</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064344</v>
+        <v>579.9823256406185</v>
       </c>
       <c r="U4" t="n">
-        <v>728.1289842064344</v>
+        <v>290.8087152951864</v>
       </c>
       <c r="V4" t="n">
-        <v>728.1289842064344</v>
+        <v>290.8087152951864</v>
       </c>
       <c r="W4" t="n">
-        <v>728.1289842064344</v>
+        <v>290.8087152951864</v>
       </c>
       <c r="X4" t="n">
-        <v>728.1289842064344</v>
+        <v>290.8087152951864</v>
       </c>
       <c r="Y4" t="n">
-        <v>728.1289842064344</v>
+        <v>290.8087152951864</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1391.972039273387</v>
+        <v>1865.381229508782</v>
       </c>
       <c r="C5" t="n">
-        <v>1391.972039273387</v>
+        <v>1496.41871256837</v>
       </c>
       <c r="D5" t="n">
-        <v>1033.706340666637</v>
+        <v>1138.15301396162</v>
       </c>
       <c r="E5" t="n">
-        <v>1033.706340666637</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="F5" t="n">
-        <v>622.7204358770293</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G5" t="n">
-        <v>534.6036777892721</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H5" t="n">
-        <v>207.4089578252749</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036442</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
         <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733124</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224071</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M5" t="n">
-        <v>1362.238747280442</v>
+        <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977173</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O5" t="n">
-        <v>2238.843319642688</v>
+        <v>2238.843319642689</v>
       </c>
       <c r="P5" t="n">
-        <v>2544.691559791251</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q5" t="n">
-        <v>2697.149091018221</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2642.120401548714</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2465.942913862884</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T5" t="n">
-        <v>2465.942913862884</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U5" t="n">
-        <v>2465.942913862884</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V5" t="n">
-        <v>2134.880026519313</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="W5" t="n">
-        <v>1782.111371249199</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="X5" t="n">
-        <v>1782.111371249199</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="Y5" t="n">
-        <v>1391.972039273387</v>
+        <v>2251.981069572904</v>
       </c>
     </row>
     <row r="6">
@@ -4641,25 +4641,25 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036442</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>53.94298182036442</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>309.1903022614628</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>713.8062203571344</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1237.953133915165</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
-        <v>1748.695370517454</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O6" t="n">
-        <v>2188.831293537798</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P6" t="n">
         <v>2525.076107152626</v>
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>268.5356891811371</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="C7" t="n">
-        <v>99.59950625323012</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="D7" t="n">
-        <v>99.59950625323012</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="E7" t="n">
-        <v>99.59950625323012</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="F7" t="n">
-        <v>99.59950625323012</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="G7" t="n">
-        <v>99.59950625323012</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="H7" t="n">
-        <v>99.59950625323012</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="I7" t="n">
-        <v>99.59950625323012</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036442</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K7" t="n">
-        <v>110.2451748866325</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.8190324477908</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M7" t="n">
-        <v>382.7169011658206</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502495</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594895</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064336</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q7" t="n">
-        <v>698.7120650600555</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R7" t="n">
-        <v>698.7120650600555</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S7" t="n">
-        <v>698.7120650600555</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T7" t="n">
-        <v>698.7120650600555</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U7" t="n">
-        <v>409.5384547146234</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V7" t="n">
-        <v>268.5356891811371</v>
+        <v>473.4444960005476</v>
       </c>
       <c r="W7" t="n">
-        <v>268.5356891811371</v>
+        <v>327.5890571512475</v>
       </c>
       <c r="X7" t="n">
-        <v>268.5356891811371</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="Y7" t="n">
-        <v>268.5356891811371</v>
+        <v>99.5995062532301</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1134.473993239631</v>
+        <v>631.906440948188</v>
       </c>
       <c r="C8" t="n">
-        <v>1134.473993239631</v>
+        <v>262.9439240077763</v>
       </c>
       <c r="D8" t="n">
-        <v>1134.473993239631</v>
+        <v>74.81188663097703</v>
       </c>
       <c r="E8" t="n">
-        <v>748.6857406413867</v>
+        <v>74.81188663097703</v>
       </c>
       <c r="F8" t="n">
-        <v>337.6998358517791</v>
+        <v>67.86638588177355</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036442</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036442</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036442</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J8" t="n">
-        <v>169.710838053314</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224069</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M8" t="n">
-        <v>1362.238747280442</v>
+        <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977173</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O8" t="n">
-        <v>2238.843319642688</v>
+        <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791251</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018221</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548714</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2465.942913862884</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T8" t="n">
-        <v>2247.308246834947</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U8" t="n">
-        <v>2247.308246834947</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="V8" t="n">
-        <v>2247.308246834947</v>
+        <v>2134.880026519315</v>
       </c>
       <c r="W8" t="n">
-        <v>1894.539591564833</v>
+        <v>1782.111371249201</v>
       </c>
       <c r="X8" t="n">
-        <v>1521.073833303753</v>
+        <v>1408.645612988121</v>
       </c>
       <c r="Y8" t="n">
-        <v>1521.073833303753</v>
+        <v>1018.50628101231</v>
       </c>
     </row>
     <row r="9">
@@ -4872,34 +4872,34 @@
         <v>359.3385232961344</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424005</v>
       </c>
       <c r="H9" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036442</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J9" t="n">
-        <v>129.2001442204942</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>384.4474646615925</v>
+        <v>384.4474646615929</v>
       </c>
       <c r="L9" t="n">
-        <v>789.0633827572642</v>
+        <v>789.0633827572649</v>
       </c>
       <c r="M9" t="n">
-        <v>1313.210296315295</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
-        <v>1866.936832414846</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O9" t="n">
-        <v>2188.831293537798</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P9" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018223</v>
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>53.94298182036442</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="C10" t="n">
-        <v>53.94298182036442</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="D10" t="n">
-        <v>53.94298182036442</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="E10" t="n">
-        <v>53.94298182036442</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036442</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036442</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036442</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036442</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036442</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K10" t="n">
-        <v>110.2451748866325</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.8190324477908</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658206</v>
+        <v>382.7169011658211</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502495</v>
+        <v>529.6040388502503</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594895</v>
+        <v>649.2617893594904</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064336</v>
+        <v>728.1289842064347</v>
       </c>
       <c r="Q10" t="n">
-        <v>698.7120650600555</v>
+        <v>698.7120650600566</v>
       </c>
       <c r="R10" t="n">
-        <v>698.7120650600555</v>
+        <v>698.7120650600566</v>
       </c>
       <c r="S10" t="n">
-        <v>698.7120650600555</v>
+        <v>698.7120650600566</v>
       </c>
       <c r="T10" t="n">
-        <v>536.6170209242687</v>
+        <v>698.7120650600566</v>
       </c>
       <c r="U10" t="n">
-        <v>536.6170209242687</v>
+        <v>598.044640063212</v>
       </c>
       <c r="V10" t="n">
-        <v>281.9325327183818</v>
+        <v>343.3601518573251</v>
       </c>
       <c r="W10" t="n">
-        <v>281.9325327183818</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="X10" t="n">
-        <v>53.94298182036442</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="Y10" t="n">
-        <v>53.94298182036442</v>
+        <v>53.94298182036446</v>
       </c>
     </row>
     <row r="11">
@@ -5021,49 +5021,49 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D11" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F11" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155887</v>
       </c>
       <c r="G11" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H11" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823794</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514093</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795208</v>
       </c>
       <c r="M11" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O11" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643325</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S11" t="n">
         <v>4726.561275231264</v>
@@ -5115,28 +5115,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J12" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K12" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L12" t="n">
-        <v>534.5429807341673</v>
+        <v>1288.32563221405</v>
       </c>
       <c r="M12" t="n">
-        <v>1247.466478653857</v>
+        <v>1608.660951743751</v>
       </c>
       <c r="N12" t="n">
-        <v>2051.878056918008</v>
+        <v>1608.660951743751</v>
       </c>
       <c r="O12" t="n">
-        <v>2331.418122136705</v>
+        <v>2103.272883640391</v>
       </c>
       <c r="P12" t="n">
-        <v>2536.440602918915</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q12" t="n">
         <v>2623.573505376138</v>
@@ -5173,28 +5173,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>991.0842369787848</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C13" t="n">
-        <v>822.1480540508779</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D13" t="n">
-        <v>822.1480540508779</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E13" t="n">
-        <v>674.2349604684848</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F13" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G13" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H13" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J13" t="n">
         <v>109.5997839241957</v>
@@ -5203,10 +5203,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
@@ -5224,25 +5224,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S13" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T13" t="n">
-        <v>1498.916270557902</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U13" t="n">
-        <v>1498.916270557902</v>
+        <v>869.3083006011507</v>
       </c>
       <c r="V13" t="n">
-        <v>1498.916270557902</v>
+        <v>614.6238123952638</v>
       </c>
       <c r="W13" t="n">
-        <v>1219.073787876802</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X13" t="n">
-        <v>991.0842369787848</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y13" t="n">
-        <v>991.0842369787848</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="14">
@@ -5264,10 +5264,10 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G14" t="n">
-        <v>488.1932370805467</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H14" t="n">
         <v>179.8222783822462</v>
@@ -5276,7 +5276,7 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K14" t="n">
         <v>889.2841917514082</v>
@@ -5294,10 +5294,10 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q14" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R14" t="n">
         <v>4860.854573014292</v>
@@ -5355,28 +5355,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>97.21709146028584</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K15" t="n">
-        <v>97.21709146028584</v>
+        <v>388.8958536704856</v>
       </c>
       <c r="L15" t="n">
-        <v>343.9822193667499</v>
+        <v>1002.792923427374</v>
       </c>
       <c r="M15" t="n">
-        <v>1112.350365759211</v>
+        <v>1323.128242957076</v>
       </c>
       <c r="N15" t="n">
-        <v>1916.761944023362</v>
+        <v>1667.648898594694</v>
       </c>
       <c r="O15" t="n">
-        <v>2586.225705326021</v>
+        <v>2337.112659897353</v>
       </c>
       <c r="P15" t="n">
-        <v>2623.573505376138</v>
+        <v>2543.548934765509</v>
       </c>
       <c r="Q15" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R15" t="n">
         <v>2623.573505376138</v>
@@ -5410,25 +5410,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>994.3109288932102</v>
+        <v>665.6859735286132</v>
       </c>
       <c r="C16" t="n">
-        <v>825.3747459653033</v>
+        <v>544.6416868225887</v>
       </c>
       <c r="D16" t="n">
-        <v>675.2581065529675</v>
+        <v>394.5250474102529</v>
       </c>
       <c r="E16" t="n">
-        <v>527.3450129705744</v>
+        <v>394.5250474102529</v>
       </c>
       <c r="F16" t="n">
-        <v>527.3450129705744</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="G16" t="n">
-        <v>359.1696912903951</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H16" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I16" t="n">
         <v>97.21709146028584</v>
@@ -5461,25 +5461,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S16" t="n">
-        <v>1396.75197286698</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T16" t="n">
-        <v>1396.75197286698</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U16" t="n">
-        <v>1396.75197286698</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V16" t="n">
-        <v>1396.75197286698</v>
+        <v>955.1031435655738</v>
       </c>
       <c r="W16" t="n">
-        <v>1396.75197286698</v>
+        <v>665.6859735286132</v>
       </c>
       <c r="X16" t="n">
-        <v>1396.75197286698</v>
+        <v>665.6859735286132</v>
       </c>
       <c r="Y16" t="n">
-        <v>1175.95939372345</v>
+        <v>665.6859735286132</v>
       </c>
     </row>
     <row r="17">
@@ -5504,13 +5504,13 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G17" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H17" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J17" t="n">
         <v>365.8813331823786</v>
@@ -5522,22 +5522,22 @@
         <v>1590.888347795206</v>
       </c>
       <c r="M17" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619126</v>
       </c>
       <c r="O17" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R17" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S17" t="n">
         <v>4726.561275231264</v>
@@ -5555,10 +5555,10 @@
         <v>3578.526314851616</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="18">
@@ -5580,40 +5580,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F18" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G18" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H18" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I18" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J18" t="n">
-        <v>97.21709146028584</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K18" t="n">
-        <v>222.5746515181232</v>
+        <v>388.8958536704856</v>
       </c>
       <c r="L18" t="n">
-        <v>836.4717212750119</v>
+        <v>898.5820929496801</v>
       </c>
       <c r="M18" t="n">
-        <v>1287.58382576661</v>
+        <v>1218.917412479382</v>
       </c>
       <c r="N18" t="n">
-        <v>2091.995404030761</v>
+        <v>1548.780040143415</v>
       </c>
       <c r="O18" t="n">
-        <v>2371.535469249458</v>
+        <v>1797.533454227377</v>
       </c>
       <c r="P18" t="n">
-        <v>2554.178946862809</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q18" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R18" t="n">
         <v>2623.573505376138</v>
@@ -5647,28 +5647,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>672.4909068465487</v>
+        <v>584.7466045204288</v>
       </c>
       <c r="C19" t="n">
-        <v>503.5547239186418</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="D19" t="n">
-        <v>503.5547239186418</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="E19" t="n">
-        <v>355.6416303362487</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="F19" t="n">
-        <v>208.7516828383384</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="G19" t="n">
-        <v>208.7516828383384</v>
+        <v>247.6350999123425</v>
       </c>
       <c r="H19" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="I19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J19" t="n">
         <v>109.5997839241957</v>
@@ -5698,25 +5698,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S19" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T19" t="n">
-        <v>1302.921501718336</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U19" t="n">
-        <v>1302.921501718336</v>
+        <v>839.4310927263157</v>
       </c>
       <c r="V19" t="n">
-        <v>1302.921501718336</v>
+        <v>584.7466045204288</v>
       </c>
       <c r="W19" t="n">
-        <v>1302.921501718336</v>
+        <v>584.7466045204288</v>
       </c>
       <c r="X19" t="n">
-        <v>1074.931950820318</v>
+        <v>584.7466045204288</v>
       </c>
       <c r="Y19" t="n">
-        <v>854.1393716767884</v>
+        <v>584.7466045204288</v>
       </c>
     </row>
     <row r="20">
@@ -5726,37 +5726,37 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003439</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405195</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155877</v>
       </c>
       <c r="G20" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805458</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822462</v>
+        <v>179.822278382245</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J20" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M20" t="n">
         <v>2388.164701515097</v>
@@ -5771,31 +5771,31 @@
         <v>4454.632848899127</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T20" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="21">
@@ -5817,34 +5817,34 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F21" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G21" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H21" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I21" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J21" t="n">
         <v>263.5382936126482</v>
       </c>
       <c r="K21" t="n">
-        <v>388.8958536704856</v>
+        <v>430.4149073808978</v>
       </c>
       <c r="L21" t="n">
-        <v>1002.792923427374</v>
+        <v>660.3780132492469</v>
       </c>
       <c r="M21" t="n">
-        <v>1357.551052309181</v>
+        <v>980.7133327789487</v>
       </c>
       <c r="N21" t="n">
-        <v>1702.071707946799</v>
+        <v>1785.124911043099</v>
       </c>
       <c r="O21" t="n">
-        <v>2371.535469249458</v>
+        <v>2033.878325127062</v>
       </c>
       <c r="P21" t="n">
         <v>2554.178946862809</v>
@@ -5884,28 +5884,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1141.200876391121</v>
+        <v>245.1301850426789</v>
       </c>
       <c r="C22" t="n">
-        <v>972.2646934632137</v>
+        <v>245.1301850426789</v>
       </c>
       <c r="D22" t="n">
-        <v>822.1480540508779</v>
+        <v>245.1301850426789</v>
       </c>
       <c r="E22" t="n">
-        <v>674.2349604684848</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="F22" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="G22" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="H22" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="I22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J22" t="n">
         <v>109.5997839241957</v>
@@ -5944,16 +5944,16 @@
         <v>1275.130855347408</v>
       </c>
       <c r="V22" t="n">
-        <v>1275.130855347408</v>
+        <v>1020.446367141521</v>
       </c>
       <c r="W22" t="n">
-        <v>1275.130855347408</v>
+        <v>731.0291971045608</v>
       </c>
       <c r="X22" t="n">
-        <v>1275.130855347408</v>
+        <v>503.0396462065435</v>
       </c>
       <c r="Y22" t="n">
-        <v>1275.130855347408</v>
+        <v>426.7786498729187</v>
       </c>
     </row>
     <row r="23">
@@ -5966,16 +5966,16 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155899</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G23" t="n">
         <v>488.1932370805469</v>
@@ -5984,49 +5984,49 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823794</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514093</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795208</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M23" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O23" t="n">
-        <v>3889.732883643325</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T23" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V23" t="n">
         <v>3931.294970121731</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X23" t="n">
         <v>3205.060556590537</v>
@@ -6054,37 +6054,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F24" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G24" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H24" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I24" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J24" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K24" t="n">
-        <v>138.7081686256435</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L24" t="n">
-        <v>368.6712744939926</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M24" t="n">
-        <v>1062.565263352105</v>
+        <v>1514.038914395485</v>
       </c>
       <c r="N24" t="n">
-        <v>1866.976841616256</v>
+        <v>1843.901542059518</v>
       </c>
       <c r="O24" t="n">
-        <v>2536.440602918915</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P24" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q24" t="n">
         <v>2623.573505376138</v>
@@ -6121,28 +6121,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>695.9829531089974</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="C25" t="n">
-        <v>695.9829531089974</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="D25" t="n">
-        <v>545.8663136966617</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="E25" t="n">
-        <v>545.8663136966617</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="F25" t="n">
-        <v>415.8104215925219</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="G25" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="H25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="I25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J25" t="n">
         <v>109.5997839241957</v>
@@ -6169,28 +6169,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R25" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S25" t="n">
-        <v>1387.841167119728</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T25" t="n">
-        <v>1387.841167119728</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="U25" t="n">
-        <v>1387.841167119728</v>
+        <v>1090.100879744681</v>
       </c>
       <c r="V25" t="n">
-        <v>1387.841167119728</v>
+        <v>835.416391538794</v>
       </c>
       <c r="W25" t="n">
-        <v>1098.423997082767</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="X25" t="n">
-        <v>1098.423997082767</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y25" t="n">
-        <v>877.6314179392372</v>
+        <v>97.21709146028583</v>
       </c>
     </row>
     <row r="26">
@@ -6203,52 +6203,52 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.093169003439</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E26" t="n">
-        <v>1315.304916405195</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155879</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805462</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822461</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823794</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514083</v>
+        <v>889.284191751409</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M26" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O26" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S26" t="n">
         <v>4726.561275231264</v>
@@ -6263,10 +6263,10 @@
         <v>3931.294970121729</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y26" t="n">
         <v>2814.921224614724</v>
@@ -6300,31 +6300,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J27" t="n">
-        <v>97.21709146028584</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K27" t="n">
-        <v>222.5746515181232</v>
+        <v>388.8958536704856</v>
       </c>
       <c r="L27" t="n">
-        <v>452.5377573864724</v>
+        <v>649.7480011519468</v>
       </c>
       <c r="M27" t="n">
-        <v>772.8730769161741</v>
+        <v>970.0833206816486</v>
       </c>
       <c r="N27" t="n">
-        <v>1364.414563824402</v>
+        <v>1774.494898945799</v>
       </c>
       <c r="O27" t="n">
-        <v>2033.878325127062</v>
+        <v>2023.248313029762</v>
       </c>
       <c r="P27" t="n">
-        <v>2554.178946862809</v>
+        <v>2543.548934765509</v>
       </c>
       <c r="Q27" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R27" t="n">
         <v>2623.573505376138</v>
@@ -6358,28 +6358,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>581.2185435662825</v>
+        <v>303.4081673726145</v>
       </c>
       <c r="C28" t="n">
-        <v>412.2823606383756</v>
+        <v>303.4081673726145</v>
       </c>
       <c r="D28" t="n">
-        <v>412.2823606383756</v>
+        <v>303.4081673726145</v>
       </c>
       <c r="E28" t="n">
-        <v>412.2823606383756</v>
+        <v>303.4081673726145</v>
       </c>
       <c r="F28" t="n">
-        <v>265.3924131404652</v>
+        <v>303.4081673726145</v>
       </c>
       <c r="G28" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J28" t="n">
         <v>109.5997839241957</v>
@@ -6388,10 +6388,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L28" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M28" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N28" t="n">
         <v>1049.608084974667</v>
@@ -6409,25 +6409,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S28" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T28" t="n">
-        <v>1498.916270557902</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U28" t="n">
-        <v>1498.916270557902</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V28" t="n">
-        <v>1273.076757577013</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W28" t="n">
-        <v>983.6595875400524</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="X28" t="n">
-        <v>983.6595875400524</v>
+        <v>303.4081673726145</v>
       </c>
       <c r="Y28" t="n">
-        <v>762.8670083965222</v>
+        <v>303.4081673726145</v>
       </c>
     </row>
     <row r="29">
@@ -6437,76 +6437,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2428.321384550604</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.358867610193</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155906</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805488</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H29" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M29" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O29" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T29" t="n">
-        <v>4515.972600141869</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.357857465303</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.294970121732</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851618</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590538</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y29" t="n">
-        <v>2814.921224614726</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="30">
@@ -6537,28 +6537,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J30" t="n">
-        <v>263.5382936126483</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K30" t="n">
-        <v>263.5382936126483</v>
+        <v>388.8958536704856</v>
       </c>
       <c r="L30" t="n">
-        <v>510.3034215191124</v>
+        <v>618.8589595388348</v>
       </c>
       <c r="M30" t="n">
-        <v>1278.671567911574</v>
+        <v>1318.370476901345</v>
       </c>
       <c r="N30" t="n">
-        <v>1866.976841616256</v>
+        <v>2122.782055165496</v>
       </c>
       <c r="O30" t="n">
-        <v>2536.440602918915</v>
+        <v>2371.535469249458</v>
       </c>
       <c r="P30" t="n">
-        <v>2536.440602918915</v>
+        <v>2554.178946862809</v>
       </c>
       <c r="Q30" t="n">
         <v>2623.573505376138</v>
@@ -6595,40 +6595,40 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C31" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D31" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E31" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F31" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G31" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H31" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J31" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K31" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L31" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M31" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N31" t="n">
         <v>1049.608084974667</v>
@@ -6637,34 +6637,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P31" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q31" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R31" t="n">
-        <v>1498.916270557903</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S31" t="n">
-        <v>1382.222354598087</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T31" t="n">
-        <v>1158.436939387592</v>
+        <v>964.135741824786</v>
       </c>
       <c r="U31" t="n">
-        <v>869.3083006011507</v>
+        <v>675.0071030383442</v>
       </c>
       <c r="V31" t="n">
-        <v>614.6238123952638</v>
+        <v>420.3226148324574</v>
       </c>
       <c r="W31" t="n">
-        <v>325.2066423583032</v>
+        <v>130.9054447954967</v>
       </c>
       <c r="X31" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y31" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="32">
@@ -6674,19 +6674,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2428.321384550604</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.358867610193</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155904</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G32" t="n">
         <v>488.193237080547</v>
@@ -6695,13 +6695,13 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823789</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514086</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L32" t="n">
         <v>1590.888347795207</v>
@@ -6716,34 +6716,34 @@
         <v>3889.732883643324</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S32" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T32" t="n">
-        <v>4515.972600141869</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.357857465303</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.294970121732</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851618</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590538</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y32" t="n">
-        <v>2814.921224614726</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="33">
@@ -6774,22 +6774,22 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J33" t="n">
-        <v>263.5382936126483</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K33" t="n">
-        <v>388.8958536704857</v>
+        <v>388.8958536704856</v>
       </c>
       <c r="L33" t="n">
-        <v>1002.792923427374</v>
+        <v>618.8589595388348</v>
       </c>
       <c r="M33" t="n">
-        <v>1323.128242957076</v>
+        <v>939.1942790685366</v>
       </c>
       <c r="N33" t="n">
-        <v>2122.782055165496</v>
+        <v>1702.071707946799</v>
       </c>
       <c r="O33" t="n">
         <v>2371.535469249458</v>
@@ -6832,40 +6832,40 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C34" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D34" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E34" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F34" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G34" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H34" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J34" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K34" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L34" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M34" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N34" t="n">
         <v>1049.608084974667</v>
@@ -6874,34 +6874,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P34" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q34" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R34" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S34" t="n">
-        <v>1298.996260473455</v>
+        <v>1313.886294955175</v>
       </c>
       <c r="T34" t="n">
-        <v>1075.210845262961</v>
+        <v>1090.100879744681</v>
       </c>
       <c r="U34" t="n">
-        <v>869.3083006011507</v>
+        <v>1090.100879744681</v>
       </c>
       <c r="V34" t="n">
-        <v>614.6238123952638</v>
+        <v>835.416391538794</v>
       </c>
       <c r="W34" t="n">
-        <v>325.2066423583032</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="X34" t="n">
-        <v>97.21709146028589</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y34" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="35">
@@ -6911,16 +6911,16 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550604</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.358867610193</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E35" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F35" t="n">
         <v>904.3190116155888</v>
@@ -6932,13 +6932,13 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J35" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L35" t="n">
         <v>1590.888347795207</v>
@@ -6950,37 +6950,37 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O35" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S35" t="n">
         <v>4726.561275231265</v>
       </c>
       <c r="T35" t="n">
-        <v>4515.972600141869</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.357857465303</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.294970121732</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851618</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590538</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y35" t="n">
-        <v>2814.921224614726</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="36">
@@ -7011,31 +7011,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J36" t="n">
-        <v>97.21709146028589</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K36" t="n">
-        <v>97.21709146028589</v>
+        <v>388.8958536704856</v>
       </c>
       <c r="L36" t="n">
-        <v>327.180197328635</v>
+        <v>618.8589595388348</v>
       </c>
       <c r="M36" t="n">
-        <v>1095.548343721096</v>
+        <v>1307.740464804045</v>
       </c>
       <c r="N36" t="n">
-        <v>1771.466266460128</v>
+        <v>2112.152043068196</v>
       </c>
       <c r="O36" t="n">
-        <v>2440.930027762787</v>
+        <v>2360.905457152158</v>
       </c>
       <c r="P36" t="n">
-        <v>2623.573505376138</v>
+        <v>2543.548934765509</v>
       </c>
       <c r="Q36" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R36" t="n">
         <v>2623.573505376138</v>
@@ -7069,40 +7069,40 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>527.3450129705745</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C37" t="n">
-        <v>527.3450129705745</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D37" t="n">
-        <v>527.3450129705745</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E37" t="n">
-        <v>527.3450129705745</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F37" t="n">
-        <v>527.3450129705745</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G37" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H37" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J37" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K37" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L37" t="n">
         <v>507.4972331799365</v>
       </c>
       <c r="M37" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N37" t="n">
         <v>1049.608084974667</v>
@@ -7111,34 +7111,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P37" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q37" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R37" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S37" t="n">
-        <v>1187.921157035281</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T37" t="n">
-        <v>964.1357418247865</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="U37" t="n">
-        <v>816.7621830075352</v>
+        <v>1090.100879744681</v>
       </c>
       <c r="V37" t="n">
-        <v>816.7621830075352</v>
+        <v>835.416391538794</v>
       </c>
       <c r="W37" t="n">
-        <v>527.3450129705745</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="X37" t="n">
-        <v>527.3450129705745</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y37" t="n">
-        <v>527.3450129705745</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="38">
@@ -7148,46 +7148,46 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E38" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155884</v>
+        <v>904.3190116155899</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822461</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823787</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514093</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795208</v>
       </c>
       <c r="M38" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O38" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643325</v>
       </c>
       <c r="P38" t="n">
         <v>4454.632848899128</v>
@@ -7196,28 +7196,28 @@
         <v>4801.627437207831</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S38" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T38" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y38" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="39">
@@ -7239,40 +7239,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F39" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G39" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H39" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J39" t="n">
-        <v>263.5382936126482</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="K39" t="n">
-        <v>263.5382936126482</v>
+        <v>508.1073603047985</v>
       </c>
       <c r="L39" t="n">
-        <v>877.435363369537</v>
+        <v>1122.004430061687</v>
       </c>
       <c r="M39" t="n">
-        <v>1197.770682899239</v>
+        <v>1442.339749591389</v>
       </c>
       <c r="N39" t="n">
-        <v>1854.519469556428</v>
+        <v>1786.860405229007</v>
       </c>
       <c r="O39" t="n">
-        <v>2103.272883640391</v>
+        <v>2430.300015665487</v>
       </c>
       <c r="P39" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="Q39" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R39" t="n">
         <v>2623.573505376138</v>
@@ -7306,28 +7306,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>330.825454879945</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C40" t="n">
-        <v>330.825454879945</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D40" t="n">
-        <v>330.825454879945</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E40" t="n">
-        <v>182.9123612975519</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F40" t="n">
-        <v>182.9123612975519</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G40" t="n">
-        <v>182.9123612975519</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H40" t="n">
-        <v>182.9123612975519</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J40" t="n">
         <v>109.5997839241957</v>
@@ -7339,7 +7339,7 @@
         <v>507.4972331799365</v>
       </c>
       <c r="M40" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N40" t="n">
         <v>1049.608084974667</v>
@@ -7348,34 +7348,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P40" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q40" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R40" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S40" t="n">
-        <v>1387.841167119728</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T40" t="n">
-        <v>1164.055751909234</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U40" t="n">
-        <v>874.9271131227924</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V40" t="n">
-        <v>620.2426249169056</v>
+        <v>614.6238123952638</v>
       </c>
       <c r="W40" t="n">
-        <v>330.825454879945</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X40" t="n">
-        <v>330.825454879945</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y40" t="n">
-        <v>330.825454879945</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7385,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2428.321384550604</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.358867610193</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.093169003443</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E41" t="n">
-        <v>1315.304916405199</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155909</v>
+        <v>904.3190116155895</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805475</v>
+        <v>488.1932370805476</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823791</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514089</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L41" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M41" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N41" t="n">
         <v>3183.709822619128</v>
       </c>
       <c r="O41" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q41" t="n">
         <v>4801.627437207831</v>
       </c>
       <c r="R41" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S41" t="n">
         <v>4726.561275231265</v>
       </c>
       <c r="T41" t="n">
-        <v>4515.972600141869</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.357857465303</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.294970121732</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851618</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590538</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y41" t="n">
-        <v>2814.921224614726</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7464,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>987.4312590525782</v>
+        <v>3224.712326690734</v>
       </c>
       <c r="C42" t="n">
-        <v>812.9782297714512</v>
+        <v>3050.259297409607</v>
       </c>
       <c r="D42" t="n">
-        <v>664.0438201101999</v>
+        <v>2901.324887748356</v>
       </c>
       <c r="E42" t="n">
-        <v>504.8063651047445</v>
+        <v>2742.0874327429</v>
       </c>
       <c r="F42" t="n">
-        <v>358.2718071316294</v>
+        <v>2595.552874769785</v>
       </c>
       <c r="G42" t="n">
-        <v>221.3451287358147</v>
+        <v>2458.62619637397</v>
       </c>
       <c r="H42" t="n">
-        <v>125.4002551675024</v>
+        <v>2362.681322805658</v>
       </c>
       <c r="I42" t="n">
-        <v>97.21709146028584</v>
+        <v>2334.498159098442</v>
       </c>
       <c r="J42" t="n">
-        <v>263.5382936126482</v>
+        <v>2500.819361250804</v>
       </c>
       <c r="K42" t="n">
-        <v>674.428562457161</v>
+        <v>2911.709630095317</v>
       </c>
       <c r="L42" t="n">
-        <v>921.1936903636251</v>
+        <v>3141.672735963666</v>
       </c>
       <c r="M42" t="n">
-        <v>1689.561836756087</v>
+        <v>3910.040882356127</v>
       </c>
       <c r="N42" t="n">
-        <v>2274.638881644112</v>
+        <v>4254.561537993745</v>
       </c>
       <c r="O42" t="n">
-        <v>2554.178946862809</v>
+        <v>4503.314952077708</v>
       </c>
       <c r="P42" t="n">
-        <v>2554.178946862809</v>
+        <v>4791.460014500964</v>
       </c>
       <c r="Q42" t="n">
-        <v>2623.573505376138</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="R42" t="n">
-        <v>2623.573505376138</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S42" t="n">
-        <v>2483.667400459913</v>
+        <v>4720.948468098068</v>
       </c>
       <c r="T42" t="n">
-        <v>2288.75278438369</v>
+        <v>4526.033852021846</v>
       </c>
       <c r="U42" t="n">
-        <v>2060.647860003077</v>
+        <v>4297.928927641233</v>
       </c>
       <c r="V42" t="n">
-        <v>1825.495751771334</v>
+        <v>4062.77681940949</v>
       </c>
       <c r="W42" t="n">
-        <v>1571.258395043133</v>
+        <v>3808.539462681289</v>
       </c>
       <c r="X42" t="n">
-        <v>1363.4068948376</v>
+        <v>3600.687962475756</v>
       </c>
       <c r="Y42" t="n">
-        <v>1155.646596072646</v>
+        <v>3392.927663710802</v>
       </c>
     </row>
     <row r="43">
@@ -7543,28 +7543,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>97.21709146028584</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="C43" t="n">
-        <v>97.21709146028584</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="D43" t="n">
-        <v>97.21709146028584</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="E43" t="n">
-        <v>97.21709146028584</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J43" t="n">
         <v>109.5997839241957</v>
@@ -7576,7 +7576,7 @@
         <v>507.4972331799365</v>
       </c>
       <c r="M43" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N43" t="n">
         <v>1049.608084974667</v>
@@ -7585,34 +7585,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P43" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q43" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R43" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S43" t="n">
-        <v>1498.916270557903</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T43" t="n">
-        <v>1379.229518531123</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U43" t="n">
-        <v>1090.100879744681</v>
+        <v>1016.198248099061</v>
       </c>
       <c r="V43" t="n">
-        <v>835.416391538794</v>
+        <v>761.5137598931742</v>
       </c>
       <c r="W43" t="n">
-        <v>545.9992215018333</v>
+        <v>472.0965898562135</v>
       </c>
       <c r="X43" t="n">
-        <v>318.0096706038159</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="Y43" t="n">
-        <v>97.21709146028584</v>
+        <v>244.1070389581962</v>
       </c>
     </row>
     <row r="44">
@@ -7628,46 +7628,46 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F44" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805467</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822459</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I44" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J44" t="n">
-        <v>365.881333182377</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514068</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795205</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M44" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619126</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O44" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R44" t="n">
         <v>4860.854573014292</v>
@@ -7713,13 +7713,13 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F45" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G45" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H45" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I45" t="n">
         <v>97.21709146028584</v>
@@ -7728,25 +7728,25 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K45" t="n">
-        <v>674.428562457161</v>
+        <v>388.8958536704856</v>
       </c>
       <c r="L45" t="n">
-        <v>1288.32563221405</v>
+        <v>987.4051452743433</v>
       </c>
       <c r="M45" t="n">
-        <v>1608.660951743751</v>
+        <v>1307.740464804045</v>
       </c>
       <c r="N45" t="n">
-        <v>2305.425532778847</v>
+        <v>2112.152043068196</v>
       </c>
       <c r="O45" t="n">
-        <v>2554.178946862809</v>
+        <v>2360.905457152158</v>
       </c>
       <c r="P45" t="n">
-        <v>2554.178946862809</v>
+        <v>2543.548934765509</v>
       </c>
       <c r="Q45" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R45" t="n">
         <v>2623.573505376138</v>
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>4437.14914771935</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="C46" t="n">
-        <v>4334.202995919602</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="D46" t="n">
-        <v>4184.086356507267</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="E46" t="n">
-        <v>4036.173262924874</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="F46" t="n">
-        <v>3889.283315426963</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="G46" t="n">
-        <v>3721.107993746784</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H46" t="n">
-        <v>3570.689985294727</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I46" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J46" t="n">
-        <v>3471.538086380584</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K46" t="n">
-        <v>3621.723490625196</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L46" t="n">
-        <v>3869.435535636325</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M46" t="n">
-        <v>4141.002278403508</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N46" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O46" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P46" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q46" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R46" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S46" t="n">
-        <v>4660.934562929845</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T46" t="n">
-        <v>4437.14914771935</v>
+        <v>1360.575309999864</v>
       </c>
       <c r="U46" t="n">
-        <v>4437.14914771935</v>
+        <v>1071.446671213422</v>
       </c>
       <c r="V46" t="n">
-        <v>4437.14914771935</v>
+        <v>816.762183007535</v>
       </c>
       <c r="W46" t="n">
-        <v>4437.14914771935</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="X46" t="n">
-        <v>4437.14914771935</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="Y46" t="n">
-        <v>4437.14914771935</v>
+        <v>527.3450129705744</v>
       </c>
     </row>
   </sheetData>
@@ -8058,7 +8058,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>221.0467526719077</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
@@ -8292,7 +8292,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270202</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8550,7 +8550,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747115</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8766,31 +8766,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M12" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N12" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9003,13 +9003,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M15" t="n">
         <v>465.7050637499999</v>
@@ -9021,13 +9021,13 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9252,10 +9252,10 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N18" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P18" t="n">
         <v>318.4627686399372</v>
@@ -9659,7 +9659,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
-        <v>65.71641987298243</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9714,28 +9714,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>465.7050637499999</v>
+        <v>288.4091825776751</v>
       </c>
       <c r="N24" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9951,7 +9951,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
         <v>264.4652370125786</v>
@@ -10191,10 +10191,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
         <v>465.7050637499999</v>
@@ -10206,10 +10206,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10607,7 +10607,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298293</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10662,10 +10662,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
         <v>370.8403453034592</v>
@@ -10683,7 +10683,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10902,7 +10902,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
         <v>370.8403453034592</v>
@@ -10920,7 +10920,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11142,7 +11142,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M42" t="n">
         <v>465.7050637499999</v>
@@ -11151,10 +11151,10 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
@@ -11391,7 +11391,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
         <v>210.0772877358491</v>
@@ -23416,25 +23416,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23464,19 +23464,19 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>82.39383318338571</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>9.47894048230188</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23650,28 +23650,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>47.41297725966355</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23701,25 +23701,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>96.77815526959002</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23887,7 +23887,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -23896,19 +23896,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23938,25 +23938,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>27.5127399072183</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2373523985773</v>
+        <v>52.81539738729904</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -24124,28 +24124,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>47.24130101521254</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24184,16 +24184,16 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>143.0862669818063</v>
       </c>
     </row>
     <row r="23">
@@ -24361,25 +24361,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>16.66571483983293</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I25" t="n">
         <v>110.419245464272</v>
@@ -24409,25 +24409,25 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2373523985773</v>
+        <v>79.43092547709136</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24598,10 +24598,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
@@ -24610,13 +24610,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>111.2782316777084</v>
       </c>
       <c r="H28" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>110.419245464272</v>
@@ -24649,25 +24649,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>28.55652547274755</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24883,10 +24883,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>82.39383318338523</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24901,7 +24901,7 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>192.3581855871784</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -25123,13 +25123,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>14.74113413690324</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>82.39383318338523</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25141,7 +25141,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25324,13 +25324,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,28 +25357,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U37" t="n">
-        <v>140.3375291694986</v>
+        <v>79.43092547709136</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25555,7 +25555,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
@@ -25567,7 +25567,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I40" t="n">
-        <v>25.58092832537862</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,10 +25594,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25606,13 +25606,13 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>82.39383318338574</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -25795,7 +25795,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>166.4935684633776</v>
@@ -25834,13 +25834,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>103.0576765518769</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>227.814881206317</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -25852,7 +25852,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -26023,16 +26023,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>65.33013081687743</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -26071,19 +26071,19 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>84.59001010593099</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>664749.4015541053</v>
+        <v>664749.4015541052</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>664749.4015541053</v>
+        <v>664749.4015541052</v>
       </c>
     </row>
     <row r="8">
@@ -26311,46 +26311,46 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>738937.5928778546</v>
+      </c>
+      <c r="C2" t="n">
         <v>738937.5928778547</v>
       </c>
-      <c r="C2" t="n">
-        <v>738937.5928778544</v>
-      </c>
       <c r="D2" t="n">
-        <v>738937.5928778545</v>
+        <v>738937.5928778552</v>
       </c>
       <c r="E2" t="n">
+        <v>703852.3075278756</v>
+      </c>
+      <c r="F2" t="n">
+        <v>703852.3075278756</v>
+      </c>
+      <c r="G2" t="n">
+        <v>703852.3075278761</v>
+      </c>
+      <c r="H2" t="n">
+        <v>703852.3075278758</v>
+      </c>
+      <c r="I2" t="n">
+        <v>703852.307527876</v>
+      </c>
+      <c r="J2" t="n">
+        <v>703852.3075278755</v>
+      </c>
+      <c r="K2" t="n">
+        <v>703852.3075278756</v>
+      </c>
+      <c r="L2" t="n">
+        <v>703852.3075278756</v>
+      </c>
+      <c r="M2" t="n">
+        <v>703852.3075278755</v>
+      </c>
+      <c r="N2" t="n">
         <v>703852.3075278759</v>
       </c>
-      <c r="F2" t="n">
-        <v>703852.3075278758</v>
-      </c>
-      <c r="G2" t="n">
+      <c r="O2" t="n">
         <v>703852.3075278759</v>
-      </c>
-      <c r="H2" t="n">
-        <v>703852.3075278755</v>
-      </c>
-      <c r="I2" t="n">
-        <v>703852.3075278758</v>
-      </c>
-      <c r="J2" t="n">
-        <v>703852.3075278756</v>
-      </c>
-      <c r="K2" t="n">
-        <v>703852.3075278754</v>
-      </c>
-      <c r="L2" t="n">
-        <v>703852.3075278759</v>
-      </c>
-      <c r="M2" t="n">
-        <v>703852.3075278759</v>
-      </c>
-      <c r="N2" t="n">
-        <v>703852.3075278754</v>
-      </c>
-      <c r="O2" t="n">
-        <v>703852.3075278755</v>
       </c>
       <c r="P2" t="n">
         <v>703852.3075278756</v>
@@ -26372,7 +26372,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768966</v>
+        <v>525160.036476896</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,7 +26387,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.219192593</v>
+        <v>176423.2191925931</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26396,7 +26396,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338373</v>
+        <v>134801.0152338372</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26418,40 +26418,40 @@
         <v>139059.1391806191</v>
       </c>
       <c r="C4" t="n">
-        <v>139059.1391806192</v>
+        <v>139059.1391806191</v>
       </c>
       <c r="D4" t="n">
-        <v>139059.1391806192</v>
+        <v>139059.139180619</v>
       </c>
       <c r="E4" t="n">
+        <v>787.7936905759137</v>
+      </c>
+      <c r="F4" t="n">
+        <v>787.7936905758841</v>
+      </c>
+      <c r="G4" t="n">
+        <v>787.7936905759346</v>
+      </c>
+      <c r="H4" t="n">
+        <v>787.793690575921</v>
+      </c>
+      <c r="I4" t="n">
         <v>787.7936905758694</v>
       </c>
-      <c r="F4" t="n">
+      <c r="J4" t="n">
+        <v>787.7936905759059</v>
+      </c>
+      <c r="K4" t="n">
         <v>787.7936905758695</v>
       </c>
-      <c r="G4" t="n">
+      <c r="L4" t="n">
         <v>787.7936905758695</v>
       </c>
-      <c r="H4" t="n">
-        <v>787.7936905758694</v>
-      </c>
-      <c r="I4" t="n">
+      <c r="M4" t="n">
         <v>787.7936905758695</v>
       </c>
-      <c r="J4" t="n">
-        <v>787.7936905759108</v>
-      </c>
-      <c r="K4" t="n">
-        <v>787.7936905758116</v>
-      </c>
-      <c r="L4" t="n">
-        <v>787.7936905758027</v>
-      </c>
-      <c r="M4" t="n">
-        <v>787.7936905758081</v>
-      </c>
       <c r="N4" t="n">
-        <v>787.7936905759107</v>
+        <v>787.7936905758693</v>
       </c>
       <c r="O4" t="n">
         <v>787.7936905758696</v>
@@ -26470,37 +26470,37 @@
         <v>82859.07806340946</v>
       </c>
       <c r="C5" t="n">
-        <v>82859.07806340943</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340943</v>
+        <v>82859.07806340948</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="F5" t="n">
         <v>91987.32594871662</v>
       </c>
       <c r="G5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871661</v>
       </c>
       <c r="H5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871661</v>
       </c>
       <c r="I5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871661</v>
       </c>
       <c r="J5" t="n">
         <v>91987.32594871664</v>
       </c>
       <c r="K5" t="n">
-        <v>91987.32594871667</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="L5" t="n">
-        <v>91987.32594871667</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="M5" t="n">
-        <v>91987.32594871667</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="N5" t="n">
         <v>91987.32594871664</v>
@@ -26519,46 +26519,46 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-72948.50358071836</v>
+        <v>-72948.5035807185</v>
       </c>
       <c r="C6" t="n">
-        <v>517019.3756338264</v>
+        <v>517019.3756338262</v>
       </c>
       <c r="D6" t="n">
-        <v>517019.3756338259</v>
+        <v>517019.3756338267</v>
       </c>
       <c r="E6" t="n">
-        <v>85917.15141168678</v>
+        <v>85917.15141168705</v>
       </c>
       <c r="F6" t="n">
+        <v>611077.1878885832</v>
+      </c>
+      <c r="G6" t="n">
+        <v>611077.1878885835</v>
+      </c>
+      <c r="H6" t="n">
         <v>611077.1878885833</v>
       </c>
-      <c r="G6" t="n">
+      <c r="I6" t="n">
+        <v>611077.1878885835</v>
+      </c>
+      <c r="J6" t="n">
+        <v>434653.9686959899</v>
+      </c>
+      <c r="K6" t="n">
+        <v>611077.1878885832</v>
+      </c>
+      <c r="L6" t="n">
+        <v>611077.1878885832</v>
+      </c>
+      <c r="M6" t="n">
+        <v>476276.1726547458</v>
+      </c>
+      <c r="N6" t="n">
         <v>611077.1878885834</v>
       </c>
-      <c r="H6" t="n">
-        <v>611077.1878885831</v>
-      </c>
-      <c r="I6" t="n">
-        <v>611077.1878885833</v>
-      </c>
-      <c r="J6" t="n">
-        <v>434653.9686959902</v>
-      </c>
-      <c r="K6" t="n">
-        <v>611077.1878885829</v>
-      </c>
-      <c r="L6" t="n">
+      <c r="O6" t="n">
         <v>611077.1878885834</v>
-      </c>
-      <c r="M6" t="n">
-        <v>476276.1726547462</v>
-      </c>
-      <c r="N6" t="n">
-        <v>611077.1878885831</v>
-      </c>
-      <c r="O6" t="n">
-        <v>611077.1878885831</v>
       </c>
       <c r="P6" t="n">
         <v>611077.1878885832</v>
@@ -26707,19 +26707,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>6.06329801181952e-14</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>6.06329801181952e-14</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>6.06329801181952e-14</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>6.06329801181952e-14</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>6.06329801181952e-14</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -26738,13 +26738,13 @@
         <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170862</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170862</v>
+        <v>377.7436642170869</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="F3" t="n">
         <v>830.3824054541002</v>
@@ -26762,22 +26762,22 @@
         <v>830.3824054541003</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541003</v>
       </c>
     </row>
     <row r="4">
@@ -26790,10 +26790,10 @@
         <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
-        <v>674.2872727545551</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545551</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
@@ -26814,13 +26814,13 @@
         <v>1215.213643253573</v>
       </c>
       <c r="K4" t="n">
-        <v>1215.213643253574</v>
+        <v>1215.213643253573</v>
       </c>
       <c r="L4" t="n">
-        <v>1215.213643253574</v>
+        <v>1215.213643253573</v>
       </c>
       <c r="M4" t="n">
-        <v>1215.213643253574</v>
+        <v>1215.213643253573</v>
       </c>
       <c r="N4" t="n">
         <v>1215.213643253573</v>
@@ -26929,7 +26929,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>6.06329801181952e-14</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.638741237014</v>
+        <v>452.6387412370134</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990179</v>
+        <v>540.9263704990176</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545562</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990179</v>
+        <v>540.9263704990178</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27166,7 +27166,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>6.06329801181952e-14</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990179</v>
+        <v>540.9263704990176</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27379,13 +27379,13 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>281.1539702597866</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -27394,10 +27394,10 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27430,16 +27430,16 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>168.1725798986904</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
@@ -27534,31 +27534,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>157.7816843290284</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>82.85718120047548</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27582,7 +27582,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
@@ -27591,7 +27591,7 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -27613,25 +27613,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>281.1539702597866</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>326.5485795139153</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27664,7 +27664,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
         <v>216.4483203576578</v>
@@ -27673,10 +27673,10 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -27774,7 +27774,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -27792,7 +27792,7 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27816,10 +27816,10 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
@@ -27828,16 +27828,16 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>112.5449054456765</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>142.1261138757839</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27853,25 +27853,25 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>168.4323246176517</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>132.8648845296945</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>151.9313162448612</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27904,13 +27904,13 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -27919,7 +27919,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28029,10 +28029,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853706</v>
+        <v>45.19995918853697</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28056,25 +28056,25 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>64.56101176365536</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2818742419777</v>
+        <v>186.6211234951016</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -29272,28 +29272,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>6.06329801181952e-14</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>6.06329801181952e-14</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>6.06329801181952e-14</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>6.06329801181952e-14</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>6.06329801181952e-14</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>6.06329801181952e-14</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>6.06329801181952e-14</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>6.06329801181952e-14</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -29323,25 +29323,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>6.06329801181952e-14</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>6.06329801181952e-14</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>6.06329801181952e-14</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>6.06329801181952e-14</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>6.06329801181952e-14</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>6.06329801181952e-14</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>6.06329801181952e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -29509,25 +29509,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>6.06329801181952e-14</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>6.06329801181952e-14</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>6.06329801181952e-14</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>6.06329801181952e-14</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>6.06329801181952e-14</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>-1.818989403545856e-12</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -29569,16 +29569,16 @@
         <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>6.06329801181952e-14</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>6.06329801181952e-14</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>6.06329801181952e-14</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>6.06329801181952e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -29749,7 +29749,7 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>6.06329801181952e-14</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
@@ -29995,10 +29995,10 @@
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>-1.534772309241816e-12</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>6.06329801181952e-14</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -30037,10 +30037,10 @@
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>6.06329801181952e-14</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>6.06329801181952e-14</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -30220,28 +30220,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>6.06329801181952e-14</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>6.06329801181952e-14</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>6.06329801181952e-14</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>6.06329801181952e-14</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>6.06329801181952e-14</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>6.06329801181952e-14</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>6.06329801181952e-14</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>6.06329801181952e-14</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -30271,25 +30271,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>6.06329801181952e-14</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>6.06329801181952e-14</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>6.06329801181952e-14</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>6.06329801181952e-14</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>6.06329801181952e-14</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>6.06329801181952e-14</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>6.06329801181952e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -31136,7 +31136,7 @@
         <v>176.4169820478007</v>
       </c>
       <c r="M3" t="n">
-        <v>162.4518126576413</v>
+        <v>205.8702969983122</v>
       </c>
       <c r="N3" t="n">
         <v>211.31907117367</v>
@@ -31276,49 +31276,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.518567494340044</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935140998</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.5445733255446</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J5" t="n">
-        <v>128.8865178727434</v>
+        <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081575</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L5" t="n">
-        <v>239.6413398630667</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405364</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N5" t="n">
-        <v>270.9617944338301</v>
+        <v>270.9617944338304</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119863</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954664</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q5" t="n">
-        <v>163.9882055044135</v>
+        <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633787</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727379</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473546</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U5" t="n">
-        <v>0.1214853995472035</v>
+        <v>0.1214853995472036</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,49 +31355,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141101</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188906</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I6" t="n">
-        <v>27.97441286890686</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396467</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K6" t="n">
-        <v>131.2017781649101</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L6" t="n">
-        <v>176.4169820478005</v>
+        <v>176.4169820478007</v>
       </c>
       <c r="M6" t="n">
-        <v>205.870296998312</v>
+        <v>205.8702969983122</v>
       </c>
       <c r="N6" t="n">
-        <v>167.9005868330008</v>
+        <v>91.88325107529255</v>
       </c>
       <c r="O6" t="n">
-        <v>193.3156655923045</v>
+        <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479576</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q6" t="n">
-        <v>103.7155811639064</v>
+        <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034976</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S6" t="n">
-        <v>15.09192847131471</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372662</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619147</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,49 +31434,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078603</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644435</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492003</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813572</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302231</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L7" t="n">
-        <v>101.2724571246923</v>
+        <v>101.2724571246924</v>
       </c>
       <c r="M7" t="n">
-        <v>106.7776065917249</v>
+        <v>106.777606591725</v>
       </c>
       <c r="N7" t="n">
-        <v>104.2386737666593</v>
+        <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175834</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383791</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678002</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R7" t="n">
-        <v>30.6281993970116</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S7" t="n">
-        <v>11.87105908695334</v>
+        <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197221</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U7" t="n">
-        <v>0.03715511451315606</v>
+        <v>0.0371551145131561</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31513,49 +31513,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340044</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935140998</v>
+        <v>15.55202935141001</v>
       </c>
       <c r="I8" t="n">
-        <v>58.5445733255446</v>
+        <v>58.5445733255447</v>
       </c>
       <c r="J8" t="n">
-        <v>128.8865178727434</v>
+        <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081575</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630667</v>
+        <v>239.6413398630671</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405364</v>
+        <v>266.6471645405369</v>
       </c>
       <c r="N8" t="n">
-        <v>270.9617944338301</v>
+        <v>270.9617944338306</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119863</v>
+        <v>255.8615389119867</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954664</v>
+        <v>218.3719038954668</v>
       </c>
       <c r="Q8" t="n">
-        <v>163.9882055044135</v>
+        <v>163.9882055044138</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633786</v>
+        <v>95.39071536633803</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727379</v>
+        <v>34.60435677727384</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473545</v>
+        <v>6.647529206473557</v>
       </c>
       <c r="U8" t="n">
-        <v>0.1214853995472035</v>
+        <v>0.1214853995472037</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31592,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.81250524001411</v>
+        <v>0.8125052400141114</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188905</v>
+        <v>7.847090081188919</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890686</v>
+        <v>27.97441286890691</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396467</v>
+        <v>76.7639270839648</v>
       </c>
       <c r="K9" t="n">
-        <v>131.20177816491</v>
+        <v>131.2017781649103</v>
       </c>
       <c r="L9" t="n">
-        <v>176.4169820478005</v>
+        <v>176.4169820478008</v>
       </c>
       <c r="M9" t="n">
-        <v>205.8702969983119</v>
+        <v>205.8702969983123</v>
       </c>
       <c r="N9" t="n">
-        <v>211.3190711736698</v>
+        <v>211.3190711736702</v>
       </c>
       <c r="O9" t="n">
-        <v>73.87984549392877</v>
+        <v>193.3156655923048</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479576</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q9" t="n">
-        <v>103.7155811639064</v>
+        <v>103.7155811639066</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034976</v>
+        <v>50.44659727034985</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131471</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372661</v>
+        <v>3.274966296372667</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619147</v>
+        <v>0.05345429210619156</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31671,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078602</v>
+        <v>0.6811770994078614</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644434</v>
+        <v>6.056283665644446</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492002</v>
+        <v>20.48485313492006</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813572</v>
+        <v>48.1592209281358</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302229</v>
+        <v>79.14039391302244</v>
       </c>
       <c r="L10" t="n">
-        <v>101.2724571246923</v>
+        <v>101.2724571246924</v>
       </c>
       <c r="M10" t="n">
-        <v>106.7776065917248</v>
+        <v>106.777606591725</v>
       </c>
       <c r="N10" t="n">
-        <v>104.2386737666593</v>
+        <v>104.2386737666595</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175832</v>
+        <v>96.28128674175849</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383791</v>
+        <v>82.38527391383805</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678001</v>
+        <v>57.03929329678012</v>
       </c>
       <c r="R10" t="n">
-        <v>30.6281993970116</v>
+        <v>30.62819939701166</v>
       </c>
       <c r="S10" t="n">
-        <v>11.87105908695334</v>
+        <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.91048397019722</v>
+        <v>2.910483970197225</v>
       </c>
       <c r="U10" t="n">
-        <v>0.03715511451315606</v>
+        <v>0.03715511451315612</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,16 +31750,16 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I11" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K11" t="n">
         <v>424.6341946041488</v>
@@ -31768,7 +31768,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N11" t="n">
         <v>595.6470695927186</v>
@@ -31777,7 +31777,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q11" t="n">
         <v>360.4902833647496</v>
@@ -31786,7 +31786,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
@@ -31829,7 +31829,7 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H12" t="n">
         <v>17.25001940386726</v>
@@ -31838,7 +31838,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J12" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K12" t="n">
         <v>288.4168775622982</v>
@@ -31847,28 +31847,28 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M12" t="n">
-        <v>396.5537155454428</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813461</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O12" t="n">
-        <v>424.9599466855526</v>
+        <v>248.3419371845228</v>
       </c>
       <c r="P12" t="n">
         <v>341.0678223458549</v>
       </c>
       <c r="Q12" t="n">
-        <v>227.9948068710956</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T12" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31929,7 +31929,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N13" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O13" t="n">
         <v>211.6522236065632</v>
@@ -31941,16 +31941,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R13" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S13" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32020,7 +32020,7 @@
         <v>360.4902833647496</v>
       </c>
       <c r="R14" t="n">
-        <v>209.6945076446483</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
         <v>76.06970478104648</v>
@@ -32075,28 +32075,28 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>387.8120847358985</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724845</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813461</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
         <v>424.9599466855526</v>
       </c>
       <c r="P15" t="n">
-        <v>171.6994579700038</v>
+        <v>24.0331285402068</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>110.8952201095118</v>
@@ -32312,31 +32312,31 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J18" t="n">
-        <v>0.7465913262578567</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>387.8120847358985</v>
+        <v>282.5486196069145</v>
       </c>
       <c r="M18" t="n">
-        <v>132.0977625877742</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
         <v>464.5362854813462</v>
       </c>
       <c r="O18" t="n">
-        <v>424.9599466855526</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R18" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S18" t="n">
         <v>33.17612723677465</v>
@@ -32491,10 +32491,10 @@
         <v>480.0403130946993</v>
       </c>
       <c r="Q20" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647489</v>
       </c>
       <c r="R20" t="n">
-        <v>209.6945076446473</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
         <v>76.0697047810465</v>
@@ -32552,22 +32552,22 @@
         <v>168.7478056215734</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>41.93843809132542</v>
       </c>
       <c r="L21" t="n">
-        <v>387.8120847358985</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>34.77051449707545</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O21" t="n">
-        <v>424.9599466855526</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -32789,13 +32789,13 @@
         <v>168.7478056215734</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M24" t="n">
-        <v>377.3319892206168</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N24" t="n">
         <v>464.5362854813462</v>
@@ -32804,7 +32804,7 @@
         <v>424.9599466855526</v>
       </c>
       <c r="P24" t="n">
-        <v>133.9744074143302</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q24" t="n">
         <v>227.9948068710956</v>
@@ -33023,22 +33023,22 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>31.20105213445663</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>249.5159911824346</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O27" t="n">
-        <v>424.9599466855526</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
         <v>341.0678223458549</v>
@@ -33047,7 +33047,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S27" t="n">
         <v>33.17612723677465</v>
@@ -33175,7 +33175,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I29" t="n">
         <v>128.6967545176652</v>
@@ -33184,31 +33184,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K29" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L29" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M29" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N29" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O29" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P29" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q29" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R29" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
@@ -33257,31 +33257,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I30" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J30" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>387.8120847358986</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724847</v>
+        <v>383.0062604371804</v>
       </c>
       <c r="N30" t="n">
-        <v>246.2470889566299</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O30" t="n">
-        <v>424.9599466855527</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>133.9744074143302</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>227.9948068710957</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>100.1578341526431</v>
@@ -33336,7 +33336,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I31" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J31" t="n">
         <v>105.8669502822383</v>
@@ -33348,7 +33348,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M31" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N31" t="n">
         <v>229.1447054263751</v>
@@ -33360,19 +33360,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q31" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R31" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S31" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33412,7 +33412,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I32" t="n">
         <v>128.6967545176652</v>
@@ -33421,31 +33421,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K32" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L32" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M32" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N32" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O32" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P32" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q32" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R32" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
@@ -33494,7 +33494,7 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I33" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J33" t="n">
         <v>168.7478056215734</v>
@@ -33503,16 +33503,16 @@
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>387.8120847358986</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>459.7304611826279</v>
+        <v>422.5825992329737</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -33573,7 +33573,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I34" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J34" t="n">
         <v>105.8669502822383</v>
@@ -33585,7 +33585,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M34" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N34" t="n">
         <v>229.1447054263751</v>
@@ -33597,19 +33597,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q34" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R34" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S34" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33649,7 +33649,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I35" t="n">
         <v>128.6967545176652</v>
@@ -33658,31 +33658,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K35" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L35" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M35" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N35" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O35" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P35" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q35" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R35" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
@@ -33731,34 +33731,34 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I36" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724847</v>
+        <v>372.2688744803117</v>
       </c>
       <c r="N36" t="n">
-        <v>334.7447142438518</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O36" t="n">
-        <v>424.9599466855527</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S36" t="n">
         <v>33.17612723677465</v>
@@ -33810,7 +33810,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I37" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J37" t="n">
         <v>105.8669502822383</v>
@@ -33822,7 +33822,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M37" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N37" t="n">
         <v>229.1447054263751</v>
@@ -33834,19 +33834,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q37" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R37" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33886,7 +33886,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I38" t="n">
         <v>128.6967545176652</v>
@@ -33895,31 +33895,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K38" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L38" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M38" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N38" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O38" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P38" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q38" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R38" t="n">
-        <v>209.6945076446464</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
@@ -33968,34 +33968,34 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I39" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J39" t="n">
-        <v>168.7478056215734</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L39" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>315.38195052482</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>398.6729256086039</v>
       </c>
       <c r="P39" t="n">
-        <v>341.067822345855</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>139.9817740860215</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S39" t="n">
         <v>33.17612723677465</v>
@@ -34047,7 +34047,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I40" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J40" t="n">
         <v>105.8669502822383</v>
@@ -34059,7 +34059,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M40" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N40" t="n">
         <v>229.1447054263751</v>
@@ -34071,19 +34071,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q40" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R40" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S40" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34123,7 +34123,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I41" t="n">
         <v>128.6967545176652</v>
@@ -34132,31 +34132,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K41" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L41" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M41" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N41" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O41" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P41" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q41" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647508</v>
       </c>
       <c r="R41" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
@@ -34205,28 +34205,28 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I42" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K42" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L42" t="n">
-        <v>387.8120847358986</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N42" t="n">
-        <v>242.9862517680879</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>424.9599466855527</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>133.9744074143302</v>
+        <v>106.5672573837423</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -34284,7 +34284,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I43" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J43" t="n">
         <v>105.8669502822383</v>
@@ -34296,7 +34296,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M43" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N43" t="n">
         <v>229.1447054263751</v>
@@ -34308,19 +34308,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q43" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R43" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34360,40 +34360,40 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I44" t="n">
         <v>128.6967545176652</v>
       </c>
       <c r="J44" t="n">
-        <v>283.3273112961188</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K44" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L44" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M44" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N44" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O44" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P44" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q44" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R44" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
@@ -34442,34 +34442,34 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I45" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J45" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K45" t="n">
-        <v>288.4168775622983</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>387.8120847358986</v>
+        <v>372.2688744803118</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>355.8019448459369</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O45" t="n">
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>133.9744074143302</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S45" t="n">
         <v>33.17612723677465</v>
@@ -34521,7 +34521,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I46" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J46" t="n">
         <v>105.8669502822383</v>
@@ -34533,7 +34533,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M46" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N46" t="n">
         <v>229.1447054263751</v>
@@ -34545,19 +34545,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q46" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R46" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S46" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34778,13 +34778,13 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>257.8255762031298</v>
+        <v>214.4070918624589</v>
       </c>
       <c r="L3" t="n">
         <v>408.7029475713857</v>
       </c>
       <c r="M3" t="n">
-        <v>486.0228424856228</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
         <v>559.3197334338903</v>
@@ -34933,28 +34933,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.9372285181309</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K5" t="n">
-        <v>297.2230414343417</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435299</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060962</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492234</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530449</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116796</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q5" t="n">
-        <v>153.9975062898687</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K6" t="n">
-        <v>257.8255762031297</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L6" t="n">
-        <v>408.7029475713855</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M6" t="n">
-        <v>529.4413268262936</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>515.9012490932211</v>
+        <v>439.8839133355128</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245896</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735645</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q6" t="n">
-        <v>173.811094813734</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35094,22 +35094,22 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713946</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L7" t="n">
-        <v>128.8624823850084</v>
+        <v>128.8624823850085</v>
       </c>
       <c r="M7" t="n">
-        <v>146.3614835535654</v>
+        <v>146.3614835535656</v>
       </c>
       <c r="N7" t="n">
-        <v>148.3708461458879</v>
+        <v>148.370846145888</v>
       </c>
       <c r="O7" t="n">
-        <v>120.866414655798</v>
+        <v>120.8664146557981</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873139</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35170,28 +35170,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.9372285181309</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K8" t="n">
-        <v>297.2230414343417</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435299</v>
+        <v>421.5361394435303</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060961</v>
+        <v>485.8144648060967</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492234</v>
+        <v>478.8956552492238</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530449</v>
+        <v>406.5635087530453</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116794</v>
+        <v>308.9376163116799</v>
       </c>
       <c r="Q8" t="n">
-        <v>153.9975062898687</v>
+        <v>153.997506289869</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35249,28 +35249,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770682</v>
+        <v>76.01733575770695</v>
       </c>
       <c r="K9" t="n">
-        <v>257.8255762031296</v>
+        <v>257.8255762031299</v>
       </c>
       <c r="L9" t="n">
-        <v>408.7029475713855</v>
+        <v>408.7029475713858</v>
       </c>
       <c r="M9" t="n">
-        <v>529.4413268262936</v>
+        <v>529.4413268262939</v>
       </c>
       <c r="N9" t="n">
-        <v>559.31973343389</v>
+        <v>559.3197334338904</v>
       </c>
       <c r="O9" t="n">
-        <v>325.1459203262139</v>
+        <v>444.5817404245899</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735645</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q9" t="n">
-        <v>173.811094813734</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35331,22 +35331,22 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713944</v>
+        <v>56.87090208713958</v>
       </c>
       <c r="L10" t="n">
-        <v>128.8624823850084</v>
+        <v>128.8624823850086</v>
       </c>
       <c r="M10" t="n">
-        <v>146.3614835535654</v>
+        <v>146.3614835535656</v>
       </c>
       <c r="N10" t="n">
-        <v>148.3708461458879</v>
+        <v>148.370846145888</v>
       </c>
       <c r="O10" t="n">
-        <v>120.866414655798</v>
+        <v>120.8664146557982</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873139</v>
+        <v>79.66383317873154</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35410,13 +35410,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K11" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L11" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N11" t="n">
         <v>803.5809304081118</v>
@@ -35431,7 +35431,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R11" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,28 +35486,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K12" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L12" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M12" t="n">
-        <v>720.1247453734244</v>
+        <v>323.5710298279816</v>
       </c>
       <c r="N12" t="n">
-        <v>812.5369477415663</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>282.3637022411081</v>
+        <v>499.6080120168079</v>
       </c>
       <c r="P12" t="n">
-        <v>207.0934149315246</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q12" t="n">
-        <v>88.0130327850741</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,10 +35565,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L13" t="n">
         <v>250.2141868799285</v>
@@ -35580,13 +35580,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35668,7 +35668,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349858</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,31 +35723,31 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L15" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M15" t="n">
-        <v>776.1294408004661</v>
+        <v>323.5710298279816</v>
       </c>
       <c r="N15" t="n">
-        <v>812.5369477415663</v>
+        <v>348.0006622602202</v>
       </c>
       <c r="O15" t="n">
         <v>676.2260215178376</v>
       </c>
       <c r="P15" t="n">
-        <v>37.72505055567354</v>
+        <v>208.5214897658137</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35960,31 +35960,31 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K18" t="n">
         <v>126.6237980382196</v>
       </c>
       <c r="L18" t="n">
-        <v>620.0980502594834</v>
+        <v>514.8345851304995</v>
       </c>
       <c r="M18" t="n">
-        <v>455.6687924157558</v>
+        <v>323.5710298279816</v>
       </c>
       <c r="N18" t="n">
-        <v>812.5369477415665</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O18" t="n">
-        <v>282.3637022411082</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P18" t="n">
-        <v>184.4883612256069</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q18" t="n">
-        <v>70.09551364982758</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36139,10 +36139,10 @@
         <v>570.6060255109123</v>
       </c>
       <c r="Q20" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502041</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349766</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36200,22 +36200,22 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K21" t="n">
-        <v>126.6237980382196</v>
+        <v>168.562236129545</v>
       </c>
       <c r="L21" t="n">
-        <v>620.0980502594834</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M21" t="n">
-        <v>358.341544325057</v>
+        <v>323.5710298279816</v>
       </c>
       <c r="N21" t="n">
-        <v>348.0006622602202</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O21" t="n">
-        <v>676.2260215178377</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P21" t="n">
-        <v>184.4883612256069</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q21" t="n">
         <v>70.09551364982758</v>
@@ -36379,7 +36379,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,28 +36434,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L24" t="n">
-        <v>232.285965523585</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M24" t="n">
-        <v>700.9030190485984</v>
+        <v>598.8335596281414</v>
       </c>
       <c r="N24" t="n">
-        <v>812.5369477415665</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O24" t="n">
-        <v>676.2260215178377</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q24" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36671,22 +36671,22 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K27" t="n">
         <v>126.6237980382196</v>
       </c>
       <c r="L27" t="n">
-        <v>232.285965523585</v>
+        <v>263.4870176580416</v>
       </c>
       <c r="M27" t="n">
         <v>323.5710298279816</v>
       </c>
       <c r="N27" t="n">
-        <v>597.5166534426548</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O27" t="n">
-        <v>676.2260215178377</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P27" t="n">
         <v>525.5561835714618</v>
@@ -36695,7 +36695,7 @@
         <v>70.09551364982758</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36835,25 +36835,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L29" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N29" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O29" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P29" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q29" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.82538970349813</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36911,25 +36911,25 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L30" t="n">
-        <v>249.2577049560244</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M30" t="n">
-        <v>776.1294408004662</v>
+        <v>706.577290265162</v>
       </c>
       <c r="N30" t="n">
-        <v>594.2477512168501</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O30" t="n">
-        <v>676.2260215178378</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q30" t="n">
-        <v>88.01303278507416</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36987,19 +36987,19 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K31" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L31" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M31" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N31" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O31" t="n">
         <v>236.2373515206029</v>
@@ -37008,7 +37008,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q31" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37072,25 +37072,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L32" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N32" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O32" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P32" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q32" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.82538970349813</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37151,16 +37151,16 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L33" t="n">
-        <v>620.0980502594836</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M33" t="n">
         <v>323.5710298279816</v>
       </c>
       <c r="N33" t="n">
-        <v>807.7311234428481</v>
+        <v>770.583261493194</v>
       </c>
       <c r="O33" t="n">
-        <v>251.2660748322851</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P33" t="n">
         <v>184.4883612256069</v>
@@ -37224,19 +37224,19 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K34" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L34" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M34" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N34" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O34" t="n">
         <v>236.2373515206029</v>
@@ -37245,7 +37245,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q34" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37309,25 +37309,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L35" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N35" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O35" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P35" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q35" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,31 +37382,31 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L36" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M36" t="n">
-        <v>776.1294408004662</v>
+        <v>695.8399043082933</v>
       </c>
       <c r="N36" t="n">
-        <v>682.7453765040721</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O36" t="n">
-        <v>676.2260215178378</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P36" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,19 +37461,19 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K37" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L37" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M37" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N37" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O37" t="n">
         <v>236.2373515206029</v>
@@ -37482,7 +37482,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q37" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37546,25 +37546,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L38" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N38" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O38" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P38" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q38" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349674</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,31 +37619,31 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>168.0012142953155</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L39" t="n">
-        <v>620.0980502594836</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M39" t="n">
         <v>323.5710298279816</v>
       </c>
       <c r="N39" t="n">
-        <v>663.3826127850402</v>
+        <v>348.0006622602202</v>
       </c>
       <c r="O39" t="n">
-        <v>251.2660748322851</v>
+        <v>649.939000440889</v>
       </c>
       <c r="P39" t="n">
-        <v>525.5561835714619</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,19 +37698,19 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K40" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L40" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M40" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N40" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O40" t="n">
         <v>236.2373515206029</v>
@@ -37719,7 +37719,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q40" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37783,25 +37783,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L41" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N41" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O41" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P41" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q41" t="n">
-        <v>350.4995841502049</v>
+        <v>350.499584150206</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349813</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37859,22 +37859,22 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K42" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L42" t="n">
-        <v>249.2577049560244</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M42" t="n">
         <v>776.1294408004662</v>
       </c>
       <c r="N42" t="n">
-        <v>590.9869140283081</v>
+        <v>348.0006622602202</v>
       </c>
       <c r="O42" t="n">
-        <v>282.3637022411082</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>291.0556186093492</v>
       </c>
       <c r="Q42" t="n">
         <v>70.09551364982758</v>
@@ -37935,19 +37935,19 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K43" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L43" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M43" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N43" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O43" t="n">
         <v>236.2373515206029</v>
@@ -37956,7 +37956,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q43" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38014,31 +38014,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>271.3780219415063</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
         <v>528.6897561303331</v>
       </c>
       <c r="L44" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N44" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O44" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P44" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q44" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970349813</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38096,28 +38096,28 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K45" t="n">
-        <v>415.0406756005179</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L45" t="n">
-        <v>620.0980502594836</v>
+        <v>604.5548400038967</v>
       </c>
       <c r="M45" t="n">
         <v>323.5710298279816</v>
       </c>
       <c r="N45" t="n">
-        <v>703.8026071061571</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O45" t="n">
         <v>251.2660748322851</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q45" t="n">
         <v>70.09551364982758</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,19 +38172,19 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K46" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L46" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M46" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N46" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O46" t="n">
         <v>236.2373515206029</v>
@@ -38193,7 +38193,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q46" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_0_36.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_0_36.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3822966.5926231</v>
+        <v>3815949.577731388</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>547397.6007155664</v>
+        <v>566727.5594865837</v>
       </c>
     </row>
     <row r="8">
@@ -658,28 +658,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>307.2826806449062</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -706,25 +706,25 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>7.367192415813765</v>
       </c>
       <c r="T2" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -749,7 +749,7 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933836</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
         <v>136.5310119231965</v>
@@ -758,7 +758,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I3" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250796</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S3" t="n">
         <v>156.5912426325231</v>
@@ -816,25 +816,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>59.66385641544528</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -861,10 +861,10 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.12274995491431</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -876,13 +876,13 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>59.68657692137155</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -895,25 +895,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>13.784170020795</v>
+        <v>375.2540714240162</v>
       </c>
       <c r="H5" t="n">
-        <v>180.5770192839277</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -943,22 +943,22 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -1053,19 +1053,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1101,7 +1101,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1110,13 +1110,13 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>208.1110812604921</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>25.31590541686252</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1135,13 +1135,13 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>349.3397092300172</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
@@ -1180,7 +1180,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>39.22879305694519</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -1192,13 +1192,13 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1232,7 +1232,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1341,10 +1341,10 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>212.1455389500189</v>
+        <v>156.1271626621472</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
         <v>286.2818742419777</v>
@@ -1359,7 +1359,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>169.0167291702124</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1375,10 +1375,10 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.6830416206818</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722589</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
@@ -1390,7 +1390,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.7791350527408</v>
+        <v>81.77913505274083</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1466,10 +1466,10 @@
         <v>135.5574116118565</v>
       </c>
       <c r="H12" t="n">
-        <v>94.98542483262921</v>
+        <v>94.98542483262922</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014446</v>
+        <v>27.90133207014448</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1530,10 +1530,10 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>141.6633639850574</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
@@ -1548,7 +1548,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -1584,16 +1584,16 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>20.04232573950423</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -1609,7 +1609,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710057</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
@@ -1624,7 +1624,7 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H14" t="n">
-        <v>305.2872491113166</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
         <v>81.7791350527408</v>
@@ -1764,25 +1764,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>111.9679966130646</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1815,7 +1815,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
         <v>221.5475610583892</v>
@@ -1824,7 +1824,7 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -1833,7 +1833,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>48.48750874947797</v>
       </c>
     </row>
     <row r="17">
@@ -1864,7 +1864,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.7791350527396</v>
+        <v>81.7791350527408</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1900,7 +1900,7 @@
         <v>208.4827883385019</v>
       </c>
       <c r="U17" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952497999</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -1943,7 +1943,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014446</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2007,16 +2007,16 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2049,19 +2049,19 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9208099836032</v>
+        <v>115.5269768002176</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
-        <v>106.0213670654576</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -2134,13 +2134,13 @@
         <v>132.9503648051989</v>
       </c>
       <c r="T20" t="n">
-        <v>208.4827883385019</v>
+        <v>208.4827883385011</v>
       </c>
       <c r="U20" t="n">
         <v>251.078595249801</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
         <v>349.240968717413</v>
@@ -2238,7 +2238,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -2253,13 +2253,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,16 +2286,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2304,10 +2304,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>143.3158222056515</v>
       </c>
       <c r="Y22" t="n">
-        <v>60.7648380744524</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2332,7 +2332,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896903</v>
       </c>
       <c r="H23" t="n">
         <v>305.2872491113177</v>
@@ -2478,22 +2478,22 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2526,7 +2526,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T25" t="n">
         <v>221.5475610583892</v>
@@ -2535,16 +2535,16 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>102.193620255351</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051993</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
@@ -2715,7 +2715,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -2763,16 +2763,16 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583892</v>
+        <v>157.2425576766694</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
-        <v>108.9023612584545</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -2812,7 +2812,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.7791350527408</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2851,7 +2851,7 @@
         <v>251.078595249801</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701337</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
         <v>349.240968717413</v>
@@ -2891,7 +2891,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014445</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2949,7 +2949,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -2958,16 +2958,16 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -3000,22 +3000,22 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
-        <v>51.44029960352438</v>
+        <v>82.09626064134706</v>
       </c>
       <c r="T31" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -3049,7 +3049,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.7791350527408</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3128,7 +3128,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014445</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3186,10 +3186,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -3198,13 +3198,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3240,10 +3240,10 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>82.62338840723044</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3252,7 +3252,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>22.42123215846201</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -3283,10 +3283,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H35" t="n">
-        <v>305.2872491113166</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.7791350527408</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3365,7 +3365,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014445</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3423,25 +3423,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -3483,13 +3483,13 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>158.7228363149356</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>15.98360398438619</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -3523,7 +3523,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.7791350527408</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3602,7 +3602,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014445</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3663,22 +3663,22 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3711,13 +3711,13 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>1.348711718016002</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3726,10 +3726,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>143.3158222056515</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3760,7 +3760,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.7791350527408</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3839,7 +3839,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014445</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3915,10 +3915,10 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3948,13 +3948,13 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>197.9208099836032</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T43" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -3963,7 +3963,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>170.2201007724219</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -4137,7 +4137,7 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -4149,13 +4149,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4185,13 +4185,13 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>277.7738553281042</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4200,10 +4200,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>119.848213188964</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4306,43 +4306,43 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>802.0401021781393</v>
+        <v>2118.304160219349</v>
       </c>
       <c r="C2" t="n">
-        <v>433.0775852377275</v>
+        <v>1749.341643278937</v>
       </c>
       <c r="D2" t="n">
-        <v>74.81188663097703</v>
+        <v>1749.341643278937</v>
       </c>
       <c r="E2" t="n">
-        <v>74.81188663097703</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="F2" t="n">
-        <v>67.86638588177355</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G2" t="n">
-        <v>53.94298182036445</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H2" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K2" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4354,28 +4354,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S2" t="n">
-        <v>2642.120401548716</v>
+        <v>2689.7074825174</v>
       </c>
       <c r="T2" t="n">
-        <v>2423.485734520778</v>
+        <v>2471.072815489463</v>
       </c>
       <c r="U2" t="n">
-        <v>2169.72394915887</v>
+        <v>2471.072815489463</v>
       </c>
       <c r="V2" t="n">
-        <v>1838.661061815299</v>
+        <v>2471.072815489463</v>
       </c>
       <c r="W2" t="n">
-        <v>1485.892406545185</v>
+        <v>2118.304160219349</v>
       </c>
       <c r="X2" t="n">
-        <v>1112.426648284105</v>
+        <v>2118.304160219349</v>
       </c>
       <c r="Y2" t="n">
-        <v>1112.426648284105</v>
+        <v>2118.304160219349</v>
       </c>
     </row>
     <row r="3">
@@ -4397,34 +4397,34 @@
         <v>505.8730812692492</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K3" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L3" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M3" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N3" t="n">
-        <v>1866.936832414847</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O3" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P3" t="n">
         <v>2525.076107152626</v>
@@ -4464,22 +4464,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="C4" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="D4" t="n">
-        <v>53.94298182036445</v>
+        <v>578.0123447940985</v>
       </c>
       <c r="E4" t="n">
-        <v>53.94298182036445</v>
+        <v>430.0992512117053</v>
       </c>
       <c r="F4" t="n">
-        <v>53.94298182036445</v>
+        <v>283.209303713795</v>
       </c>
       <c r="G4" t="n">
-        <v>53.94298182036445</v>
+        <v>114.2095034521274</v>
       </c>
       <c r="H4" t="n">
         <v>53.94298182036445</v>
@@ -4509,31 +4509,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R4" t="n">
-        <v>550.5654064942401</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S4" t="n">
-        <v>550.5654064942401</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T4" t="n">
-        <v>550.5654064942401</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U4" t="n">
-        <v>550.5654064942401</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V4" t="n">
-        <v>295.8809182883532</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W4" t="n">
-        <v>295.8809182883532</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X4" t="n">
-        <v>235.5914466506042</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y4" t="n">
-        <v>235.5914466506042</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="5">
@@ -4543,22 +4543,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1019.519018857857</v>
+        <v>1194.683768698139</v>
       </c>
       <c r="C5" t="n">
-        <v>1019.519018857857</v>
+        <v>825.7212517577275</v>
       </c>
       <c r="D5" t="n">
-        <v>661.2533202511061</v>
+        <v>825.7212517577275</v>
       </c>
       <c r="E5" t="n">
-        <v>661.2533202511061</v>
+        <v>439.9329991594832</v>
       </c>
       <c r="F5" t="n">
-        <v>250.2674154614985</v>
+        <v>432.9874984102798</v>
       </c>
       <c r="G5" t="n">
-        <v>236.3440114000894</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H5" t="n">
         <v>53.94298182036445</v>
@@ -4567,13 +4567,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733124</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224073</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4597,22 +4597,22 @@
         <v>2642.120401548716</v>
       </c>
       <c r="T5" t="n">
-        <v>2423.485734520778</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U5" t="n">
-        <v>2169.72394915887</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V5" t="n">
-        <v>2169.72394915887</v>
+        <v>2311.057514205145</v>
       </c>
       <c r="W5" t="n">
-        <v>2169.72394915887</v>
+        <v>1958.288858935031</v>
       </c>
       <c r="X5" t="n">
-        <v>1796.25819089779</v>
+        <v>1584.823100673951</v>
       </c>
       <c r="Y5" t="n">
-        <v>1406.118858921978</v>
+        <v>1194.683768698139</v>
       </c>
     </row>
     <row r="6">
@@ -4622,25 +4622,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.4979752170825</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C6" t="n">
-        <v>814.0449459359555</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692486</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H6" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
         <v>53.94298182036445</v>
@@ -4655,13 +4655,13 @@
         <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N6" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O6" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P6" t="n">
         <v>2525.076107152626</v>
@@ -4685,10 +4685,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W6" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X6" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y6" t="n">
         <v>1156.713312237151</v>
@@ -4701,16 +4701,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>369.7691122461817</v>
+        <v>520.9088977430002</v>
       </c>
       <c r="C7" t="n">
-        <v>200.8329293182748</v>
+        <v>351.9727148150933</v>
       </c>
       <c r="D7" t="n">
-        <v>200.8329293182748</v>
+        <v>201.8560754027576</v>
       </c>
       <c r="E7" t="n">
-        <v>200.8329293182748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F7" t="n">
         <v>53.94298182036445</v>
@@ -4731,46 +4731,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M7" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R7" t="n">
-        <v>579.9823256406182</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S7" t="n">
-        <v>579.9823256406182</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T7" t="n">
-        <v>579.9823256406182</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U7" t="n">
-        <v>369.7691122461817</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V7" t="n">
-        <v>369.7691122461817</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W7" t="n">
-        <v>369.7691122461817</v>
+        <v>702.55736257324</v>
       </c>
       <c r="X7" t="n">
-        <v>369.7691122461817</v>
+        <v>702.55736257324</v>
       </c>
       <c r="Y7" t="n">
-        <v>369.7691122461817</v>
+        <v>702.55736257324</v>
       </c>
     </row>
     <row r="8">
@@ -4780,13 +4780,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2307.009759042411</v>
+        <v>1210.087414675782</v>
       </c>
       <c r="C8" t="n">
-        <v>1954.141365880777</v>
+        <v>1210.087414675782</v>
       </c>
       <c r="D8" t="n">
-        <v>1595.875667274027</v>
+        <v>1210.087414675782</v>
       </c>
       <c r="E8" t="n">
         <v>1210.087414675782</v>
@@ -4798,58 +4798,58 @@
         <v>381.1377017843616</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533143</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733126</v>
+        <v>463.961649073313</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018222</v>
+        <v>2657.524047526359</v>
       </c>
       <c r="S8" t="n">
-        <v>2697.149091018222</v>
+        <v>2657.524047526359</v>
       </c>
       <c r="T8" t="n">
-        <v>2697.149091018222</v>
+        <v>2657.524047526359</v>
       </c>
       <c r="U8" t="n">
-        <v>2697.149091018222</v>
+        <v>2657.524047526359</v>
       </c>
       <c r="V8" t="n">
-        <v>2697.149091018222</v>
+        <v>2326.461160182788</v>
       </c>
       <c r="W8" t="n">
-        <v>2697.149091018222</v>
+        <v>1973.692504912674</v>
       </c>
       <c r="X8" t="n">
-        <v>2697.149091018222</v>
+        <v>1600.226746651594</v>
       </c>
       <c r="Y8" t="n">
-        <v>2307.009759042411</v>
+        <v>1210.087414675782</v>
       </c>
     </row>
     <row r="9">
@@ -4880,19 +4880,19 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J9" t="n">
         <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>384.4474646615928</v>
+        <v>266.2060027641992</v>
       </c>
       <c r="L9" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598711</v>
       </c>
       <c r="M9" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N9" t="n">
         <v>1748.695370517453</v>
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="C10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="D10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="E10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S10" t="n">
-        <v>513.8405610245969</v>
+        <v>570.4247794971948</v>
       </c>
       <c r="T10" t="n">
-        <v>513.8405610245969</v>
+        <v>343.1165921657965</v>
       </c>
       <c r="U10" t="n">
-        <v>224.6669506791649</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="V10" t="n">
-        <v>224.6669506791649</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="W10" t="n">
-        <v>224.6669506791649</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="X10" t="n">
-        <v>224.6669506791649</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="Y10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
     </row>
     <row r="11">
@@ -5017,13 +5017,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.3213845506</v>
       </c>
       <c r="C11" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610188</v>
       </c>
       <c r="D11" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003438</v>
       </c>
       <c r="E11" t="n">
         <v>1315.304916405196</v>
@@ -5035,58 +5035,58 @@
         <v>488.193237080547</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028581</v>
       </c>
       <c r="J11" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795205</v>
       </c>
       <c r="M11" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619126</v>
       </c>
       <c r="O11" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643321</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899124</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.627437207828</v>
       </c>
       <c r="R11" t="n">
         <v>4860.854573014291</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231261</v>
       </c>
       <c r="T11" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141865</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465298</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121728</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851613</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590533</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614722</v>
       </c>
     </row>
     <row r="12">
@@ -5117,31 +5117,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028581</v>
       </c>
       <c r="J12" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028581</v>
       </c>
       <c r="K12" t="n">
-        <v>508.1073603047984</v>
+        <v>222.5746515181232</v>
       </c>
       <c r="L12" t="n">
-        <v>738.0704661731475</v>
+        <v>452.5377573864724</v>
       </c>
       <c r="M12" t="n">
-        <v>1058.405785702849</v>
+        <v>1220.905903778934</v>
       </c>
       <c r="N12" t="n">
-        <v>1548.780040143415</v>
+        <v>2025.317482043084</v>
       </c>
       <c r="O12" t="n">
-        <v>1797.533454227377</v>
+        <v>2371.535469249458</v>
       </c>
       <c r="P12" t="n">
-        <v>2317.834075963124</v>
+        <v>2554.178946862809</v>
       </c>
       <c r="Q12" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R12" t="n">
         <v>2623.573505376138</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>646.6490309742553</v>
+        <v>711.072954880832</v>
       </c>
       <c r="C13" t="n">
-        <v>503.5547239186418</v>
+        <v>542.1367719529251</v>
       </c>
       <c r="D13" t="n">
-        <v>503.5547239186418</v>
+        <v>392.0201325405893</v>
       </c>
       <c r="E13" t="n">
-        <v>355.6416303362487</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F13" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028581</v>
       </c>
       <c r="G13" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028581</v>
       </c>
       <c r="H13" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028581</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028581</v>
       </c>
       <c r="J13" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241956</v>
       </c>
       <c r="K13" t="n">
-        <v>259.7851881688071</v>
+        <v>259.7851881688069</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799362</v>
+        <v>507.4972331799361</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471189</v>
+        <v>779.0639759471187</v>
       </c>
       <c r="N13" t="n">
-        <v>1049.608084974667</v>
+        <v>1049.608084974666</v>
       </c>
       <c r="O13" t="n">
         <v>1283.483062980063</v>
       </c>
       <c r="P13" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585745</v>
       </c>
       <c r="Q13" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557901</v>
       </c>
       <c r="R13" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557901</v>
       </c>
       <c r="S13" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557901</v>
       </c>
       <c r="T13" t="n">
-        <v>1164.055751909233</v>
+        <v>1275.130855347407</v>
       </c>
       <c r="U13" t="n">
-        <v>1164.055751909233</v>
+        <v>986.0022165609655</v>
       </c>
       <c r="V13" t="n">
-        <v>1164.055751909233</v>
+        <v>731.3177283550787</v>
       </c>
       <c r="W13" t="n">
-        <v>874.6385818722727</v>
+        <v>711.072954880832</v>
       </c>
       <c r="X13" t="n">
-        <v>646.6490309742553</v>
+        <v>711.072954880832</v>
       </c>
       <c r="Y13" t="n">
-        <v>646.6490309742553</v>
+        <v>711.072954880832</v>
       </c>
     </row>
     <row r="14">
@@ -5254,31 +5254,31 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550601</v>
       </c>
       <c r="C14" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.093169003439</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E14" t="n">
-        <v>1315.304916405195</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155877</v>
+        <v>904.3190116155889</v>
       </c>
       <c r="G14" t="n">
-        <v>488.1932370805458</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I14" t="n">
         <v>97.21709146028583</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823794</v>
       </c>
       <c r="K14" t="n">
         <v>889.2841917514083</v>
@@ -5311,19 +5311,19 @@
         <v>4515.972600141867</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465299</v>
       </c>
       <c r="V14" t="n">
         <v>3931.294970121729</v>
       </c>
       <c r="W14" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851614</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590534</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614723</v>
       </c>
     </row>
     <row r="15">
@@ -5360,16 +5360,16 @@
         <v>97.21709146028583</v>
       </c>
       <c r="K15" t="n">
-        <v>508.1073603047984</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="L15" t="n">
-        <v>738.0704661731475</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="M15" t="n">
-        <v>1003.751888060527</v>
+        <v>417.5524109899876</v>
       </c>
       <c r="N15" t="n">
-        <v>1808.163466324677</v>
+        <v>1221.963989254138</v>
       </c>
       <c r="O15" t="n">
         <v>1808.163466324677</v>
@@ -5412,22 +5412,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>210.3160779381289</v>
+        <v>397.7517393246783</v>
       </c>
       <c r="C16" t="n">
-        <v>210.3160779381289</v>
+        <v>397.7517393246783</v>
       </c>
       <c r="D16" t="n">
-        <v>210.3160779381289</v>
+        <v>247.6350999123425</v>
       </c>
       <c r="E16" t="n">
-        <v>210.3160779381289</v>
+        <v>247.6350999123425</v>
       </c>
       <c r="F16" t="n">
-        <v>97.21709146028583</v>
+        <v>247.6350999123425</v>
       </c>
       <c r="G16" t="n">
-        <v>97.21709146028583</v>
+        <v>247.6350999123425</v>
       </c>
       <c r="H16" t="n">
         <v>97.21709146028583</v>
@@ -5463,25 +5463,25 @@
         <v>1387.841167119728</v>
       </c>
       <c r="S16" t="n">
-        <v>1387.841167119728</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T16" t="n">
-        <v>1164.055751909233</v>
+        <v>964.1357418247856</v>
       </c>
       <c r="U16" t="n">
-        <v>1164.055751909233</v>
+        <v>964.1357418247856</v>
       </c>
       <c r="V16" t="n">
-        <v>909.3712637033465</v>
+        <v>964.1357418247856</v>
       </c>
       <c r="W16" t="n">
-        <v>619.9540936663859</v>
+        <v>674.7185717878249</v>
       </c>
       <c r="X16" t="n">
-        <v>391.9645427683686</v>
+        <v>446.7290208898075</v>
       </c>
       <c r="Y16" t="n">
-        <v>391.9645427683686</v>
+        <v>397.7517393246783</v>
       </c>
     </row>
     <row r="17">
@@ -5491,37 +5491,37 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C17" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.093169003439</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E17" t="n">
-        <v>1315.304916405195</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155877</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G17" t="n">
-        <v>488.1932370805458</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H17" t="n">
-        <v>179.822278382245</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I17" t="n">
         <v>97.21709146028583</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M17" t="n">
         <v>2388.164701515097</v>
@@ -5548,19 +5548,19 @@
         <v>4515.972600141867</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W17" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="18">
@@ -5582,37 +5582,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F18" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G18" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H18" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I18" t="n">
         <v>97.21709146028583</v>
       </c>
       <c r="J18" t="n">
-        <v>263.5382936126481</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="K18" t="n">
-        <v>674.4285624571608</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="L18" t="n">
-        <v>904.39166832551</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="M18" t="n">
-        <v>1224.726987855212</v>
+        <v>417.5524109899876</v>
       </c>
       <c r="N18" t="n">
-        <v>1224.726987855212</v>
+        <v>1221.963989254138</v>
       </c>
       <c r="O18" t="n">
-        <v>1797.533454227377</v>
+        <v>1891.427750556797</v>
       </c>
       <c r="P18" t="n">
-        <v>2317.834075963124</v>
+        <v>2411.728372292544</v>
       </c>
       <c r="Q18" t="n">
         <v>2612.943493278838</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>3925.360448591583</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="C19" t="n">
-        <v>3925.360448591583</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="D19" t="n">
-        <v>3775.243809179247</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="E19" t="n">
-        <v>3627.330715596854</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="F19" t="n">
-        <v>3627.330715596854</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="G19" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="H19" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="I19" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J19" t="n">
-        <v>3471.538086380584</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K19" t="n">
-        <v>3621.723490625196</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L19" t="n">
-        <v>3869.435535636325</v>
+        <v>507.4972331799362</v>
       </c>
       <c r="M19" t="n">
-        <v>4141.002278403508</v>
+        <v>779.0639759471189</v>
       </c>
       <c r="N19" t="n">
-        <v>4411.546387431055</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O19" t="n">
-        <v>4645.421365436452</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P19" t="n">
-        <v>4822.021130042135</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q19" t="n">
-        <v>4860.854573014291</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R19" t="n">
-        <v>4749.779469576117</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S19" t="n">
-        <v>4549.859459491669</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T19" t="n">
-        <v>4549.859459491669</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U19" t="n">
-        <v>4549.859459491669</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V19" t="n">
-        <v>4442.767169526561</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W19" t="n">
-        <v>4153.3499994896</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X19" t="n">
-        <v>3925.360448591583</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="Y19" t="n">
-        <v>3925.360448591583</v>
+        <v>97.21709146028583</v>
       </c>
     </row>
     <row r="20">
@@ -5749,13 +5749,13 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J20" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L20" t="n">
         <v>1590.888347795206</v>
@@ -5770,16 +5770,16 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T20" t="n">
         <v>4515.972600141868</v>
@@ -5819,34 +5819,34 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F21" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G21" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H21" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I21" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J21" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="K21" t="n">
-        <v>222.5746515181232</v>
+        <v>508.1073603047985</v>
       </c>
       <c r="L21" t="n">
-        <v>836.4717212750119</v>
+        <v>1122.004430061687</v>
       </c>
       <c r="M21" t="n">
-        <v>1156.807040804714</v>
+        <v>1890.372576454149</v>
       </c>
       <c r="N21" t="n">
-        <v>1501.327696442332</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="O21" t="n">
-        <v>2170.791457744991</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P21" t="n">
         <v>2623.573505376138</v>
@@ -5886,28 +5886,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>376.9270045185177</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="C22" t="n">
-        <v>376.9270045185177</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="D22" t="n">
-        <v>376.9270045185177</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="E22" t="n">
-        <v>376.9270045185177</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="F22" t="n">
-        <v>376.9270045185177</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="G22" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="H22" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="I22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J22" t="n">
         <v>109.5997839241957</v>
@@ -5934,28 +5934,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R22" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S22" t="n">
-        <v>1387.841167119728</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T22" t="n">
-        <v>1164.055751909234</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U22" t="n">
-        <v>1164.055751909234</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V22" t="n">
-        <v>909.3712637033467</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W22" t="n">
-        <v>619.9540936663861</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="X22" t="n">
-        <v>619.9540936663861</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="Y22" t="n">
-        <v>558.5754693487575</v>
+        <v>97.21709146028583</v>
       </c>
     </row>
     <row r="23">
@@ -5968,31 +5968,31 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003439</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405195</v>
       </c>
       <c r="F23" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155877</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L23" t="n">
         <v>1590.888347795206</v>
@@ -6010,28 +6010,28 @@
         <v>4454.632848899126</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T23" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y23" t="n">
         <v>2814.921224614724</v>
@@ -6056,37 +6056,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F24" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G24" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H24" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I24" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J24" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="K24" t="n">
-        <v>97.21709146028584</v>
+        <v>508.1073603047985</v>
       </c>
       <c r="L24" t="n">
-        <v>711.1141612171745</v>
+        <v>1122.004430061687</v>
       </c>
       <c r="M24" t="n">
-        <v>1031.449480746876</v>
+        <v>1890.372576454149</v>
       </c>
       <c r="N24" t="n">
-        <v>1835.861059011027</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="O24" t="n">
-        <v>2505.324820313686</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P24" t="n">
-        <v>2536.440602918915</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q24" t="n">
         <v>2623.573505376138</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>4244.714639971548</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="C25" t="n">
-        <v>4075.778457043641</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="D25" t="n">
-        <v>3925.661817631305</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="E25" t="n">
-        <v>3777.748724048912</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="F25" t="n">
-        <v>3777.748724048912</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="G25" t="n">
-        <v>3609.573402368732</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="H25" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="I25" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J25" t="n">
-        <v>3471.538086380585</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K25" t="n">
-        <v>3621.723490625197</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L25" t="n">
-        <v>3869.435535636326</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M25" t="n">
-        <v>4141.002278403509</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N25" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O25" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P25" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q25" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R25" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S25" t="n">
-        <v>4860.854573014292</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T25" t="n">
-        <v>4637.069157803799</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U25" t="n">
-        <v>4347.940519017357</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V25" t="n">
-        <v>4347.940519017357</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W25" t="n">
-        <v>4347.940519017357</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X25" t="n">
-        <v>4347.940519017357</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="Y25" t="n">
-        <v>4244.714639971548</v>
+        <v>97.21709146028583</v>
       </c>
     </row>
     <row r="26">
@@ -6202,7 +6202,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C26" t="n">
         <v>2059.358867610191</v>
@@ -6211,25 +6211,25 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E26" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F26" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G26" t="n">
         <v>488.193237080547</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L26" t="n">
         <v>1590.888347795206</v>
@@ -6247,10 +6247,10 @@
         <v>4454.632848899126</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S26" t="n">
         <v>4726.561275231264</v>
@@ -6262,16 +6262,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W26" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y26" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="27">
@@ -6302,28 +6302,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J27" t="n">
-        <v>138.7081686256434</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="K27" t="n">
-        <v>138.7081686256434</v>
+        <v>508.1073603047985</v>
       </c>
       <c r="L27" t="n">
-        <v>368.6712744939925</v>
+        <v>1122.004430061687</v>
       </c>
       <c r="M27" t="n">
-        <v>1137.039420886454</v>
+        <v>1890.372576454149</v>
       </c>
       <c r="N27" t="n">
-        <v>1138.699705022018</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="O27" t="n">
-        <v>1808.163466324677</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P27" t="n">
-        <v>2328.464088060424</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q27" t="n">
         <v>2623.573505376138</v>
@@ -6360,28 +6360,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>266.1532743881928</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J28" t="n">
         <v>109.5997839241957</v>
@@ -6411,25 +6411,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S28" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T28" t="n">
-        <v>1075.21084526296</v>
+        <v>1340.085404217832</v>
       </c>
       <c r="U28" t="n">
-        <v>1075.21084526296</v>
+        <v>1050.956765431391</v>
       </c>
       <c r="V28" t="n">
-        <v>965.2084601534104</v>
+        <v>796.2722772255036</v>
       </c>
       <c r="W28" t="n">
-        <v>675.7912901164498</v>
+        <v>506.8551071885429</v>
       </c>
       <c r="X28" t="n">
-        <v>447.8017392184324</v>
+        <v>278.8655562905255</v>
       </c>
       <c r="Y28" t="n">
-        <v>447.8017392184324</v>
+        <v>278.8655562905255</v>
       </c>
     </row>
     <row r="29">
@@ -6439,13 +6439,13 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E29" t="n">
         <v>1315.304916405196</v>
@@ -6454,19 +6454,19 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G29" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H29" t="n">
         <v>179.8222783822463</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L29" t="n">
         <v>1590.888347795206</v>
@@ -6484,31 +6484,31 @@
         <v>4454.632848899126</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T29" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
         <v>4262.3578574653</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y29" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="30">
@@ -6539,28 +6539,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J30" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="K30" t="n">
-        <v>246.2867756623456</v>
+        <v>508.1073603047985</v>
       </c>
       <c r="L30" t="n">
-        <v>476.2498815306948</v>
+        <v>1122.004430061687</v>
       </c>
       <c r="M30" t="n">
-        <v>1138.699705022018</v>
+        <v>1890.372576454149</v>
       </c>
       <c r="N30" t="n">
-        <v>1138.699705022018</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="O30" t="n">
-        <v>1808.163466324677</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P30" t="n">
-        <v>2328.464088060424</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q30" t="n">
         <v>2623.573505376138</v>
@@ -6597,46 +6597,46 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>97.21709146028584</v>
+        <v>563.7235151749151</v>
       </c>
       <c r="C31" t="n">
-        <v>97.21709146028584</v>
+        <v>563.7235151749151</v>
       </c>
       <c r="D31" t="n">
-        <v>97.21709146028584</v>
+        <v>563.7235151749151</v>
       </c>
       <c r="E31" t="n">
-        <v>97.21709146028584</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="F31" t="n">
-        <v>97.21709146028584</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="G31" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J31" t="n">
         <v>109.5997839241957</v>
       </c>
       <c r="K31" t="n">
-        <v>259.7851881688071</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L31" t="n">
-        <v>507.4972331799363</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M31" t="n">
-        <v>779.0639759471189</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N31" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O31" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P31" t="n">
         <v>1460.082827585746</v>
@@ -6648,25 +6648,25 @@
         <v>1387.841167119728</v>
       </c>
       <c r="S31" t="n">
-        <v>1335.881268530309</v>
+        <v>1304.915651320387</v>
       </c>
       <c r="T31" t="n">
-        <v>1112.095853319815</v>
+        <v>1081.130236109893</v>
       </c>
       <c r="U31" t="n">
-        <v>822.9672145333731</v>
+        <v>1081.130236109893</v>
       </c>
       <c r="V31" t="n">
-        <v>568.2827263274862</v>
+        <v>1081.130236109893</v>
       </c>
       <c r="W31" t="n">
-        <v>278.8655562905255</v>
+        <v>791.7130660729324</v>
       </c>
       <c r="X31" t="n">
-        <v>278.8655562905255</v>
+        <v>563.7235151749151</v>
       </c>
       <c r="Y31" t="n">
-        <v>278.8655562905255</v>
+        <v>563.7235151749151</v>
       </c>
     </row>
     <row r="32">
@@ -6679,31 +6679,31 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G32" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I32" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L32" t="n">
         <v>1590.888347795206</v>
@@ -6721,7 +6721,7 @@
         <v>4454.632848899126</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R32" t="n">
         <v>4860.854573014292</v>
@@ -6733,16 +6733,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y32" t="n">
         <v>2814.921224614724</v>
@@ -6779,28 +6779,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J33" t="n">
-        <v>263.5382936126481</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K33" t="n">
-        <v>263.5382936126481</v>
+        <v>508.1073603047985</v>
       </c>
       <c r="L33" t="n">
-        <v>877.4353633695368</v>
+        <v>1122.004430061687</v>
       </c>
       <c r="M33" t="n">
-        <v>1377.135023317374</v>
+        <v>1890.372576454149</v>
       </c>
       <c r="N33" t="n">
-        <v>2181.546601581525</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="O33" t="n">
-        <v>2430.300015665487</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P33" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q33" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R33" t="n">
         <v>2623.573505376138</v>
@@ -6834,22 +6834,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>245.130185042679</v>
+        <v>711.3743239205529</v>
       </c>
       <c r="C34" t="n">
-        <v>245.130185042679</v>
+        <v>542.438140992646</v>
       </c>
       <c r="D34" t="n">
-        <v>245.130185042679</v>
+        <v>542.438140992646</v>
       </c>
       <c r="E34" t="n">
-        <v>97.21709146028584</v>
+        <v>394.5250474102529</v>
       </c>
       <c r="F34" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="G34" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H34" t="n">
         <v>97.21709146028584</v>
@@ -6861,19 +6861,19 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K34" t="n">
-        <v>259.7851881688071</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L34" t="n">
-        <v>507.4972331799363</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M34" t="n">
-        <v>779.0639759471189</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N34" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O34" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P34" t="n">
         <v>1460.082827585746</v>
@@ -6888,22 +6888,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="T34" t="n">
-        <v>1275.130855347408</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U34" t="n">
-        <v>1191.672887259296</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V34" t="n">
-        <v>936.9883990534095</v>
+        <v>1244.231782352015</v>
       </c>
       <c r="W34" t="n">
-        <v>647.5712290164488</v>
+        <v>954.8146123150548</v>
       </c>
       <c r="X34" t="n">
-        <v>647.5712290164488</v>
+        <v>932.166903064083</v>
       </c>
       <c r="Y34" t="n">
-        <v>426.7786498729187</v>
+        <v>711.3743239205529</v>
       </c>
     </row>
     <row r="35">
@@ -6919,31 +6919,31 @@
         <v>2059.35886761019</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.093169003439</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E35" t="n">
-        <v>1315.304916405195</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155877</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G35" t="n">
-        <v>488.1932370805458</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822466</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J35" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M35" t="n">
         <v>2388.164701515097</v>
@@ -6961,13 +6961,13 @@
         <v>4801.627437207829</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T35" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
         <v>4262.3578574653</v>
@@ -7013,28 +7013,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J36" t="n">
-        <v>263.5382936126481</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="K36" t="n">
-        <v>561.0787999799043</v>
+        <v>508.1073603047985</v>
       </c>
       <c r="L36" t="n">
-        <v>791.0419058482535</v>
+        <v>1122.004430061687</v>
       </c>
       <c r="M36" t="n">
-        <v>1559.410052240715</v>
+        <v>1890.372576454149</v>
       </c>
       <c r="N36" t="n">
-        <v>1559.410052240715</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="O36" t="n">
-        <v>1808.163466324677</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P36" t="n">
-        <v>2328.464088060424</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q36" t="n">
         <v>2623.573505376138</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>4076.539318291367</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="C37" t="n">
-        <v>3907.60313536346</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="D37" t="n">
-        <v>3757.486495951125</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="E37" t="n">
-        <v>3609.573402368731</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F37" t="n">
-        <v>3609.573402368731</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G37" t="n">
-        <v>3609.573402368731</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H37" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I37" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J37" t="n">
-        <v>3471.538086380584</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K37" t="n">
-        <v>3621.723490625196</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L37" t="n">
-        <v>3869.435535636325</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M37" t="n">
-        <v>4141.002278403508</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N37" t="n">
-        <v>4411.546387431055</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O37" t="n">
-        <v>4645.421365436452</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P37" t="n">
-        <v>4822.021130042135</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q37" t="n">
-        <v>4860.854573014291</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R37" t="n">
-        <v>4749.779469576117</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S37" t="n">
-        <v>4749.779469576117</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T37" t="n">
-        <v>4525.994054365623</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U37" t="n">
-        <v>4236.865415579181</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V37" t="n">
-        <v>4236.865415579181</v>
+        <v>731.3177283550796</v>
       </c>
       <c r="W37" t="n">
-        <v>4076.539318291367</v>
+        <v>441.900558318119</v>
       </c>
       <c r="X37" t="n">
-        <v>4076.539318291367</v>
+        <v>425.7555037884359</v>
       </c>
       <c r="Y37" t="n">
-        <v>4076.539318291367</v>
+        <v>425.7555037884359</v>
       </c>
     </row>
     <row r="38">
@@ -7165,19 +7165,19 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805471</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822466</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J38" t="n">
         <v>365.8813331823786</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L38" t="n">
         <v>1590.888347795206</v>
@@ -7198,7 +7198,7 @@
         <v>4801.627437207829</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S38" t="n">
         <v>4726.561275231264</v>
@@ -7229,16 +7229,16 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>987.4312590525784</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C39" t="n">
-        <v>812.9782297714514</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D39" t="n">
-        <v>664.0438201102002</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E39" t="n">
-        <v>504.8063651047446</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F39" t="n">
         <v>358.2718071316295</v>
@@ -7250,28 +7250,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J39" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K39" t="n">
         <v>508.1073603047985</v>
       </c>
       <c r="L39" t="n">
-        <v>508.1073603047985</v>
+        <v>1122.004430061687</v>
       </c>
       <c r="M39" t="n">
-        <v>828.4426798345003</v>
+        <v>1890.372576454149</v>
       </c>
       <c r="N39" t="n">
-        <v>1172.963335472118</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="O39" t="n">
-        <v>1808.163466324677</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P39" t="n">
-        <v>2328.464088060424</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q39" t="n">
         <v>2623.573505376138</v>
@@ -7289,7 +7289,7 @@
         <v>2060.647860003077</v>
       </c>
       <c r="V39" t="n">
-        <v>1825.495751771335</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W39" t="n">
         <v>1571.258395043133</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>4094.598000559213</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C40" t="n">
-        <v>3925.661817631306</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D40" t="n">
-        <v>3925.661817631306</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E40" t="n">
-        <v>3777.748724048913</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F40" t="n">
-        <v>3777.748724048913</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G40" t="n">
-        <v>3609.573402368733</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H40" t="n">
-        <v>3459.155393916677</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I40" t="n">
-        <v>3459.155393916677</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J40" t="n">
-        <v>3471.538086380586</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K40" t="n">
-        <v>3621.723490625198</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L40" t="n">
-        <v>3869.435535636327</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M40" t="n">
-        <v>4141.00227840351</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N40" t="n">
-        <v>4411.546387431057</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O40" t="n">
-        <v>4645.421365436454</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P40" t="n">
-        <v>4822.021130042137</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q40" t="n">
-        <v>4860.854573014293</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R40" t="n">
-        <v>4860.854573014293</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S40" t="n">
-        <v>4859.49223794559</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T40" t="n">
-        <v>4859.49223794559</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U40" t="n">
-        <v>4859.49223794559</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V40" t="n">
-        <v>4604.807749739703</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W40" t="n">
-        <v>4315.390579702743</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="X40" t="n">
-        <v>4315.390579702743</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y40" t="n">
-        <v>4094.598000559213</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="41">
@@ -7390,52 +7390,52 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E41" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805471</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M41" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O41" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R41" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S41" t="n">
         <v>4726.561275231264</v>
@@ -7444,16 +7444,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y41" t="n">
         <v>2814.921224614724</v>
@@ -7466,16 +7466,16 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>987.4312590525784</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C42" t="n">
-        <v>812.9782297714514</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D42" t="n">
-        <v>664.0438201102002</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E42" t="n">
-        <v>504.8063651047446</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F42" t="n">
         <v>358.2718071316295</v>
@@ -7487,10 +7487,10 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I42" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J42" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K42" t="n">
         <v>508.1073603047985</v>
@@ -7499,10 +7499,10 @@
         <v>1122.004430061687</v>
       </c>
       <c r="M42" t="n">
-        <v>1442.339749591389</v>
+        <v>1890.372576454149</v>
       </c>
       <c r="N42" t="n">
-        <v>1954.109744073479</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="O42" t="n">
         <v>2623.573505376138</v>
@@ -7526,7 +7526,7 @@
         <v>2060.647860003077</v>
       </c>
       <c r="V42" t="n">
-        <v>1825.495751771335</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W42" t="n">
         <v>1571.258395043133</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>3721.107993746786</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C43" t="n">
-        <v>3721.107993746786</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D43" t="n">
-        <v>3721.107993746786</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E43" t="n">
-        <v>3721.107993746786</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F43" t="n">
-        <v>3721.107993746786</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G43" t="n">
-        <v>3721.107993746786</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H43" t="n">
-        <v>3570.689985294729</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I43" t="n">
-        <v>3459.155393916677</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J43" t="n">
-        <v>3471.538086380586</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K43" t="n">
-        <v>3621.723490625198</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L43" t="n">
-        <v>3869.435535636327</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M43" t="n">
-        <v>4141.00227840351</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N43" t="n">
-        <v>4411.546387431057</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O43" t="n">
-        <v>4645.421365436454</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P43" t="n">
-        <v>4822.021130042137</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q43" t="n">
-        <v>4860.854573014293</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R43" t="n">
-        <v>4860.854573014293</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S43" t="n">
-        <v>4660.934562929846</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T43" t="n">
-        <v>4437.149147719352</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U43" t="n">
-        <v>4437.149147719352</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V43" t="n">
-        <v>4182.464659513465</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W43" t="n">
-        <v>3893.047489476505</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X43" t="n">
-        <v>3721.107993746786</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y43" t="n">
-        <v>3721.107993746786</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="44">
@@ -7639,10 +7639,10 @@
         <v>904.319011615589</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805465</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822458</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I44" t="n">
         <v>97.21709146028562</v>
@@ -7730,19 +7730,19 @@
         <v>97.21709146028584</v>
       </c>
       <c r="K45" t="n">
-        <v>97.21709146028584</v>
+        <v>508.1073603047985</v>
       </c>
       <c r="L45" t="n">
-        <v>711.1141612171745</v>
+        <v>1122.004430061687</v>
       </c>
       <c r="M45" t="n">
-        <v>1479.482307609636</v>
+        <v>1890.372576454149</v>
       </c>
       <c r="N45" t="n">
-        <v>1824.002963247254</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="O45" t="n">
-        <v>2103.272883640391</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P45" t="n">
         <v>2623.573505376138</v>
@@ -7782,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>413.0432218861031</v>
+        <v>674.2349604684848</v>
       </c>
       <c r="C46" t="n">
-        <v>244.1070389581962</v>
+        <v>674.2349604684848</v>
       </c>
       <c r="D46" t="n">
-        <v>244.1070389581962</v>
+        <v>674.2349604684848</v>
       </c>
       <c r="E46" t="n">
-        <v>244.1070389581962</v>
+        <v>674.2349604684848</v>
       </c>
       <c r="F46" t="n">
-        <v>97.21709146028584</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="G46" t="n">
-        <v>97.21709146028584</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H46" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I46" t="n">
         <v>97.21709146028584</v>
@@ -7833,25 +7833,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S46" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T46" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U46" t="n">
-        <v>1298.996260473455</v>
+        <v>1218.336618711332</v>
       </c>
       <c r="V46" t="n">
-        <v>1044.311772267568</v>
+        <v>963.6521305054455</v>
       </c>
       <c r="W46" t="n">
-        <v>754.894602230607</v>
+        <v>674.2349604684848</v>
       </c>
       <c r="X46" t="n">
-        <v>633.8358010296332</v>
+        <v>674.2349604684848</v>
       </c>
       <c r="Y46" t="n">
-        <v>413.0432218861031</v>
+        <v>674.2349604684848</v>
       </c>
     </row>
   </sheetData>
@@ -8057,7 +8057,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
@@ -8312,7 +8312,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P6" t="n">
-        <v>199.0269485415596</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
         <v>210.0772877358491</v>
@@ -9008,19 +9008,19 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M15" t="n">
-        <v>410.4991065355328</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N15" t="n">
         <v>479.3423743435536</v>
       </c>
       <c r="O15" t="n">
-        <v>142.5962444444444</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P15" t="n">
         <v>318.4627686399372</v>
@@ -9029,7 +9029,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445221</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9245,16 +9245,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M18" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N18" t="n">
-        <v>131.3417120833333</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O18" t="n">
         <v>393.8623192767295</v>
@@ -9479,7 +9479,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
         <v>264.4652370125786</v>
@@ -9494,16 +9494,16 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O21" t="n">
-        <v>393.8623192767295</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P21" t="n">
-        <v>250.2621887363008</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9719,7 +9719,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
         <v>370.8403453034592</v>
@@ -9731,16 +9731,16 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O24" t="n">
-        <v>393.8623192767295</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9953,10 +9953,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
         <v>370.8403453034592</v>
@@ -9965,19 +9965,19 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N27" t="n">
-        <v>133.018766765721</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O27" t="n">
-        <v>393.8623192767295</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P27" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10193,7 +10193,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
         <v>370.8403453034592</v>
@@ -10202,19 +10202,19 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N30" t="n">
-        <v>131.3417120833333</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O30" t="n">
-        <v>393.8623192767295</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P30" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>34.7842838544522</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10430,7 +10430,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
         <v>370.8403453034592</v>
@@ -10442,13 +10442,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O33" t="n">
-        <v>393.8623192767295</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P33" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10609,7 +10609,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298386</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10676,16 +10676,16 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N36" t="n">
-        <v>131.3417120833333</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O36" t="n">
-        <v>393.8623192767295</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P36" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10846,7 +10846,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>65.71641987298389</v>
+        <v>65.71641987298295</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10907,7 +10907,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
         <v>465.7050637499999</v>
@@ -10916,16 +10916,16 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O39" t="n">
-        <v>393.8623192767295</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P39" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>34.7842838544522</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11083,7 +11083,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>65.71641987298389</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11153,10 +11153,10 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O42" t="n">
-        <v>393.8623192767295</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
         <v>139.9817740860215</v>
@@ -11375,10 +11375,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
         <v>370.8403453034592</v>
@@ -11390,16 +11390,16 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O45" t="n">
-        <v>393.8623192767295</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P45" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23418,10 +23418,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>25.58345711357046</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -23436,7 +23436,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
         <v>197.9208099836032</v>
@@ -23472,16 +23472,16 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>266.4806725970868</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -23652,25 +23652,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>33.45305140986665</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>110.419245464272</v>
@@ -23703,7 +23703,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23712,7 +23712,7 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23721,7 +23721,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>170.0971446026168</v>
       </c>
     </row>
     <row r="17">
@@ -23895,16 +23895,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
         <v>148.9138283675361</v>
@@ -23937,19 +23937,19 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>82.39383318338567</v>
       </c>
       <c r="T19" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>146.1162762583704</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -24126,7 +24126,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -24141,13 +24141,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,16 +24174,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24192,10 +24192,10 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>82.39383318338565</v>
       </c>
       <c r="Y22" t="n">
-        <v>157.8198152776424</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24366,22 +24366,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I25" t="n">
         <v>110.419245464272</v>
@@ -24414,7 +24414,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>197.9208099836032</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24423,16 +24423,16 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>116.3910330967438</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24603,7 +24603,7 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
@@ -24651,16 +24651,16 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>64.30500338171987</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>143.2352820653735</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24837,7 +24837,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
@@ -24846,16 +24846,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>110.419245464272</v>
@@ -24888,22 +24888,22 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>146.4805103800789</v>
+        <v>115.8245493422562</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -25074,10 +25074,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
@@ -25086,13 +25086,13 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H34" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>110.419245464272</v>
@@ -25128,10 +25128,10 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U34" t="n">
-        <v>203.6139639913469</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25140,7 +25140,7 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>203.2884232305751</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -25311,25 +25311,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I37" t="n">
         <v>110.419245464272</v>
@@ -25359,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
         <v>197.9208099836032</v>
@@ -25371,13 +25371,13 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>127.8001620216554</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>209.726051404651</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -25551,22 +25551,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I40" t="n">
         <v>110.419245464272</v>
@@ -25599,13 +25599,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
-        <v>196.5720982655872</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25614,10 +25614,10 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>82.39383318338568</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -25803,10 +25803,10 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25836,13 +25836,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -25851,7 +25851,7 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>55.48955461661529</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -26025,7 +26025,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
@@ -26037,13 +26037,13 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26073,13 +26073,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T46" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2373523985773</v>
+        <v>8.463497070473124</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26088,10 +26088,10 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>105.8614422000731</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>664749.4015541052</v>
+        <v>664749.4015541053</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>664749.4015541052</v>
+        <v>664749.4015541053</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>664749.4015541053</v>
+        <v>664749.4015541052</v>
       </c>
     </row>
     <row r="13">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>664749.4015541052</v>
+        <v>664749.4015541053</v>
       </c>
     </row>
     <row r="15">
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>738937.5928778546</v>
+      </c>
+      <c r="C2" t="n">
+        <v>738937.5928778548</v>
+      </c>
+      <c r="D2" t="n">
         <v>738937.5928778547</v>
       </c>
-      <c r="C2" t="n">
-        <v>738937.5928778547</v>
-      </c>
-      <c r="D2" t="n">
-        <v>738937.5928778546</v>
-      </c>
       <c r="E2" t="n">
-        <v>703852.3075278765</v>
+        <v>703852.3075278756</v>
       </c>
       <c r="F2" t="n">
-        <v>703852.3075278763</v>
+        <v>703852.3075278759</v>
       </c>
       <c r="G2" t="n">
         <v>703852.307527876</v>
       </c>
       <c r="H2" t="n">
-        <v>703852.307527876</v>
+        <v>703852.3075278758</v>
       </c>
       <c r="I2" t="n">
         <v>703852.3075278758</v>
       </c>
       <c r="J2" t="n">
-        <v>703852.3075278756</v>
+        <v>703852.3075278758</v>
       </c>
       <c r="K2" t="n">
-        <v>703852.3075278761</v>
+        <v>703852.3075278758</v>
       </c>
       <c r="L2" t="n">
         <v>703852.3075278758</v>
       </c>
       <c r="M2" t="n">
+        <v>703852.3075278759</v>
+      </c>
+      <c r="N2" t="n">
+        <v>703852.3075278755</v>
+      </c>
+      <c r="O2" t="n">
         <v>703852.3075278758</v>
       </c>
-      <c r="N2" t="n">
-        <v>703852.3075278756</v>
-      </c>
-      <c r="O2" t="n">
-        <v>703852.3075278759</v>
-      </c>
       <c r="P2" t="n">
-        <v>703852.3075278756</v>
+        <v>703852.3075278758</v>
       </c>
     </row>
     <row r="3">
@@ -26374,22 +26374,22 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768959</v>
+        <v>525160.0364768954</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>1.797263848857256e-10</v>
       </c>
       <c r="G3" t="n">
-        <v>1.767800767993322e-10</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>1.741016149026109e-10</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925929</v>
+        <v>176423.2191925931</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,10 +26398,10 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.015233837</v>
+        <v>134801.0152338371</v>
       </c>
       <c r="N3" t="n">
-        <v>1.11379904410569e-10</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26423,40 +26423,40 @@
         <v>139059.1391806191</v>
       </c>
       <c r="D4" t="n">
-        <v>139059.1391806191</v>
+        <v>139059.139180619</v>
       </c>
       <c r="E4" t="n">
-        <v>787.7936905759209</v>
+        <v>787.7936905760007</v>
       </c>
       <c r="F4" t="n">
-        <v>787.7936905759209</v>
+        <v>787.793690575951</v>
       </c>
       <c r="G4" t="n">
-        <v>787.7936905759224</v>
+        <v>787.7936905759182</v>
       </c>
       <c r="H4" t="n">
         <v>787.7936905758694</v>
       </c>
       <c r="I4" t="n">
-        <v>787.7936905758694</v>
+        <v>787.7936905759236</v>
       </c>
       <c r="J4" t="n">
         <v>787.7936905758695</v>
       </c>
       <c r="K4" t="n">
-        <v>787.7936905759235</v>
+        <v>787.7936905758695</v>
       </c>
       <c r="L4" t="n">
-        <v>787.7936905758693</v>
+        <v>787.7936905758694</v>
       </c>
       <c r="M4" t="n">
-        <v>787.7936905759209</v>
+        <v>787.7936905758695</v>
       </c>
       <c r="N4" t="n">
-        <v>787.7936905758695</v>
+        <v>787.7936905758694</v>
       </c>
       <c r="O4" t="n">
-        <v>787.7936905758695</v>
+        <v>787.7936905758694</v>
       </c>
       <c r="P4" t="n">
         <v>787.7936905758694</v>
@@ -26475,10 +26475,10 @@
         <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340947</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871661</v>
+        <v>91987.32594871659</v>
       </c>
       <c r="F5" t="n">
         <v>91987.32594871661</v>
@@ -26487,28 +26487,28 @@
         <v>91987.32594871661</v>
       </c>
       <c r="H5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871661</v>
       </c>
       <c r="I5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871661</v>
       </c>
       <c r="J5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="K5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="L5" t="n">
         <v>91987.32594871662</v>
       </c>
       <c r="M5" t="n">
-        <v>91987.32594871661</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="N5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="O5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="P5" t="n">
         <v>91987.32594871662</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-72948.50358071827</v>
+        <v>-72948.50358071839</v>
       </c>
       <c r="C6" t="n">
-        <v>517019.3756338261</v>
+        <v>517019.3756338264</v>
       </c>
       <c r="D6" t="n">
-        <v>517019.3756338261</v>
+        <v>517019.3756338262</v>
       </c>
       <c r="E6" t="n">
-        <v>85917.15141168801</v>
+        <v>84942.56015196595</v>
       </c>
       <c r="F6" t="n">
-        <v>611077.1878885839</v>
+        <v>610102.5966288614</v>
       </c>
       <c r="G6" t="n">
-        <v>611077.1878885833</v>
+        <v>610102.5966288619</v>
       </c>
       <c r="H6" t="n">
-        <v>611077.1878885835</v>
+        <v>610102.5966288615</v>
       </c>
       <c r="I6" t="n">
-        <v>611077.1878885833</v>
+        <v>610102.5966288616</v>
       </c>
       <c r="J6" t="n">
-        <v>434653.9686959903</v>
+        <v>433679.3774362685</v>
       </c>
       <c r="K6" t="n">
-        <v>611077.1878885836</v>
+        <v>610102.5966288616</v>
       </c>
       <c r="L6" t="n">
-        <v>611077.1878885833</v>
+        <v>610102.5966288616</v>
       </c>
       <c r="M6" t="n">
-        <v>476276.1726547462</v>
+        <v>475301.5813950247</v>
       </c>
       <c r="N6" t="n">
-        <v>611077.1878885831</v>
+        <v>610102.5966288614</v>
       </c>
       <c r="O6" t="n">
-        <v>611077.1878885834</v>
+        <v>610102.5966288616</v>
       </c>
       <c r="P6" t="n">
-        <v>611077.1878885832</v>
+        <v>610102.5966288616</v>
       </c>
     </row>
   </sheetData>
@@ -26740,19 +26740,19 @@
         <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541</v>
+        <v>830.3824054540997</v>
       </c>
       <c r="F3" t="n">
         <v>830.3824054541</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541</v>
       </c>
       <c r="H3" t="n">
         <v>830.3824054541002</v>
@@ -26764,19 +26764,19 @@
         <v>830.3824054541002</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541001</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541001</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541001</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541001</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541001</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="P3" t="n">
         <v>830.3824054541002</v>
@@ -26795,7 +26795,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
@@ -26968,16 +26968,16 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370134</v>
+        <v>452.6387412370131</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
         <v>2.273736754432321e-13</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990173</v>
+        <v>540.9263704990169</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545561</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,10 +27044,10 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.926370499017</v>
+        <v>540.9263704990171</v>
       </c>
       <c r="N4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990173</v>
+        <v>540.9263704990169</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,28 +27378,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>75.4511610185744</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27426,25 +27426,25 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>167.0485203931578</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -27536,31 +27536,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>156.1708888417951</v>
+        <v>96.50703242634987</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853701</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27581,10 +27581,10 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
@@ -27596,13 +27596,13 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>166.0230784676656</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27615,25 +27615,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>38.53009859677883</v>
       </c>
       <c r="H5" t="n">
-        <v>143.3457534804294</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
         <v>151.9313162448613</v>
@@ -27669,16 +27669,16 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -27773,19 +27773,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>167.3098022590509</v>
@@ -27797,7 +27797,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27821,7 +27821,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
@@ -27830,13 +27830,13 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>78.17079298148562</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>261.2070929197285</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -27855,13 +27855,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>15.93318254099034</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -27900,7 +27900,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481172</v>
+        <v>15.2496095178665</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
@@ -27912,13 +27912,13 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28031,10 +28031,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853701</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,16 +28055,16 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>56.01837628787166</v>
       </c>
       <c r="T10" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -28079,7 +28079,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>49.56792418188238</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -28095,10 +28095,10 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>1.13686837721616e-12</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>2.899014361901209e-12</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -28329,7 +28329,7 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>1.800799509510398e-12</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -28344,7 +28344,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>1.13686837721616e-12</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -28584,7 +28584,7 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.165290086646564e-12</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -28620,7 +28620,7 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>1.080024958355352e-12</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -29052,7 +29052,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -29571,7 +29571,7 @@
         <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>1.193711796076968e-12</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
@@ -30003,7 +30003,7 @@
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>1.13686837721616e-12</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -31041,13 +31041,13 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H2" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
@@ -31065,22 +31065,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O2" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P2" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q2" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S2" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31120,16 +31120,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I3" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31144,25 +31144,25 @@
         <v>211.31907117367</v>
       </c>
       <c r="O3" t="n">
-        <v>73.87984549392695</v>
+        <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479577</v>
+        <v>111.734380307287</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S3" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,19 +31199,19 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I4" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L4" t="n">
         <v>101.2724571246924</v>
@@ -31223,13 +31223,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P4" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R4" t="n">
         <v>30.62819939701163</v>
@@ -31238,7 +31238,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T4" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U4" t="n">
         <v>0.0371551145131561</v>
@@ -31284,19 +31284,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L5" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31311,13 +31311,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31357,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I6" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31375,7 +31375,7 @@
         <v>176.4169820478007</v>
       </c>
       <c r="M6" t="n">
-        <v>205.8702969983122</v>
+        <v>86.4344768999344</v>
       </c>
       <c r="N6" t="n">
         <v>211.31907117367</v>
@@ -31384,22 +31384,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,16 +31436,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31460,16 +31460,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31515,46 +31515,46 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N8" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q8" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31594,19 +31594,19 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K9" t="n">
-        <v>131.2017781649102</v>
+        <v>11.76595806653279</v>
       </c>
       <c r="L9" t="n">
         <v>176.4169820478007</v>
@@ -31615,28 +31615,28 @@
         <v>205.8702969983122</v>
       </c>
       <c r="N9" t="n">
-        <v>91.88325107529255</v>
+        <v>211.31907117367</v>
       </c>
       <c r="O9" t="n">
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,19 +31673,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31697,22 +31697,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U10" t="n">
         <v>0.0371551145131561</v>
@@ -31752,7 +31752,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443615</v>
       </c>
       <c r="H11" t="n">
         <v>34.18755300444943</v>
@@ -31761,40 +31761,40 @@
         <v>128.6967545176651</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961203</v>
+        <v>283.3273112961202</v>
       </c>
       <c r="K11" t="n">
-        <v>424.6341946041487</v>
+        <v>424.6341946041485</v>
       </c>
       <c r="L11" t="n">
-        <v>526.7962671304438</v>
+        <v>526.7962671304437</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565517</v>
+        <v>586.1623499565515</v>
       </c>
       <c r="N11" t="n">
-        <v>595.6470695927184</v>
+        <v>595.6470695927183</v>
       </c>
       <c r="O11" t="n">
-        <v>562.4526372540884</v>
+        <v>562.4526372540882</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946991</v>
+        <v>480.0403130946989</v>
       </c>
       <c r="Q11" t="n">
-        <v>360.4902833647495</v>
+        <v>360.4902833647494</v>
       </c>
       <c r="R11" t="n">
-        <v>209.6945076446477</v>
+        <v>209.6945076446476</v>
       </c>
       <c r="S11" t="n">
-        <v>76.06970478104647</v>
+        <v>76.06970478104644</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562943</v>
       </c>
       <c r="U11" t="n">
-        <v>0.2670576580354892</v>
+        <v>0.2670576580354891</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354101</v>
       </c>
       <c r="H12" t="n">
         <v>17.25001940386725</v>
       </c>
       <c r="I12" t="n">
-        <v>61.49530078127062</v>
+        <v>61.4953007812706</v>
       </c>
       <c r="J12" t="n">
         <v>0.7465913262578567</v>
       </c>
       <c r="K12" t="n">
-        <v>288.4168775622981</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>452.5584109724843</v>
       </c>
       <c r="N12" t="n">
-        <v>147.3268674777249</v>
+        <v>464.5362854813459</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>98.44906376001177</v>
       </c>
       <c r="P12" t="n">
-        <v>341.0678223458548</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>227.9948068710956</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>110.8952201095117</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S12" t="n">
         <v>33.17612723677463</v>
       </c>
       <c r="T12" t="n">
-        <v>7.199258779361487</v>
+        <v>7.199258779361485</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1175069441680331</v>
+        <v>0.117506944168033</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,16 +31910,16 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081163</v>
       </c>
       <c r="H13" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990344</v>
       </c>
       <c r="I13" t="n">
-        <v>45.03122946298628</v>
+        <v>45.03122946298627</v>
       </c>
       <c r="J13" t="n">
-        <v>105.8669502822383</v>
+        <v>105.8669502822382</v>
       </c>
       <c r="K13" t="n">
         <v>173.9719203557933</v>
@@ -31931,10 +31931,10 @@
         <v>234.7259642171318</v>
       </c>
       <c r="N13" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263749</v>
       </c>
       <c r="O13" t="n">
-        <v>211.6522236065631</v>
+        <v>211.652223606563</v>
       </c>
       <c r="P13" t="n">
         <v>181.1050413469072</v>
@@ -31943,16 +31943,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R13" t="n">
-        <v>67.32903897337667</v>
+        <v>67.32903897337665</v>
       </c>
       <c r="S13" t="n">
-        <v>26.095788053369</v>
+        <v>26.09578805336899</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892243</v>
+        <v>6.398028369892241</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351812</v>
+        <v>0.08167695791351809</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32080,7 +32080,7 @@
         <v>0.7465913262578567</v>
       </c>
       <c r="K15" t="n">
-        <v>288.4168775622981</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -32092,7 +32092,7 @@
         <v>464.536285481346</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>340.8546090773505</v>
       </c>
       <c r="P15" t="n">
         <v>341.0678223458548</v>
@@ -32101,7 +32101,7 @@
         <v>227.9948068710956</v>
       </c>
       <c r="R15" t="n">
-        <v>110.8952201095117</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S15" t="n">
         <v>33.17612723677463</v>
@@ -32229,46 +32229,46 @@
         <v>3.338220725443616</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444943</v>
       </c>
       <c r="I17" t="n">
         <v>128.6967545176651</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961203</v>
       </c>
       <c r="K17" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041487</v>
       </c>
       <c r="L17" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304438</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565517</v>
       </c>
       <c r="N17" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927184</v>
       </c>
       <c r="O17" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540884</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946991</v>
       </c>
       <c r="Q17" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647495</v>
       </c>
       <c r="R17" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446477</v>
       </c>
       <c r="S17" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104647</v>
       </c>
       <c r="T17" t="n">
-        <v>14.61306122562944</v>
+        <v>14.61306122562943</v>
       </c>
       <c r="U17" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354892</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32308,16 +32308,16 @@
         <v>1.786105551354102</v>
       </c>
       <c r="H18" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386725</v>
       </c>
       <c r="I18" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127062</v>
       </c>
       <c r="J18" t="n">
-        <v>168.7478056215733</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K18" t="n">
-        <v>288.4168775622982</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -32326,25 +32326,25 @@
         <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>464.536285481346</v>
       </c>
       <c r="O18" t="n">
-        <v>327.3263154426293</v>
+        <v>424.9599466855524</v>
       </c>
       <c r="P18" t="n">
-        <v>341.0678223458549</v>
+        <v>341.0678223458548</v>
       </c>
       <c r="Q18" t="n">
-        <v>227.9948068710956</v>
+        <v>133.1520833060246</v>
       </c>
       <c r="R18" t="n">
-        <v>110.8952201095118</v>
+        <v>110.8952201095117</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677463</v>
       </c>
       <c r="T18" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361487</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32390,43 +32390,43 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I19" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298628</v>
       </c>
       <c r="J19" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K19" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557933</v>
       </c>
       <c r="L19" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196123</v>
       </c>
       <c r="M19" t="n">
-        <v>234.7259642171319</v>
+        <v>234.7259642171318</v>
       </c>
       <c r="N19" t="n">
         <v>229.144705426375</v>
       </c>
       <c r="O19" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065631</v>
       </c>
       <c r="P19" t="n">
-        <v>181.1050413469073</v>
+        <v>181.1050413469072</v>
       </c>
       <c r="Q19" t="n">
         <v>125.3877432235691</v>
       </c>
       <c r="R19" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337667</v>
       </c>
       <c r="S19" t="n">
-        <v>26.09578805336901</v>
+        <v>26.095788053369</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892243</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351812</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32551,31 +32551,31 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L21" t="n">
         <v>387.8120847358985</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>392.6063366508803</v>
       </c>
       <c r="O21" t="n">
-        <v>424.9599466855526</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>341.0678223458549</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>110.8952201095118</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S21" t="n">
         <v>33.17612723677464</v>
@@ -32791,28 +32791,28 @@
         <v>0.7465913262578567</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L24" t="n">
         <v>387.8120847358985</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813461</v>
+        <v>392.6063366508803</v>
       </c>
       <c r="O24" t="n">
-        <v>424.9599466855526</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>165.4044908539551</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>227.9948068710956</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>110.8952201095118</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S24" t="n">
         <v>33.17612723677464</v>
@@ -32967,10 +32967,10 @@
         <v>480.0403130946992</v>
       </c>
       <c r="Q26" t="n">
-        <v>360.4902833647508</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R26" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446492</v>
       </c>
       <c r="S26" t="n">
         <v>76.06970478104648</v>
@@ -33025,31 +33025,31 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J27" t="n">
-        <v>168.7478056215733</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M27" t="n">
         <v>452.5584109724845</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>392.6063366508803</v>
       </c>
       <c r="O27" t="n">
-        <v>424.9599466855526</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>341.0678223458549</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>227.9948068710956</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>110.8952201095118</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S27" t="n">
         <v>33.17612723677464</v>
@@ -33183,40 +33183,40 @@
         <v>128.6967545176651</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961203</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K29" t="n">
-        <v>424.6341946041487</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L29" t="n">
-        <v>526.7962671304439</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M29" t="n">
         <v>586.1623499565518</v>
       </c>
       <c r="N29" t="n">
-        <v>595.6470695927185</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O29" t="n">
-        <v>562.4526372540885</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946991</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q29" t="n">
-        <v>360.4902833647495</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R29" t="n">
-        <v>209.6945076446477</v>
+        <v>209.6945076446492</v>
       </c>
       <c r="S29" t="n">
-        <v>76.06970478104647</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U29" t="n">
-        <v>0.2670576580354892</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33256,10 +33256,10 @@
         <v>1.786105551354102</v>
       </c>
       <c r="H30" t="n">
-        <v>17.25001940386725</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I30" t="n">
-        <v>61.49530078127063</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J30" t="n">
         <v>0.7465913262578567</v>
@@ -33268,31 +33268,31 @@
         <v>288.4168775622982</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M30" t="n">
-        <v>345.5702060218399</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>392.6063366508803</v>
       </c>
       <c r="O30" t="n">
-        <v>424.9599466855525</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>341.0678223458548</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>227.9948068710956</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>110.8952201095118</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S30" t="n">
         <v>33.17612723677464</v>
       </c>
       <c r="T30" t="n">
-        <v>7.199258779361488</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U30" t="n">
         <v>0.1175069441680331</v>
@@ -33338,7 +33338,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I31" t="n">
-        <v>45.03122946298629</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J31" t="n">
         <v>105.8669502822383</v>
@@ -33356,7 +33356,7 @@
         <v>229.144705426375</v>
       </c>
       <c r="O31" t="n">
-        <v>211.6522236065631</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P31" t="n">
         <v>181.1050413469073</v>
@@ -33368,10 +33368,10 @@
         <v>67.32903897337668</v>
       </c>
       <c r="S31" t="n">
-        <v>26.095788053369</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892244</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U31" t="n">
         <v>0.08167695791351813</v>
@@ -33420,40 +33420,40 @@
         <v>128.6967545176651</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961203</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K32" t="n">
-        <v>424.6341946041487</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L32" t="n">
-        <v>526.7962671304439</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M32" t="n">
         <v>586.1623499565518</v>
       </c>
       <c r="N32" t="n">
-        <v>595.6470695927185</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O32" t="n">
-        <v>562.4526372540885</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946991</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q32" t="n">
-        <v>360.4902833647495</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R32" t="n">
-        <v>209.6945076446483</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.06970478104647</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U32" t="n">
-        <v>0.2670576580354892</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33493,25 +33493,25 @@
         <v>1.786105551354102</v>
       </c>
       <c r="H33" t="n">
-        <v>17.25001940386725</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I33" t="n">
-        <v>61.49530078127063</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J33" t="n">
-        <v>168.7478056215733</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L33" t="n">
-        <v>387.8120847358984</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M33" t="n">
-        <v>181.1761014324604</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813461</v>
+        <v>392.6063366508803</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
@@ -33520,16 +33520,16 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>110.8952201095118</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S33" t="n">
         <v>33.17612723677464</v>
       </c>
       <c r="T33" t="n">
-        <v>7.199258779361488</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33575,7 +33575,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I34" t="n">
-        <v>45.03122946298629</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J34" t="n">
         <v>105.8669502822383</v>
@@ -33593,7 +33593,7 @@
         <v>229.144705426375</v>
       </c>
       <c r="O34" t="n">
-        <v>211.6522236065631</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P34" t="n">
         <v>181.1050413469073</v>
@@ -33605,10 +33605,10 @@
         <v>67.32903897337668</v>
       </c>
       <c r="S34" t="n">
-        <v>26.095788053369</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892244</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U34" t="n">
         <v>0.08167695791351813</v>
@@ -33657,40 +33657,40 @@
         <v>128.6967545176651</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961203</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K35" t="n">
-        <v>424.6341946041487</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L35" t="n">
-        <v>526.7962671304439</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M35" t="n">
         <v>586.1623499565518</v>
       </c>
       <c r="N35" t="n">
-        <v>595.6470695927185</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O35" t="n">
-        <v>562.4526372540885</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946991</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q35" t="n">
-        <v>360.4902833647495</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R35" t="n">
-        <v>209.6945076446477</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.06970478104647</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U35" t="n">
-        <v>0.2670576580354892</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33730,34 +33730,34 @@
         <v>1.786105551354102</v>
       </c>
       <c r="H36" t="n">
-        <v>17.25001940386725</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I36" t="n">
-        <v>61.49530078127063</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J36" t="n">
-        <v>168.7478056215733</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K36" t="n">
-        <v>173.9221679893118</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M36" t="n">
         <v>452.5584109724845</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>392.6063366508803</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>341.0678223458548</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>227.9948068710956</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>100.1578341526431</v>
@@ -33766,7 +33766,7 @@
         <v>33.17612723677464</v>
       </c>
       <c r="T36" t="n">
-        <v>7.199258779361488</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33812,7 +33812,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I37" t="n">
-        <v>45.03122946298629</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J37" t="n">
         <v>105.8669502822383</v>
@@ -33830,7 +33830,7 @@
         <v>229.144705426375</v>
       </c>
       <c r="O37" t="n">
-        <v>211.6522236065631</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P37" t="n">
         <v>181.1050413469073</v>
@@ -33842,10 +33842,10 @@
         <v>67.32903897337668</v>
       </c>
       <c r="S37" t="n">
-        <v>26.095788053369</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892244</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U37" t="n">
         <v>0.08167695791351813</v>
@@ -33894,40 +33894,40 @@
         <v>128.6967545176651</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961203</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K38" t="n">
-        <v>424.6341946041487</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L38" t="n">
-        <v>526.7962671304439</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M38" t="n">
         <v>586.1623499565518</v>
       </c>
       <c r="N38" t="n">
-        <v>595.6470695927185</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O38" t="n">
-        <v>562.4526372540885</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946991</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q38" t="n">
-        <v>360.4902833647495</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R38" t="n">
-        <v>209.6945076446477</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.06970478104647</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U38" t="n">
-        <v>0.2670576580354892</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33967,10 +33967,10 @@
         <v>1.786105551354102</v>
       </c>
       <c r="H39" t="n">
-        <v>17.25001940386725</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I39" t="n">
-        <v>61.49530078127063</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J39" t="n">
         <v>0.7465913262578567</v>
@@ -33979,31 +33979,31 @@
         <v>288.4168775622982</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>392.6063366508803</v>
       </c>
       <c r="O39" t="n">
-        <v>390.3502189581785</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>341.0678223458548</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>227.9948068710956</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>110.8952201095118</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S39" t="n">
         <v>33.17612723677464</v>
       </c>
       <c r="T39" t="n">
-        <v>7.199258779361488</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34049,7 +34049,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I40" t="n">
-        <v>45.03122946298629</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J40" t="n">
         <v>105.8669502822383</v>
@@ -34067,7 +34067,7 @@
         <v>229.144705426375</v>
       </c>
       <c r="O40" t="n">
-        <v>211.6522236065631</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P40" t="n">
         <v>181.1050413469073</v>
@@ -34079,10 +34079,10 @@
         <v>67.32903897337668</v>
       </c>
       <c r="S40" t="n">
-        <v>26.095788053369</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892244</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U40" t="n">
         <v>0.08167695791351813</v>
@@ -34131,40 +34131,40 @@
         <v>128.6967545176651</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961203</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K41" t="n">
-        <v>424.6341946041487</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L41" t="n">
-        <v>526.7962671304439</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M41" t="n">
         <v>586.1623499565518</v>
       </c>
       <c r="N41" t="n">
-        <v>595.6470695927185</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O41" t="n">
-        <v>562.4526372540885</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946991</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q41" t="n">
-        <v>360.4902833647495</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R41" t="n">
-        <v>209.6945076446477</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.06970478104647</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U41" t="n">
-        <v>0.2670576580354892</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34204,10 +34204,10 @@
         <v>1.786105551354102</v>
       </c>
       <c r="H42" t="n">
-        <v>17.25001940386725</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I42" t="n">
-        <v>61.49530078127063</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
         <v>0.7465913262578567</v>
@@ -34216,19 +34216,19 @@
         <v>288.4168775622982</v>
       </c>
       <c r="L42" t="n">
-        <v>387.8120847358984</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N42" t="n">
-        <v>168.9387261055272</v>
+        <v>392.6063366508803</v>
       </c>
       <c r="O42" t="n">
-        <v>424.9599466855525</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>133.9744074143302</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -34240,7 +34240,7 @@
         <v>33.17612723677464</v>
       </c>
       <c r="T42" t="n">
-        <v>7.199258779361488</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34286,7 +34286,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I43" t="n">
-        <v>45.03122946298629</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J43" t="n">
         <v>105.8669502822383</v>
@@ -34304,7 +34304,7 @@
         <v>229.144705426375</v>
       </c>
       <c r="O43" t="n">
-        <v>211.6522236065631</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P43" t="n">
         <v>181.1050413469073</v>
@@ -34316,10 +34316,10 @@
         <v>67.32903897337668</v>
       </c>
       <c r="S43" t="n">
-        <v>26.095788053369</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892244</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U43" t="n">
         <v>0.08167695791351813</v>
@@ -34447,10 +34447,10 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L45" t="n">
         <v>387.8120847358985</v>
@@ -34459,19 +34459,19 @@
         <v>452.5584109724845</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>392.6063366508803</v>
       </c>
       <c r="O45" t="n">
-        <v>30.82475384765172</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>341.0678223458549</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>139.9817740860215</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>110.8952201095118</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S45" t="n">
         <v>33.17612723677464</v>
@@ -34713,10 +34713,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P2" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q2" t="n">
         <v>153.9975062898689</v>
@@ -34777,7 +34777,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.01733575770689</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34792,10 +34792,10 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
-        <v>325.145920326212</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735646</v>
+        <v>296.2227415328939</v>
       </c>
       <c r="Q3" t="n">
         <v>173.8110948137341</v>
@@ -34859,7 +34859,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L4" t="n">
         <v>128.8624823850085</v>
@@ -34874,7 +34874,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P4" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34935,19 +34935,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K5" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35014,7 +35014,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35023,16 +35023,16 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M6" t="n">
-        <v>529.4413268262938</v>
+        <v>410.005506727916</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>220.205405775187</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q6" t="n">
         <v>173.8110948137341</v>
@@ -35172,25 +35172,25 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K8" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q8" t="n">
         <v>153.9975062898689</v>
@@ -35251,10 +35251,10 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770689</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K9" t="n">
-        <v>257.8255762031298</v>
+        <v>138.3897561047524</v>
       </c>
       <c r="L9" t="n">
         <v>408.7029475713857</v>
@@ -35263,13 +35263,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>439.8839133355128</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q9" t="n">
         <v>173.8110948137341</v>
@@ -35333,7 +35333,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35348,7 +35348,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35409,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415077</v>
       </c>
       <c r="K11" t="n">
-        <v>528.6897561303329</v>
+        <v>528.6897561303327</v>
       </c>
       <c r="L11" t="n">
-        <v>708.691066710907</v>
+        <v>708.6910667109069</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221115</v>
+        <v>805.3296502221112</v>
       </c>
       <c r="N11" t="n">
-        <v>803.5809304081116</v>
+        <v>803.5809304081115</v>
       </c>
       <c r="O11" t="n">
-        <v>713.154607095147</v>
+        <v>713.1546070951468</v>
       </c>
       <c r="P11" t="n">
         <v>570.6060255109121</v>
       </c>
       <c r="Q11" t="n">
-        <v>350.4995841502047</v>
+        <v>350.4995841502046</v>
       </c>
       <c r="R11" t="n">
-        <v>59.82538970349802</v>
+        <v>59.82538970349796</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35491,28 +35491,28 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>415.0406756005177</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L12" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M12" t="n">
-        <v>323.5710298279816</v>
+        <v>776.1294408004659</v>
       </c>
       <c r="N12" t="n">
-        <v>495.3275297379451</v>
+        <v>812.5369477415661</v>
       </c>
       <c r="O12" t="n">
-        <v>251.2660748322851</v>
+        <v>349.7151385922969</v>
       </c>
       <c r="P12" t="n">
-        <v>525.5561835714617</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q12" t="n">
-        <v>298.0903205209231</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R12" t="n">
-        <v>10.73738595686861</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556549</v>
+        <v>12.50777016556546</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299104</v>
       </c>
       <c r="L13" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799284</v>
       </c>
       <c r="M13" t="n">
         <v>274.3098411789724</v>
       </c>
       <c r="N13" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056035</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206027</v>
       </c>
       <c r="P13" t="n">
         <v>178.3836006118007</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.2256999718747</v>
+        <v>39.22569997187468</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35728,19 +35728,19 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>415.0406756005177</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>268.3650726135145</v>
+        <v>323.5710298279816</v>
       </c>
       <c r="N15" t="n">
         <v>812.5369477415662</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>592.1206839096355</v>
       </c>
       <c r="P15" t="n">
         <v>525.5561835714617</v>
@@ -35883,31 +35883,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K17" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L17" t="n">
-        <v>708.6910667109072</v>
+        <v>708.691066710907</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221115</v>
       </c>
       <c r="N17" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081116</v>
       </c>
       <c r="O17" t="n">
-        <v>713.1546070951472</v>
+        <v>713.154607095147</v>
       </c>
       <c r="P17" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109121</v>
       </c>
       <c r="Q17" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502047</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349802</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,31 +35962,31 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>168.0012142953155</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>415.0406756005178</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
         <v>323.5710298279816</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>812.5369477415662</v>
       </c>
       <c r="O18" t="n">
-        <v>578.5923902749144</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P18" t="n">
-        <v>525.5561835714618</v>
+        <v>525.5561835714617</v>
       </c>
       <c r="Q18" t="n">
-        <v>298.0903205209232</v>
+        <v>203.2475969558522</v>
       </c>
       <c r="R18" t="n">
-        <v>10.73738595686864</v>
+        <v>10.73738595686861</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36041,7 +36041,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556549</v>
       </c>
       <c r="K19" t="n">
         <v>151.7024285299105</v>
@@ -36050,7 +36050,7 @@
         <v>250.2141868799285</v>
       </c>
       <c r="M19" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789724</v>
       </c>
       <c r="N19" t="n">
         <v>273.2768778056036</v>
@@ -36062,7 +36062,7 @@
         <v>178.3836006118007</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187475</v>
+        <v>39.2256999718747</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36202,22 +36202,22 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>126.6237980382196</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L21" t="n">
         <v>620.0980502594834</v>
       </c>
       <c r="M21" t="n">
-        <v>323.5710298279816</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N21" t="n">
-        <v>348.0006622602202</v>
+        <v>740.6069989111005</v>
       </c>
       <c r="O21" t="n">
-        <v>676.2260215178376</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>457.3556036678254</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36439,25 +36439,25 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L24" t="n">
         <v>620.0980502594834</v>
       </c>
       <c r="M24" t="n">
-        <v>323.5710298279816</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N24" t="n">
-        <v>812.5369477415663</v>
+        <v>740.6069989111005</v>
       </c>
       <c r="O24" t="n">
-        <v>676.2260215178376</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>31.43008343962481</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>88.0130327850741</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36615,10 +36615,10 @@
         <v>570.6060255109123</v>
       </c>
       <c r="Q26" t="n">
-        <v>350.499584150206</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034995</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36673,28 +36673,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>41.91017895490666</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L27" t="n">
-        <v>232.285965523585</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M27" t="n">
         <v>776.1294408004661</v>
       </c>
       <c r="N27" t="n">
-        <v>1.677054682387748</v>
+        <v>740.6069989111005</v>
       </c>
       <c r="O27" t="n">
-        <v>676.2260215178376</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>525.5561835714618</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>298.0903205209232</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36831,31 +36831,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K29" t="n">
-        <v>528.6897561303329</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L29" t="n">
-        <v>708.6910667109071</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M29" t="n">
         <v>805.3296502221116</v>
       </c>
       <c r="N29" t="n">
-        <v>803.5809304081117</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O29" t="n">
-        <v>713.1546070951471</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P29" t="n">
-        <v>570.6060255109122</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q29" t="n">
-        <v>350.4995841502047</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.82538970349805</v>
+        <v>59.8253897034995</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36913,25 +36913,25 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L30" t="n">
-        <v>232.285965523585</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M30" t="n">
-        <v>669.1412358498214</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>740.6069989111005</v>
       </c>
       <c r="O30" t="n">
-        <v>676.2260215178376</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>525.5561835714618</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>298.0903205209232</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36989,7 +36989,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>12.5077701655655</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K31" t="n">
         <v>151.7024285299105</v>
@@ -36998,7 +36998,7 @@
         <v>250.2141868799285</v>
       </c>
       <c r="M31" t="n">
-        <v>274.3098411789724</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N31" t="n">
         <v>273.2768778056036</v>
@@ -37010,7 +37010,7 @@
         <v>178.3836006118007</v>
       </c>
       <c r="Q31" t="n">
-        <v>39.22569997187472</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37068,31 +37068,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K32" t="n">
-        <v>528.6897561303329</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L32" t="n">
-        <v>708.6910667109071</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M32" t="n">
         <v>805.3296502221116</v>
       </c>
       <c r="N32" t="n">
-        <v>803.5809304081117</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O32" t="n">
-        <v>713.1546070951471</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P32" t="n">
-        <v>570.6060255109122</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q32" t="n">
-        <v>350.4995841502047</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.82538970349858</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37147,31 +37147,31 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>168.0012142953155</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L33" t="n">
         <v>620.0980502594834</v>
       </c>
       <c r="M33" t="n">
-        <v>504.747131260442</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N33" t="n">
-        <v>812.5369477415663</v>
+        <v>740.6069989111005</v>
       </c>
       <c r="O33" t="n">
-        <v>251.2660748322851</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>10.73738595686862</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37226,7 +37226,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>12.5077701655655</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K34" t="n">
         <v>151.7024285299105</v>
@@ -37235,7 +37235,7 @@
         <v>250.2141868799285</v>
       </c>
       <c r="M34" t="n">
-        <v>274.3098411789724</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N34" t="n">
         <v>273.2768778056036</v>
@@ -37247,7 +37247,7 @@
         <v>178.3836006118007</v>
       </c>
       <c r="Q34" t="n">
-        <v>39.22569997187472</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37305,31 +37305,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K35" t="n">
-        <v>528.6897561303329</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L35" t="n">
-        <v>708.6910667109071</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
         <v>805.3296502221116</v>
       </c>
       <c r="N35" t="n">
-        <v>803.5809304081117</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O35" t="n">
-        <v>713.1546070951471</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P35" t="n">
-        <v>570.6060255109122</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q35" t="n">
-        <v>350.4995841502047</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349805</v>
+        <v>59.8253897034995</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37384,28 +37384,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>168.0012142953155</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>300.5459660275314</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L36" t="n">
-        <v>232.285965523585</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M36" t="n">
-        <v>776.129440800466</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>740.6069989111005</v>
       </c>
       <c r="O36" t="n">
-        <v>251.2660748322851</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>525.5561835714618</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>298.0903205209232</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37463,7 +37463,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>12.5077701655655</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K37" t="n">
         <v>151.7024285299105</v>
@@ -37472,7 +37472,7 @@
         <v>250.2141868799285</v>
       </c>
       <c r="M37" t="n">
-        <v>274.3098411789724</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N37" t="n">
         <v>273.2768778056036</v>
@@ -37484,7 +37484,7 @@
         <v>178.3836006118007</v>
       </c>
       <c r="Q37" t="n">
-        <v>39.22569997187472</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37542,31 +37542,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
-        <v>528.6897561303329</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L38" t="n">
-        <v>708.6910667109071</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
         <v>805.3296502221116</v>
       </c>
       <c r="N38" t="n">
-        <v>803.5809304081117</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O38" t="n">
-        <v>713.1546070951471</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P38" t="n">
-        <v>570.6060255109122</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q38" t="n">
-        <v>350.4995841502047</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.8253897034995</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37627,22 +37627,22 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M39" t="n">
-        <v>323.5710298279816</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N39" t="n">
-        <v>348.0006622602202</v>
+        <v>740.6069989111005</v>
       </c>
       <c r="O39" t="n">
-        <v>641.6162937904636</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>525.5561835714618</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>298.0903205209232</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37700,7 +37700,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>12.5077701655655</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K40" t="n">
         <v>151.7024285299105</v>
@@ -37709,7 +37709,7 @@
         <v>250.2141868799285</v>
       </c>
       <c r="M40" t="n">
-        <v>274.3098411789724</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N40" t="n">
         <v>273.2768778056036</v>
@@ -37721,7 +37721,7 @@
         <v>178.3836006118007</v>
       </c>
       <c r="Q40" t="n">
-        <v>39.22569997187472</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37779,31 +37779,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
-        <v>528.6897561303329</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L41" t="n">
-        <v>708.6910667109071</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
         <v>805.3296502221116</v>
       </c>
       <c r="N41" t="n">
-        <v>803.5809304081117</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O41" t="n">
-        <v>713.1546070951471</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P41" t="n">
-        <v>570.6060255109122</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q41" t="n">
-        <v>350.4995841502047</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.8253897034995</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37867,13 +37867,13 @@
         <v>620.0980502594834</v>
       </c>
       <c r="M42" t="n">
-        <v>323.5710298279816</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N42" t="n">
-        <v>516.9393883657474</v>
+        <v>740.6069989111005</v>
       </c>
       <c r="O42" t="n">
-        <v>676.2260215178376</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -37937,7 +37937,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>12.5077701655655</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K43" t="n">
         <v>151.7024285299105</v>
@@ -37946,7 +37946,7 @@
         <v>250.2141868799285</v>
       </c>
       <c r="M43" t="n">
-        <v>274.3098411789724</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N43" t="n">
         <v>273.2768778056036</v>
@@ -37958,7 +37958,7 @@
         <v>178.3836006118007</v>
       </c>
       <c r="Q43" t="n">
-        <v>39.22569997187472</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38098,7 +38098,7 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L45" t="n">
         <v>620.0980502594834</v>
@@ -38107,13 +38107,13 @@
         <v>776.1294408004661</v>
       </c>
       <c r="N45" t="n">
-        <v>348.0006622602202</v>
+        <v>740.6069989111005</v>
       </c>
       <c r="O45" t="n">
-        <v>282.0908286799368</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>525.5561835714618</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_0_36.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_0_36.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3815949.577731388</v>
+        <v>3820888.840580421</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>566727.5594865837</v>
+        <v>615993.4011147</v>
       </c>
     </row>
     <row r="8">
@@ -658,16 +658,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>191.978826883362</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
@@ -709,7 +709,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>7.367192415813765</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
         <v>216.4483203576578</v>
@@ -721,7 +721,7 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I3" t="n">
-        <v>61.42221998250796</v>
+        <v>61.4222199825084</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -822,19 +822,19 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>59.66385641544528</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -879,13 +879,13 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>223.1498336210773</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -895,22 +895,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>60.46179076613115</v>
       </c>
       <c r="F5" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>375.2540714240162</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -943,7 +943,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -1053,16 +1053,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -1077,7 +1077,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1098,7 +1098,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1110,13 +1110,13 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>20.31656064018926</v>
       </c>
       <c r="W7" t="n">
-        <v>25.31590541686252</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1132,25 +1132,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1180,7 +1180,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>39.22879305694519</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -1192,13 +1192,13 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>270.7773459850742</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1232,7 +1232,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1290,19 +1290,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>59.72683757586846</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1341,13 +1341,13 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>156.1271626621472</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1378,10 +1378,10 @@
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722589</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417105</v>
       </c>
       <c r="G11" t="n">
         <v>411.9645167896915</v>
@@ -1390,7 +1390,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274083</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1466,10 +1466,10 @@
         <v>135.5574116118565</v>
       </c>
       <c r="H12" t="n">
-        <v>94.98542483262922</v>
+        <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014448</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1536,13 +1536,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1575,22 +1575,22 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>53.91390732490781</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>20.04232573950423</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -1609,7 +1609,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710057</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
@@ -1624,10 +1624,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H14" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113174</v>
       </c>
       <c r="I14" t="n">
-        <v>81.7791350527408</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1706,7 +1706,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014446</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1770,7 +1770,7 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -1782,7 +1782,7 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>197.9208099836032</v>
@@ -1821,19 +1821,19 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>143.3158222056515</v>
       </c>
       <c r="Y16" t="n">
-        <v>48.48750874947797</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1864,7 +1864,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.7791350527408</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1900,7 +1900,7 @@
         <v>208.4827883385019</v>
       </c>
       <c r="U17" t="n">
-        <v>251.0785952497999</v>
+        <v>251.0785952498008</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -1943,7 +1943,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014446</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2001,7 +2001,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -2052,13 +2052,13 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>115.5269768002176</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2373523985773</v>
+        <v>224.895256723152</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2070,7 +2070,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2134,7 +2134,7 @@
         <v>132.9503648051989</v>
       </c>
       <c r="T20" t="n">
-        <v>208.4827883385011</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U20" t="n">
         <v>251.078595249801</v>
@@ -2289,10 +2289,10 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583892</v>
+        <v>118.4898845065119</v>
       </c>
       <c r="U22" t="n">
         <v>286.2373523985773</v>
@@ -2304,10 +2304,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>143.3158222056515</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2332,13 +2332,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>411.9645167896903</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H23" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274071</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T23" t="n">
         <v>208.4827883385019</v>
@@ -2417,7 +2417,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2526,10 +2526,10 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>115.5269768002178</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>221.5475610583892</v>
+        <v>118.4898845065123</v>
       </c>
       <c r="U25" t="n">
         <v>286.2373523985773</v>
@@ -2544,7 +2544,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2572,7 +2572,7 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H26" t="n">
-        <v>305.2872491113177</v>
+        <v>305.287249111316</v>
       </c>
       <c r="I26" t="n">
         <v>81.77913505274077</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051993</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
@@ -2715,7 +2715,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>76.51130099392645</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -2724,7 +2724,7 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -2766,10 +2766,10 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>157.2425576766694</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2958,16 +2958,16 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2997,19 +2997,19 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>82.09626064134706</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T31" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>203.8435192151918</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
@@ -3189,22 +3189,22 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3240,10 +3240,10 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>118.4898845065119</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3252,7 +3252,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>22.42123215846201</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -3423,7 +3423,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -3435,7 +3435,7 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -3474,7 +3474,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T37" t="n">
         <v>221.5475610583892</v>
@@ -3489,7 +3489,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>15.98360398438619</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -3520,7 +3520,7 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H38" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113174</v>
       </c>
       <c r="I38" t="n">
         <v>81.77913505274077</v>
@@ -3711,10 +3711,10 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>221.5475610583892</v>
+        <v>118.4898845065119</v>
       </c>
       <c r="U40" t="n">
         <v>286.2373523985773</v>
@@ -3726,10 +3726,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>143.3158222056515</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3948,13 +3948,13 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>115.5269768002178</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2373523985773</v>
+        <v>183.1796758467</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -3966,7 +3966,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -3997,7 +3997,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T44" t="n">
         <v>208.4827883385019</v>
@@ -4076,7 +4076,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4146,16 +4146,16 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4185,13 +4185,13 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U46" t="n">
-        <v>277.7738553281042</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4200,10 +4200,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>203.8435192151917</v>
       </c>
     </row>
   </sheetData>
@@ -4306,13 +4306,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2118.304160219349</v>
+        <v>1915.737096240334</v>
       </c>
       <c r="C2" t="n">
-        <v>1749.341643278937</v>
+        <v>1915.737096240334</v>
       </c>
       <c r="D2" t="n">
-        <v>1749.341643278937</v>
+        <v>1557.471397633584</v>
       </c>
       <c r="E2" t="n">
         <v>1363.553390680693</v>
@@ -4327,13 +4327,13 @@
         <v>207.4089578252748</v>
       </c>
       <c r="I2" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533143</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733126</v>
+        <v>463.961649073313</v>
       </c>
       <c r="L2" t="n">
         <v>881.2824271224079</v>
@@ -4348,34 +4348,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P2" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q2" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R2" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="S2" t="n">
-        <v>2689.7074825174</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T2" t="n">
-        <v>2471.072815489463</v>
+        <v>2302.336936304456</v>
       </c>
       <c r="U2" t="n">
-        <v>2471.072815489463</v>
+        <v>2302.336936304456</v>
       </c>
       <c r="V2" t="n">
-        <v>2471.072815489463</v>
+        <v>2302.336936304456</v>
       </c>
       <c r="W2" t="n">
-        <v>2118.304160219349</v>
+        <v>2302.336936304456</v>
       </c>
       <c r="X2" t="n">
-        <v>2118.304160219349</v>
+        <v>2302.336936304456</v>
       </c>
       <c r="Y2" t="n">
-        <v>2118.304160219349</v>
+        <v>2302.336936304456</v>
       </c>
     </row>
     <row r="3">
@@ -4385,67 +4385,67 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170834</v>
       </c>
       <c r="C3" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359564</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747047</v>
+        <v>665.1105362747052</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692492</v>
+        <v>505.8730812692497</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961347</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673426</v>
       </c>
       <c r="I3" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J3" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L3" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M3" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N3" t="n">
-        <v>1791.679670014717</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O3" t="n">
-        <v>2231.815593035061</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P3" t="n">
         <v>2525.076107152626</v>
       </c>
       <c r="Q3" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S3" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T3" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U3" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V3" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W3" t="n">
         <v>1572.325111207638</v>
@@ -4454,7 +4454,7 @@
         <v>1364.473611002105</v>
       </c>
       <c r="Y3" t="n">
-        <v>1156.713312237151</v>
+        <v>1156.713312237152</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="C4" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="D4" t="n">
-        <v>578.0123447940985</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="E4" t="n">
-        <v>430.0992512117053</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="F4" t="n">
-        <v>283.209303713795</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G4" t="n">
-        <v>114.2095034521274</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H4" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I4" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J4" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K4" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M4" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W4" t="n">
-        <v>728.1289842064342</v>
+        <v>502.7251118619119</v>
       </c>
       <c r="X4" t="n">
-        <v>728.1289842064342</v>
+        <v>274.7355609638946</v>
       </c>
       <c r="Y4" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036446</v>
       </c>
     </row>
     <row r="5">
@@ -4543,19 +4543,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1194.683768698139</v>
+        <v>863.1126181035243</v>
       </c>
       <c r="C5" t="n">
-        <v>825.7212517577275</v>
+        <v>494.1501011631125</v>
       </c>
       <c r="D5" t="n">
-        <v>825.7212517577275</v>
+        <v>135.884402556362</v>
       </c>
       <c r="E5" t="n">
-        <v>439.9329991594832</v>
+        <v>74.81188663097703</v>
       </c>
       <c r="F5" t="n">
-        <v>432.9874984102798</v>
+        <v>67.86638588177355</v>
       </c>
       <c r="G5" t="n">
         <v>53.94298182036445</v>
@@ -4573,7 +4573,7 @@
         <v>463.9616490733127</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4591,28 +4591,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S5" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T5" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U5" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V5" t="n">
-        <v>2311.057514205145</v>
+        <v>2366.086203674652</v>
       </c>
       <c r="W5" t="n">
-        <v>1958.288858935031</v>
+        <v>2013.317548404538</v>
       </c>
       <c r="X5" t="n">
-        <v>1584.823100673951</v>
+        <v>1639.851790143458</v>
       </c>
       <c r="Y5" t="n">
-        <v>1194.683768698139</v>
+        <v>1249.712458167646</v>
       </c>
     </row>
     <row r="6">
@@ -4637,10 +4637,10 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H6" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673427</v>
       </c>
       <c r="I6" t="n">
         <v>53.94298182036445</v>
@@ -4701,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>520.9088977430002</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="C7" t="n">
-        <v>351.9727148150933</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="D7" t="n">
-        <v>201.8560754027576</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="E7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="F7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="G7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="J7" t="n">
         <v>53.94298182036445</v>
@@ -4746,31 +4746,31 @@
         <v>728.1289842064344</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064344</v>
+        <v>409.5384547146243</v>
       </c>
       <c r="V7" t="n">
-        <v>728.1289842064344</v>
+        <v>389.0166762901907</v>
       </c>
       <c r="W7" t="n">
-        <v>702.55736257324</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="X7" t="n">
-        <v>702.55736257324</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="Y7" t="n">
-        <v>702.55736257324</v>
+        <v>99.5995062532301</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1210.087414675782</v>
+        <v>1591.868758816787</v>
       </c>
       <c r="C8" t="n">
-        <v>1210.087414675782</v>
+        <v>1222.906241876376</v>
       </c>
       <c r="D8" t="n">
-        <v>1210.087414675782</v>
+        <v>864.6405432696254</v>
       </c>
       <c r="E8" t="n">
-        <v>1210.087414675782</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="F8" t="n">
-        <v>799.1015098861748</v>
+        <v>67.86638588177354</v>
       </c>
       <c r="G8" t="n">
-        <v>381.1377017843616</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533143</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.961649073313</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2657.524047526359</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="S8" t="n">
-        <v>2657.524047526359</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="T8" t="n">
-        <v>2657.524047526359</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="U8" t="n">
-        <v>2657.524047526359</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="V8" t="n">
-        <v>2326.461160182788</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="W8" t="n">
-        <v>1973.692504912674</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="X8" t="n">
-        <v>1600.226746651594</v>
+        <v>2368.607930856721</v>
       </c>
       <c r="Y8" t="n">
-        <v>1210.087414675782</v>
+        <v>1978.468598880909</v>
       </c>
     </row>
     <row r="9">
@@ -4880,16 +4880,16 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J9" t="n">
         <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>266.2060027641992</v>
+        <v>266.2060027641994</v>
       </c>
       <c r="L9" t="n">
-        <v>670.8219208598711</v>
+        <v>670.8219208598713</v>
       </c>
       <c r="M9" t="n">
         <v>1194.968834417902</v>
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>53.94298182036446</v>
+        <v>667.7988452409105</v>
       </c>
       <c r="C10" t="n">
-        <v>53.94298182036446</v>
+        <v>498.8626623130036</v>
       </c>
       <c r="D10" t="n">
-        <v>53.94298182036446</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="E10" t="n">
-        <v>53.94298182036446</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S10" t="n">
-        <v>570.4247794971948</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T10" t="n">
-        <v>343.1165921657965</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U10" t="n">
-        <v>53.94298182036446</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V10" t="n">
-        <v>53.94298182036446</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W10" t="n">
-        <v>53.94298182036446</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X10" t="n">
-        <v>53.94298182036446</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y10" t="n">
-        <v>53.94298182036446</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="11">
@@ -5017,13 +5017,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.3213845506</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C11" t="n">
-        <v>2059.358867610188</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D11" t="n">
-        <v>1701.093169003438</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E11" t="n">
         <v>1315.304916405196</v>
@@ -5035,58 +5035,58 @@
         <v>488.193237080547</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028581</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J11" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795205</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M11" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619126</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O11" t="n">
-        <v>3889.732883643321</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899124</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.627437207828</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R11" t="n">
         <v>4860.854573014291</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231261</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T11" t="n">
-        <v>4515.972600141865</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.357857465298</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.294970121728</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851613</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590533</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614722</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="12">
@@ -5108,37 +5108,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F12" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G12" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H12" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028581</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J12" t="n">
-        <v>97.21709146028581</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="K12" t="n">
-        <v>222.5746515181232</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="L12" t="n">
-        <v>452.5377573864724</v>
+        <v>198.6865418035158</v>
       </c>
       <c r="M12" t="n">
-        <v>1220.905903778934</v>
+        <v>967.0546881959772</v>
       </c>
       <c r="N12" t="n">
-        <v>2025.317482043084</v>
+        <v>1771.466266460128</v>
       </c>
       <c r="O12" t="n">
-        <v>2371.535469249458</v>
+        <v>2440.930027762787</v>
       </c>
       <c r="P12" t="n">
-        <v>2554.178946862809</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q12" t="n">
         <v>2623.573505376138</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>711.072954880832</v>
+        <v>731.3351829786183</v>
       </c>
       <c r="C13" t="n">
-        <v>542.1367719529251</v>
+        <v>562.3990000507114</v>
       </c>
       <c r="D13" t="n">
-        <v>392.0201325405893</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="E13" t="n">
-        <v>244.1070389581962</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="F13" t="n">
-        <v>97.21709146028581</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G13" t="n">
-        <v>97.21709146028581</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="H13" t="n">
-        <v>97.21709146028581</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028581</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J13" t="n">
-        <v>109.5997839241956</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K13" t="n">
-        <v>259.7851881688069</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799361</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471187</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N13" t="n">
-        <v>1049.608084974666</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O13" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P13" t="n">
-        <v>1460.082827585745</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q13" t="n">
-        <v>1498.916270557901</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R13" t="n">
-        <v>1498.916270557901</v>
+        <v>1444.457778310521</v>
       </c>
       <c r="S13" t="n">
-        <v>1498.916270557901</v>
+        <v>1244.537768226073</v>
       </c>
       <c r="T13" t="n">
-        <v>1275.130855347407</v>
+        <v>1020.752353015579</v>
       </c>
       <c r="U13" t="n">
-        <v>986.0022165609655</v>
+        <v>1020.752353015579</v>
       </c>
       <c r="V13" t="n">
-        <v>731.3177283550787</v>
+        <v>1020.752353015579</v>
       </c>
       <c r="W13" t="n">
-        <v>711.072954880832</v>
+        <v>731.3351829786183</v>
       </c>
       <c r="X13" t="n">
-        <v>711.072954880832</v>
+        <v>731.3351829786183</v>
       </c>
       <c r="Y13" t="n">
-        <v>711.072954880832</v>
+        <v>731.3351829786183</v>
       </c>
     </row>
     <row r="14">
@@ -5254,37 +5254,37 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550601</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C14" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E14" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155889</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G14" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823794</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M14" t="n">
         <v>2388.164701515097</v>
@@ -5302,28 +5302,28 @@
         <v>4801.627437207829</v>
       </c>
       <c r="R14" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T14" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.357857465299</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W14" t="n">
-        <v>3578.526314851614</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590534</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614723</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="15">
@@ -5354,22 +5354,22 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I15" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K15" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="L15" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="M15" t="n">
         <v>417.5524109899876</v>
       </c>
       <c r="N15" t="n">
-        <v>1221.963989254138</v>
+        <v>1138.699705022018</v>
       </c>
       <c r="O15" t="n">
         <v>1808.163466324677</v>
@@ -5412,46 +5412,46 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>397.7517393246783</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C16" t="n">
-        <v>397.7517393246783</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D16" t="n">
-        <v>247.6350999123425</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E16" t="n">
-        <v>247.6350999123425</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F16" t="n">
-        <v>247.6350999123425</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G16" t="n">
-        <v>247.6350999123425</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H16" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J16" t="n">
         <v>109.5997839241957</v>
       </c>
       <c r="K16" t="n">
-        <v>259.7851881688071</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799362</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471189</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O16" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P16" t="n">
         <v>1460.082827585746</v>
@@ -5460,28 +5460,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R16" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S16" t="n">
-        <v>1187.92115703528</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T16" t="n">
-        <v>964.1357418247856</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U16" t="n">
-        <v>964.1357418247856</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V16" t="n">
-        <v>964.1357418247856</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W16" t="n">
-        <v>674.7185717878249</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="X16" t="n">
-        <v>446.7290208898075</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y16" t="n">
-        <v>397.7517393246783</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="17">
@@ -5512,19 +5512,19 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M17" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N17" t="n">
         <v>3183.709822619127</v>
@@ -5536,16 +5536,16 @@
         <v>4454.632848899126</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R17" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S17" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T17" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U17" t="n">
         <v>4262.357857465301</v>
@@ -5591,31 +5591,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I18" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K18" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="L18" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="M18" t="n">
-        <v>417.5524109899876</v>
+        <v>334.2881267578673</v>
       </c>
       <c r="N18" t="n">
-        <v>1221.963989254138</v>
+        <v>1138.699705022018</v>
       </c>
       <c r="O18" t="n">
-        <v>1891.427750556797</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P18" t="n">
-        <v>2411.728372292544</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q18" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R18" t="n">
         <v>2623.573505376138</v>
@@ -5649,46 +5649,46 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C19" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D19" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E19" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F19" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G19" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H19" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I19" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J19" t="n">
         <v>109.5997839241957</v>
       </c>
       <c r="K19" t="n">
-        <v>259.7851881688071</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799362</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471189</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N19" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O19" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P19" t="n">
         <v>1460.082827585746</v>
@@ -5700,25 +5700,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S19" t="n">
-        <v>1382.222354598086</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T19" t="n">
-        <v>1158.436939387592</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U19" t="n">
-        <v>869.3083006011506</v>
+        <v>1271.749344574921</v>
       </c>
       <c r="V19" t="n">
-        <v>614.6238123952637</v>
+        <v>1017.064856369034</v>
       </c>
       <c r="W19" t="n">
-        <v>325.2066423583032</v>
+        <v>727.647686332073</v>
       </c>
       <c r="X19" t="n">
-        <v>97.21709146028583</v>
+        <v>499.6581354340557</v>
       </c>
       <c r="Y19" t="n">
-        <v>97.21709146028583</v>
+        <v>278.8655562905255</v>
       </c>
     </row>
     <row r="20">
@@ -5728,7 +5728,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C20" t="n">
         <v>2059.358867610191</v>
@@ -5737,25 +5737,25 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G20" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L20" t="n">
         <v>1590.888347795206</v>
@@ -5773,13 +5773,13 @@
         <v>4454.632848899126</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T20" t="n">
         <v>4515.972600141868</v>
@@ -5788,16 +5788,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W20" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="21">
@@ -5819,19 +5819,19 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F21" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G21" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H21" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I21" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K21" t="n">
         <v>508.1073603047985</v>
@@ -5840,7 +5840,7 @@
         <v>1122.004430061687</v>
       </c>
       <c r="M21" t="n">
-        <v>1890.372576454149</v>
+        <v>1819.161927111988</v>
       </c>
       <c r="N21" t="n">
         <v>2623.573505376138</v>
@@ -5886,28 +5886,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C22" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D22" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E22" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F22" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G22" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H22" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I22" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J22" t="n">
         <v>109.5997839241957</v>
@@ -5937,25 +5937,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S22" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T22" t="n">
-        <v>1075.21084526296</v>
+        <v>1379.229518531123</v>
       </c>
       <c r="U22" t="n">
-        <v>786.0822064765186</v>
+        <v>1090.100879744681</v>
       </c>
       <c r="V22" t="n">
-        <v>531.3977182706318</v>
+        <v>835.416391538794</v>
       </c>
       <c r="W22" t="n">
-        <v>241.9805482336712</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="X22" t="n">
-        <v>97.21709146028583</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y22" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="23">
@@ -5965,34 +5965,34 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.093169003439</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405195</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155877</v>
+        <v>904.3190116155899</v>
       </c>
       <c r="G23" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822457</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L23" t="n">
         <v>1590.888347795206</v>
@@ -6007,34 +6007,34 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T23" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="24">
@@ -6059,19 +6059,19 @@
         <v>358.2718071316294</v>
       </c>
       <c r="G24" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H24" t="n">
         <v>125.4002551675024</v>
       </c>
       <c r="I24" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K24" t="n">
-        <v>508.1073603047985</v>
+        <v>508.1073603047986</v>
       </c>
       <c r="L24" t="n">
         <v>1122.004430061687</v>
@@ -6123,40 +6123,40 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C25" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D25" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E25" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F25" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G25" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H25" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I25" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J25" t="n">
         <v>109.5997839241957</v>
       </c>
       <c r="K25" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L25" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M25" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N25" t="n">
         <v>1049.608084974667</v>
@@ -6165,34 +6165,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P25" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q25" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R25" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S25" t="n">
-        <v>1382.222354598086</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T25" t="n">
-        <v>1158.436939387592</v>
+        <v>1379.229518531123</v>
       </c>
       <c r="U25" t="n">
-        <v>869.3083006011506</v>
+        <v>1090.100879744681</v>
       </c>
       <c r="V25" t="n">
-        <v>614.6238123952637</v>
+        <v>835.416391538794</v>
       </c>
       <c r="W25" t="n">
-        <v>325.2066423583032</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="X25" t="n">
-        <v>97.21709146028583</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y25" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="26">
@@ -6202,34 +6202,34 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E26" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155881</v>
       </c>
       <c r="G26" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805453</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L26" t="n">
         <v>1590.888347795206</v>
@@ -6250,28 +6250,28 @@
         <v>4801.627437207829</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T26" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y26" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="27">
@@ -6293,19 +6293,19 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F27" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G27" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H27" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J27" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="K27" t="n">
         <v>508.1073603047985</v>
@@ -6360,28 +6360,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>97.21709146028587</v>
+        <v>321.3911813763037</v>
       </c>
       <c r="C28" t="n">
-        <v>97.21709146028587</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="D28" t="n">
-        <v>97.21709146028587</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="E28" t="n">
-        <v>97.21709146028587</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="G28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="H28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J28" t="n">
         <v>109.5997839241957</v>
@@ -6414,22 +6414,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="T28" t="n">
-        <v>1340.085404217832</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U28" t="n">
-        <v>1050.956765431391</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="V28" t="n">
-        <v>796.2722772255036</v>
+        <v>1020.446367141521</v>
       </c>
       <c r="W28" t="n">
-        <v>506.8551071885429</v>
+        <v>731.0291971045608</v>
       </c>
       <c r="X28" t="n">
-        <v>278.8655562905255</v>
+        <v>503.0396462065435</v>
       </c>
       <c r="Y28" t="n">
-        <v>278.8655562905255</v>
+        <v>503.0396462065435</v>
       </c>
     </row>
     <row r="29">
@@ -6451,22 +6451,22 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155887</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805471</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L29" t="n">
         <v>1590.888347795206</v>
@@ -6487,7 +6487,7 @@
         <v>4801.627437207829</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S29" t="n">
         <v>4726.561275231264</v>
@@ -6539,10 +6539,10 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J30" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K30" t="n">
         <v>508.1073603047985</v>
@@ -6597,28 +6597,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>563.7235151749151</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C31" t="n">
-        <v>563.7235151749151</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D31" t="n">
-        <v>563.7235151749151</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E31" t="n">
-        <v>415.8104215925219</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F31" t="n">
-        <v>415.8104215925219</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G31" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H31" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J31" t="n">
         <v>109.5997839241957</v>
@@ -6645,28 +6645,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R31" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S31" t="n">
-        <v>1304.915651320387</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T31" t="n">
-        <v>1081.130236109893</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U31" t="n">
-        <v>1081.130236109893</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V31" t="n">
-        <v>1081.130236109893</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W31" t="n">
-        <v>791.7130660729324</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X31" t="n">
-        <v>563.7235151749151</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y31" t="n">
-        <v>563.7235151749151</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="32">
@@ -6697,13 +6697,13 @@
         <v>179.8222783822458</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823784</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514074</v>
+        <v>889.284191751408</v>
       </c>
       <c r="L32" t="n">
         <v>1590.888347795206</v>
@@ -6718,7 +6718,7 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q32" t="n">
         <v>4801.62743720783</v>
@@ -6834,22 +6834,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>711.3743239205529</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C34" t="n">
-        <v>542.438140992646</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D34" t="n">
-        <v>542.438140992646</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E34" t="n">
-        <v>394.5250474102529</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F34" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G34" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H34" t="n">
         <v>97.21709146028584</v>
@@ -6888,22 +6888,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="T34" t="n">
-        <v>1498.916270557902</v>
+        <v>1379.229518531123</v>
       </c>
       <c r="U34" t="n">
-        <v>1498.916270557902</v>
+        <v>1090.100879744681</v>
       </c>
       <c r="V34" t="n">
-        <v>1244.231782352015</v>
+        <v>835.416391538794</v>
       </c>
       <c r="W34" t="n">
-        <v>954.8146123150548</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="X34" t="n">
-        <v>932.166903064083</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y34" t="n">
-        <v>711.3743239205529</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="35">
@@ -6928,19 +6928,19 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G35" t="n">
-        <v>488.1932370805471</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822466</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L35" t="n">
         <v>1590.888347795206</v>
@@ -6958,10 +6958,10 @@
         <v>4454.632848899126</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S35" t="n">
         <v>4726.561275231264</v>
@@ -7013,10 +7013,10 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J36" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K36" t="n">
         <v>508.1073603047985</v>
@@ -7071,28 +7071,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C37" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D37" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E37" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F37" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G37" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H37" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J37" t="n">
         <v>109.5997839241957</v>
@@ -7122,25 +7122,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S37" t="n">
-        <v>1498.916270557902</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T37" t="n">
-        <v>1275.130855347408</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U37" t="n">
-        <v>986.0022165609664</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V37" t="n">
-        <v>731.3177283550796</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W37" t="n">
-        <v>441.900558318119</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X37" t="n">
-        <v>425.7555037884359</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y37" t="n">
-        <v>425.7555037884359</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="38">
@@ -7153,7 +7153,7 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D38" t="n">
         <v>1701.09316900344</v>
@@ -7162,10 +7162,10 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G38" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H38" t="n">
         <v>179.8222783822462</v>
@@ -7174,28 +7174,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M38" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O38" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R38" t="n">
         <v>4860.854573014292</v>
@@ -7207,16 +7207,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y38" t="n">
         <v>2814.921224614724</v>
@@ -7359,22 +7359,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S40" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T40" t="n">
-        <v>1075.21084526296</v>
+        <v>1379.229518531123</v>
       </c>
       <c r="U40" t="n">
-        <v>786.0822064765186</v>
+        <v>1090.100879744681</v>
       </c>
       <c r="V40" t="n">
-        <v>531.3977182706318</v>
+        <v>835.416391538794</v>
       </c>
       <c r="W40" t="n">
-        <v>241.9805482336712</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="X40" t="n">
-        <v>97.21709146028584</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y40" t="n">
         <v>97.21709146028584</v>
@@ -7390,52 +7390,52 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E41" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F41" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805465</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M41" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O41" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R41" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S41" t="n">
         <v>4726.561275231264</v>
@@ -7444,16 +7444,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y41" t="n">
         <v>2814.921224614724</v>
@@ -7487,10 +7487,10 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I42" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J42" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="K42" t="n">
         <v>508.1073603047985</v>
@@ -7545,28 +7545,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J43" t="n">
         <v>109.5997839241957</v>
@@ -7596,25 +7596,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S43" t="n">
-        <v>1382.222354598086</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T43" t="n">
-        <v>1158.436939387592</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U43" t="n">
-        <v>869.3083006011506</v>
+        <v>1090.100879744681</v>
       </c>
       <c r="V43" t="n">
-        <v>614.6238123952637</v>
+        <v>835.416391538794</v>
       </c>
       <c r="W43" t="n">
-        <v>325.2066423583032</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="X43" t="n">
-        <v>97.21709146028584</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="44">
@@ -7624,37 +7624,37 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F44" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155899</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H44" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822457</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823794</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514093</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795208</v>
       </c>
       <c r="M44" t="n">
         <v>2388.164701515098</v>
@@ -7663,37 +7663,37 @@
         <v>3183.709822619129</v>
       </c>
       <c r="O44" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643325</v>
       </c>
       <c r="P44" t="n">
         <v>4454.632848899128</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R44" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S44" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T44" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y44" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="45">
@@ -7724,10 +7724,10 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I45" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J45" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="K45" t="n">
         <v>508.1073603047985</v>
@@ -7782,28 +7782,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>674.2349604684848</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C46" t="n">
-        <v>674.2349604684848</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D46" t="n">
-        <v>674.2349604684848</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E46" t="n">
-        <v>674.2349604684848</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F46" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G46" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H46" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I46" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J46" t="n">
         <v>109.5997839241957</v>
@@ -7812,10 +7812,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L46" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M46" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N46" t="n">
         <v>1049.608084974667</v>
@@ -7833,25 +7833,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S46" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T46" t="n">
-        <v>1498.916270557902</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U46" t="n">
-        <v>1218.336618711332</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="V46" t="n">
-        <v>963.6521305054455</v>
+        <v>820.5263570570736</v>
       </c>
       <c r="W46" t="n">
-        <v>674.2349604684848</v>
+        <v>531.109187020113</v>
       </c>
       <c r="X46" t="n">
-        <v>674.2349604684848</v>
+        <v>303.1196361220957</v>
       </c>
       <c r="Y46" t="n">
-        <v>674.2349604684848</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
   </sheetData>
@@ -8057,7 +8057,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
@@ -8075,7 +8075,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P3" t="n">
-        <v>318.4627686399372</v>
+        <v>199.0269485415595</v>
       </c>
       <c r="Q3" t="n">
         <v>210.0772877358491</v>
@@ -8771,10 +8771,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
-        <v>370.8403453034592</v>
+        <v>241.048774065965</v>
       </c>
       <c r="M12" t="n">
         <v>465.7050637499999</v>
@@ -8789,7 +8789,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -9251,7 +9251,7 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M18" t="n">
-        <v>465.7050637499999</v>
+        <v>381.5997261417975</v>
       </c>
       <c r="N18" t="n">
         <v>479.3423743435536</v>
@@ -10135,7 +10135,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298295</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10609,7 +10609,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>65.71641987298386</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10688,7 +10688,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10822,7 +10822,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>169.0966151720738</v>
+        <v>169.096615172074</v>
       </c>
       <c r="K38" t="n">
         <v>324.1454125711647</v>
@@ -10846,7 +10846,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>65.71641987298295</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -23424,13 +23424,13 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>148.9138283675361</v>
@@ -23463,22 +23463,22 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>109.9643524037928</v>
+        <v>56.05044507888499</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>266.4806725970868</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -23658,7 +23658,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
@@ -23670,7 +23670,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
         <v>110.419245464272</v>
@@ -23700,7 +23700,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23709,19 +23709,19 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>82.39383318338568</v>
       </c>
       <c r="Y16" t="n">
-        <v>170.0971446026168</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23889,7 +23889,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
@@ -23940,13 +23940,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>82.39383318338567</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>61.3420956754253</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -23958,7 +23958,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24177,10 +24177,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>103.0576765518774</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24192,10 +24192,10 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>82.39383318338565</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24414,10 +24414,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>82.39383318338545</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>103.0576765518769</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24432,7 +24432,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24603,7 +24603,7 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>90.73552010470138</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
@@ -24612,7 +24612,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>166.4935684633776</v>
@@ -24654,10 +24654,10 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>64.30500338171987</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24846,16 +24846,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I31" t="n">
         <v>110.419245464272</v>
@@ -24885,19 +24885,19 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
-        <v>115.8245493422562</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2373523985773</v>
+        <v>82.39383318338557</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -25077,22 +25077,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I34" t="n">
         <v>110.419245464272</v>
@@ -25128,10 +25128,10 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T34" t="n">
-        <v>221.5475610583892</v>
+        <v>103.0576765518774</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25140,7 +25140,7 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>203.2884232305751</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -25311,7 +25311,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
@@ -25323,7 +25323,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>166.4935684633776</v>
@@ -25362,7 +25362,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
-        <v>197.9208099836032</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25377,7 +25377,7 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>209.726051404651</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -25599,10 +25599,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>103.0576765518774</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25614,10 +25614,10 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>82.39383318338568</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25836,13 +25836,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
-        <v>82.39383318338545</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>103.0576765518773</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -25854,7 +25854,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -26034,16 +26034,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26073,13 +26073,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>8.463497070473124</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26088,10 +26088,10 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>14.74113413690307</v>
       </c>
     </row>
   </sheetData>
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>664749.4015541053</v>
+        <v>664749.4015541052</v>
       </c>
     </row>
     <row r="11">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>664749.4015541052</v>
+        <v>664749.4015541053</v>
       </c>
     </row>
     <row r="13">
@@ -26313,34 +26313,34 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>738937.5928778546</v>
+        <v>738937.5928778549</v>
       </c>
       <c r="C2" t="n">
         <v>738937.5928778548</v>
       </c>
       <c r="D2" t="n">
-        <v>738937.5928778547</v>
+        <v>738937.5928778546</v>
       </c>
       <c r="E2" t="n">
+        <v>703852.307527876</v>
+      </c>
+      <c r="F2" t="n">
         <v>703852.3075278756</v>
       </c>
-      <c r="F2" t="n">
-        <v>703852.3075278759</v>
-      </c>
       <c r="G2" t="n">
-        <v>703852.307527876</v>
+        <v>703852.3075278758</v>
       </c>
       <c r="H2" t="n">
         <v>703852.3075278758</v>
       </c>
       <c r="I2" t="n">
-        <v>703852.3075278758</v>
+        <v>703852.3075278755</v>
       </c>
       <c r="J2" t="n">
-        <v>703852.3075278758</v>
+        <v>703852.3075278759</v>
       </c>
       <c r="K2" t="n">
-        <v>703852.3075278758</v>
+        <v>703852.3075278756</v>
       </c>
       <c r="L2" t="n">
         <v>703852.3075278758</v>
@@ -26349,7 +26349,7 @@
         <v>703852.3075278759</v>
       </c>
       <c r="N2" t="n">
-        <v>703852.3075278755</v>
+        <v>703852.3075278756</v>
       </c>
       <c r="O2" t="n">
         <v>703852.3075278758</v>
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145444</v>
+        <v>589967.8792145445</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26374,22 +26374,22 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768954</v>
+        <v>525160.036476896</v>
       </c>
       <c r="F3" t="n">
-        <v>1.797263848857256e-10</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>1.741016149026109e-10</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>2.567329602243263e-10</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925931</v>
+        <v>176423.2191925927</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26417,34 +26417,34 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>139059.139180619</v>
+      </c>
+      <c r="C4" t="n">
+        <v>139059.139180619</v>
+      </c>
+      <c r="D4" t="n">
         <v>139059.1391806191</v>
       </c>
-      <c r="C4" t="n">
-        <v>139059.1391806191</v>
-      </c>
-      <c r="D4" t="n">
-        <v>139059.139180619</v>
-      </c>
       <c r="E4" t="n">
-        <v>787.7936905760007</v>
+        <v>787.7936905759103</v>
       </c>
       <c r="F4" t="n">
-        <v>787.793690575951</v>
+        <v>787.7936905758695</v>
       </c>
       <c r="G4" t="n">
-        <v>787.7936905759182</v>
+        <v>787.7936905758695</v>
       </c>
       <c r="H4" t="n">
+        <v>787.7936905758695</v>
+      </c>
+      <c r="I4" t="n">
+        <v>787.7936905758696</v>
+      </c>
+      <c r="J4" t="n">
+        <v>787.7936905759443</v>
+      </c>
+      <c r="K4" t="n">
         <v>787.7936905758694</v>
-      </c>
-      <c r="I4" t="n">
-        <v>787.7936905759236</v>
-      </c>
-      <c r="J4" t="n">
-        <v>787.7936905758695</v>
-      </c>
-      <c r="K4" t="n">
-        <v>787.7936905758695</v>
       </c>
       <c r="L4" t="n">
         <v>787.7936905758694</v>
@@ -26456,10 +26456,10 @@
         <v>787.7936905758694</v>
       </c>
       <c r="O4" t="n">
-        <v>787.7936905758694</v>
+        <v>787.7936905758695</v>
       </c>
       <c r="P4" t="n">
-        <v>787.7936905758694</v>
+        <v>787.7936905758695</v>
       </c>
     </row>
     <row r="5">
@@ -26469,49 +26469,49 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340947</v>
       </c>
       <c r="C5" t="n">
         <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340947</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871659</v>
+        <v>91987.32594871661</v>
       </c>
       <c r="F5" t="n">
+        <v>91987.32594871662</v>
+      </c>
+      <c r="G5" t="n">
+        <v>91987.32594871662</v>
+      </c>
+      <c r="H5" t="n">
+        <v>91987.32594871662</v>
+      </c>
+      <c r="I5" t="n">
+        <v>91987.32594871664</v>
+      </c>
+      <c r="J5" t="n">
         <v>91987.32594871661</v>
       </c>
-      <c r="G5" t="n">
-        <v>91987.32594871661</v>
-      </c>
-      <c r="H5" t="n">
-        <v>91987.32594871661</v>
-      </c>
-      <c r="I5" t="n">
-        <v>91987.32594871661</v>
-      </c>
-      <c r="J5" t="n">
-        <v>91987.32594871664</v>
-      </c>
       <c r="K5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="L5" t="n">
         <v>91987.32594871662</v>
       </c>
       <c r="M5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="N5" t="n">
         <v>91987.32594871662</v>
       </c>
       <c r="O5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="P5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-72948.50358071839</v>
+        <v>-72948.50358071811</v>
       </c>
       <c r="C6" t="n">
         <v>517019.3756338264</v>
       </c>
       <c r="D6" t="n">
-        <v>517019.3756338262</v>
+        <v>517019.3756338261</v>
       </c>
       <c r="E6" t="n">
-        <v>84942.56015196595</v>
+        <v>85819.6922857153</v>
       </c>
       <c r="F6" t="n">
-        <v>610102.5966288614</v>
+        <v>610979.728762611</v>
       </c>
       <c r="G6" t="n">
-        <v>610102.5966288619</v>
+        <v>610979.7287626112</v>
       </c>
       <c r="H6" t="n">
-        <v>610102.5966288615</v>
+        <v>610979.7287626112</v>
       </c>
       <c r="I6" t="n">
-        <v>610102.5966288616</v>
+        <v>610979.7287626107</v>
       </c>
       <c r="J6" t="n">
-        <v>433679.3774362685</v>
+        <v>434556.5095700184</v>
       </c>
       <c r="K6" t="n">
-        <v>610102.5966288616</v>
+        <v>610979.728762611</v>
       </c>
       <c r="L6" t="n">
-        <v>610102.5966288616</v>
+        <v>610979.7287626112</v>
       </c>
       <c r="M6" t="n">
-        <v>475301.5813950247</v>
+        <v>476178.713528774</v>
       </c>
       <c r="N6" t="n">
-        <v>610102.5966288614</v>
+        <v>610979.728762611</v>
       </c>
       <c r="O6" t="n">
-        <v>610102.5966288616</v>
+        <v>610979.7287626112</v>
       </c>
       <c r="P6" t="n">
-        <v>610102.5966288616</v>
+        <v>610979.7287626112</v>
       </c>
     </row>
   </sheetData>
@@ -26737,28 +26737,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>377.7436642170867</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054540997</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="H3" t="n">
         <v>830.3824054541002</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541005</v>
       </c>
       <c r="J3" t="n">
         <v>830.3824054541002</v>
@@ -26779,7 +26779,7 @@
         <v>830.3824054541002</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
     </row>
     <row r="4">
@@ -26789,13 +26789,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="C4" t="n">
         <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
@@ -26959,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26968,19 +26968,19 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370131</v>
+        <v>452.6387412370136</v>
       </c>
       <c r="F3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>3.410605131648481e-13</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990169</v>
+        <v>540.9263704990174</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545561</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990171</v>
+        <v>540.9263704990174</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990169</v>
+        <v>540.9263704990174</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,16 +27378,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>189.9515431888998</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -27426,10 +27426,10 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
-        <v>167.0485203931578</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -27441,7 +27441,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
@@ -27542,25 +27542,25 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>96.50703242634987</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27584,7 +27584,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
@@ -27599,13 +27599,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>63.3731647155137</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27615,22 +27615,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>321.4685793061306</v>
       </c>
       <c r="F5" t="n">
         <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>38.53009859677883</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
         <v>323.9227727643571</v>
@@ -27663,7 +27663,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
@@ -27773,16 +27773,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
@@ -27797,7 +27797,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27818,7 +27818,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>146.6651919801578</v>
@@ -27830,13 +27830,13 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>231.8210826836387</v>
       </c>
       <c r="W7" t="n">
-        <v>261.2070929197285</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -27852,25 +27852,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
         <v>151.9313162448613</v>
@@ -27900,7 +27900,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>15.2496095178665</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
@@ -27912,13 +27912,13 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>98.95375469339484</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28010,19 +28010,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>120.1051426060688</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>167.3098022590509</v>
@@ -28031,10 +28031,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853699</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,19 +28055,19 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
-        <v>56.01837628787166</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -28098,10 +28098,10 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>2.899014361901209e-12</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>9.003997547551989e-13</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -28329,7 +28329,7 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>1.800799509510398e-12</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -28620,7 +28620,7 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>1.080024958355352e-12</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -29052,7 +29052,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>1.193711796076968e-12</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -29292,7 +29292,7 @@
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>1.648459146963432e-12</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -31047,19 +31047,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L2" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31074,13 +31074,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31120,16 +31120,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I3" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31147,22 +31147,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>111.734380307287</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,16 +31199,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31223,16 +31223,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31515,46 +31515,46 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L8" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N8" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q8" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31594,19 +31594,19 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I9" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K9" t="n">
-        <v>11.76595806653279</v>
+        <v>11.76595806653307</v>
       </c>
       <c r="L9" t="n">
         <v>176.4169820478007</v>
@@ -31621,22 +31621,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,19 +31673,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31697,22 +31697,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U10" t="n">
         <v>0.0371551145131561</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443615</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444943</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I11" t="n">
         <v>128.6967545176651</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961202</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K11" t="n">
-        <v>424.6341946041485</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L11" t="n">
-        <v>526.7962671304437</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565515</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N11" t="n">
-        <v>595.6470695927183</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O11" t="n">
-        <v>562.4526372540882</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946989</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q11" t="n">
-        <v>360.4902833647494</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R11" t="n">
-        <v>209.6945076446476</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.06970478104644</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T11" t="n">
-        <v>14.61306122562943</v>
+        <v>14.61306122562944</v>
       </c>
       <c r="U11" t="n">
-        <v>0.2670576580354891</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,13 +31831,13 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354101</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H12" t="n">
-        <v>17.25001940386725</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I12" t="n">
-        <v>61.4953007812706</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J12" t="n">
         <v>0.7465913262578567</v>
@@ -31849,13 +31849,13 @@
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724843</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813459</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O12" t="n">
-        <v>98.44906376001177</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -31867,13 +31867,13 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677463</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T12" t="n">
-        <v>7.199258779361485</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U12" t="n">
-        <v>0.117506944168033</v>
+        <v>0.1175069441680331</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.497410895081163</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H13" t="n">
-        <v>13.31334413990344</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I13" t="n">
-        <v>45.03122946298627</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J13" t="n">
-        <v>105.8669502822382</v>
+        <v>105.8669502822383</v>
       </c>
       <c r="K13" t="n">
-        <v>173.9719203557933</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L13" t="n">
-        <v>222.6241616196123</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M13" t="n">
-        <v>234.7259642171318</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N13" t="n">
-        <v>229.1447054263749</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O13" t="n">
-        <v>211.652223606563</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P13" t="n">
-        <v>181.1050413469072</v>
+        <v>181.1050413469073</v>
       </c>
       <c r="Q13" t="n">
         <v>125.3877432235691</v>
       </c>
       <c r="R13" t="n">
-        <v>67.32903897337665</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S13" t="n">
-        <v>26.09578805336899</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892241</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351809</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31992,46 +31992,46 @@
         <v>3.338220725443616</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444943</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I14" t="n">
         <v>128.6967545176651</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961203</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K14" t="n">
-        <v>424.6341946041487</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L14" t="n">
-        <v>526.7962671304438</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565517</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N14" t="n">
-        <v>595.6470695927184</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O14" t="n">
-        <v>562.4526372540884</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946991</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q14" t="n">
-        <v>360.4902833647495</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R14" t="n">
-        <v>209.6945076446477</v>
+        <v>209.6945076446483</v>
       </c>
       <c r="S14" t="n">
-        <v>76.06970478104647</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T14" t="n">
-        <v>14.61306122562943</v>
+        <v>14.61306122562944</v>
       </c>
       <c r="U14" t="n">
-        <v>0.2670576580354892</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32071,10 +32071,10 @@
         <v>1.786105551354102</v>
       </c>
       <c r="H15" t="n">
-        <v>17.25001940386725</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I15" t="n">
-        <v>61.49530078127062</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J15" t="n">
         <v>0.7465913262578567</v>
@@ -32089,13 +32089,13 @@
         <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>464.536285481346</v>
+        <v>380.4309478731437</v>
       </c>
       <c r="O15" t="n">
-        <v>340.8546090773505</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P15" t="n">
-        <v>341.0678223458548</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q15" t="n">
         <v>227.9948068710956</v>
@@ -32104,10 +32104,10 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677463</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T15" t="n">
-        <v>7.199258779361487</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32153,43 +32153,43 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I16" t="n">
-        <v>45.03122946298628</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J16" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K16" t="n">
-        <v>173.9719203557933</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L16" t="n">
-        <v>222.6241616196123</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M16" t="n">
-        <v>234.7259642171318</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N16" t="n">
         <v>229.144705426375</v>
       </c>
       <c r="O16" t="n">
-        <v>211.6522236065631</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P16" t="n">
-        <v>181.1050413469072</v>
+        <v>181.1050413469073</v>
       </c>
       <c r="Q16" t="n">
         <v>125.3877432235691</v>
       </c>
       <c r="R16" t="n">
-        <v>67.32903897337667</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S16" t="n">
-        <v>26.095788053369</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892243</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351812</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32229,46 +32229,46 @@
         <v>3.338220725443616</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444943</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I17" t="n">
         <v>128.6967545176651</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961203</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K17" t="n">
-        <v>424.6341946041487</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L17" t="n">
-        <v>526.7962671304438</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565517</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N17" t="n">
-        <v>595.6470695927184</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O17" t="n">
-        <v>562.4526372540884</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946991</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q17" t="n">
-        <v>360.4902833647495</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R17" t="n">
-        <v>209.6945076446477</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.06970478104647</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T17" t="n">
-        <v>14.61306122562943</v>
+        <v>14.61306122562944</v>
       </c>
       <c r="U17" t="n">
-        <v>0.2670576580354892</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32308,10 +32308,10 @@
         <v>1.786105551354102</v>
       </c>
       <c r="H18" t="n">
-        <v>17.25001940386725</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I18" t="n">
-        <v>61.49530078127062</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J18" t="n">
         <v>0.7465913262578567</v>
@@ -32326,25 +32326,25 @@
         <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>464.536285481346</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O18" t="n">
-        <v>424.9599466855524</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P18" t="n">
-        <v>341.0678223458548</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q18" t="n">
-        <v>133.1520833060246</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R18" t="n">
-        <v>110.8952201095117</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677463</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T18" t="n">
-        <v>7.199258779361487</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32390,43 +32390,43 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I19" t="n">
-        <v>45.03122946298628</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J19" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K19" t="n">
-        <v>173.9719203557933</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L19" t="n">
-        <v>222.6241616196123</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M19" t="n">
-        <v>234.7259642171318</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N19" t="n">
         <v>229.144705426375</v>
       </c>
       <c r="O19" t="n">
-        <v>211.6522236065631</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P19" t="n">
-        <v>181.1050413469072</v>
+        <v>181.1050413469073</v>
       </c>
       <c r="Q19" t="n">
         <v>125.3877432235691</v>
       </c>
       <c r="R19" t="n">
-        <v>67.32903897337667</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S19" t="n">
-        <v>26.095788053369</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892243</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351812</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32560,10 +32560,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724845</v>
+        <v>380.6284621420188</v>
       </c>
       <c r="N21" t="n">
-        <v>392.6063366508803</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
@@ -32700,49 +32700,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I23" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K23" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L23" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N23" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O23" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946994</v>
       </c>
       <c r="Q23" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R23" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U23" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32779,28 +32779,28 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H24" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I24" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J24" t="n">
         <v>0.7465913262578567</v>
       </c>
       <c r="K24" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L24" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N24" t="n">
-        <v>392.6063366508803</v>
+        <v>392.6063366508798</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
@@ -32815,10 +32815,10 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T24" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361492</v>
       </c>
       <c r="U24" t="n">
         <v>0.1175069441680331</v>
@@ -32858,49 +32858,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H25" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I25" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J25" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K25" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L25" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M25" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N25" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O25" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P25" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q25" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R25" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S25" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351817</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32970,7 +32970,7 @@
         <v>360.4902833647496</v>
       </c>
       <c r="R26" t="n">
-        <v>209.6945076446492</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
         <v>76.06970478104648</v>
@@ -33207,7 +33207,7 @@
         <v>360.4902833647496</v>
       </c>
       <c r="R29" t="n">
-        <v>209.6945076446492</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
         <v>76.06970478104648</v>
@@ -33678,7 +33678,7 @@
         <v>480.0403130946992</v>
       </c>
       <c r="Q35" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647508</v>
       </c>
       <c r="R35" t="n">
         <v>209.6945076446478</v>
@@ -33760,7 +33760,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S36" t="n">
         <v>33.17612723677464</v>
@@ -34155,7 +34155,7 @@
         <v>360.4902833647496</v>
       </c>
       <c r="R41" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446492</v>
       </c>
       <c r="S41" t="n">
         <v>76.06970478104648</v>
@@ -34359,16 +34359,16 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I44" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J44" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K44" t="n">
         <v>424.6341946041488</v>
@@ -34377,7 +34377,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M44" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N44" t="n">
         <v>595.6470695927186</v>
@@ -34386,7 +34386,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q44" t="n">
         <v>360.4902833647496</v>
@@ -34395,7 +34395,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
@@ -34438,7 +34438,7 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H45" t="n">
         <v>17.25001940386726</v>
@@ -34456,7 +34456,7 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N45" t="n">
         <v>392.6063366508803</v>
@@ -34474,10 +34474,10 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S45" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T45" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U45" t="n">
         <v>0.1175069441680331</v>
@@ -34538,7 +34538,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N46" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O46" t="n">
         <v>211.6522236065632</v>
@@ -34550,16 +34550,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R46" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S46" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34698,19 +34698,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K2" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34777,7 +34777,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34789,13 +34789,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>296.2227415328939</v>
+        <v>220.205405775187</v>
       </c>
       <c r="Q3" t="n">
         <v>173.8110948137341</v>
@@ -35172,25 +35172,25 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K8" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q8" t="n">
         <v>153.9975062898689</v>
@@ -35251,10 +35251,10 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770692</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K9" t="n">
-        <v>138.3897561047524</v>
+        <v>138.3897561047527</v>
       </c>
       <c r="L9" t="n">
         <v>408.7029475713857</v>
@@ -35263,13 +35263,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
         <v>173.8110948137341</v>
@@ -35333,7 +35333,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35348,7 +35348,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35409,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>271.3780219415077</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K11" t="n">
-        <v>528.6897561303327</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L11" t="n">
-        <v>708.6910667109069</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221112</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N11" t="n">
-        <v>803.5809304081115</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O11" t="n">
-        <v>713.1546070951468</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P11" t="n">
-        <v>570.6060255109121</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q11" t="n">
-        <v>350.4995841502046</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R11" t="n">
-        <v>59.82538970349796</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35491,25 +35491,25 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>232.285965523585</v>
+        <v>102.4943942860908</v>
       </c>
       <c r="M12" t="n">
-        <v>776.1294408004659</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N12" t="n">
-        <v>812.5369477415661</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O12" t="n">
-        <v>349.7151385922969</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P12" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q12" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556546</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299104</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L13" t="n">
-        <v>250.2141868799284</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M13" t="n">
-        <v>274.3098411789724</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N13" t="n">
-        <v>273.2768778056035</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206027</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P13" t="n">
         <v>178.3836006118007</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187468</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35646,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K14" t="n">
-        <v>528.6897561303329</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L14" t="n">
-        <v>708.691066710907</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221115</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N14" t="n">
-        <v>803.5809304081116</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O14" t="n">
-        <v>713.154607095147</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P14" t="n">
-        <v>570.6060255109121</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q14" t="n">
-        <v>350.4995841502047</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349802</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35737,16 +35737,16 @@
         <v>323.5710298279816</v>
       </c>
       <c r="N15" t="n">
-        <v>812.5369477415662</v>
+        <v>728.431610133364</v>
       </c>
       <c r="O15" t="n">
-        <v>592.1206839096355</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P15" t="n">
-        <v>525.5561835714617</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q15" t="n">
-        <v>298.0903205209231</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,7 +35804,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556549</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K16" t="n">
         <v>151.7024285299105</v>
@@ -35813,7 +35813,7 @@
         <v>250.2141868799285</v>
       </c>
       <c r="M16" t="n">
-        <v>274.3098411789724</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N16" t="n">
         <v>273.2768778056036</v>
@@ -35825,7 +35825,7 @@
         <v>178.3836006118007</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.2256999718747</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35883,31 +35883,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K17" t="n">
-        <v>528.6897561303329</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L17" t="n">
-        <v>708.691066710907</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221115</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N17" t="n">
-        <v>803.5809304081116</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O17" t="n">
-        <v>713.154607095147</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P17" t="n">
-        <v>570.6060255109121</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q17" t="n">
-        <v>350.4995841502047</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970349802</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35971,22 +35971,22 @@
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>323.5710298279816</v>
+        <v>239.4656922197792</v>
       </c>
       <c r="N18" t="n">
-        <v>812.5369477415662</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O18" t="n">
         <v>676.2260215178376</v>
       </c>
       <c r="P18" t="n">
-        <v>525.5561835714617</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q18" t="n">
-        <v>203.2475969558522</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R18" t="n">
-        <v>10.73738595686861</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36041,7 +36041,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556549</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K19" t="n">
         <v>151.7024285299105</v>
@@ -36050,7 +36050,7 @@
         <v>250.2141868799285</v>
       </c>
       <c r="M19" t="n">
-        <v>274.3098411789724</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N19" t="n">
         <v>273.2768778056036</v>
@@ -36062,7 +36062,7 @@
         <v>178.3836006118007</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.2256999718747</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36208,10 +36208,10 @@
         <v>620.0980502594834</v>
       </c>
       <c r="M21" t="n">
-        <v>776.1294408004661</v>
+        <v>704.1994919700004</v>
       </c>
       <c r="N21" t="n">
-        <v>740.6069989111005</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
@@ -36357,31 +36357,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>271.3780219415079</v>
+        <v>271.378021941508</v>
       </c>
       <c r="K23" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L23" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N23" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O23" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P23" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q23" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349816</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36439,16 +36439,16 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L24" t="n">
-        <v>620.0980502594834</v>
+        <v>620.0980502594837</v>
       </c>
       <c r="M24" t="n">
-        <v>776.1294408004661</v>
+        <v>776.1294408004663</v>
       </c>
       <c r="N24" t="n">
-        <v>740.6069989111005</v>
+        <v>740.6069989111</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
@@ -36515,28 +36515,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556556</v>
       </c>
       <c r="K25" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L25" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M25" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N25" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O25" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187479</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36618,7 +36618,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.8253897034995</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36855,7 +36855,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.8253897034995</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -37326,10 +37326,10 @@
         <v>570.6060255109123</v>
       </c>
       <c r="Q35" t="n">
-        <v>350.4995841502048</v>
+        <v>350.499584150206</v>
       </c>
       <c r="R35" t="n">
-        <v>59.8253897034995</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37542,7 +37542,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415081</v>
       </c>
       <c r="K38" t="n">
         <v>528.689756130333</v>
@@ -37566,7 +37566,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349858</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37803,7 +37803,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034995</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -38019,13 +38019,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L44" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N44" t="n">
         <v>803.5809304081118</v>
@@ -38040,7 +38040,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38104,7 +38104,7 @@
         <v>620.0980502594834</v>
       </c>
       <c r="M45" t="n">
-        <v>776.1294408004661</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N45" t="n">
         <v>740.6069989111005</v>
@@ -38174,10 +38174,10 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K46" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L46" t="n">
         <v>250.2141868799285</v>
@@ -38189,13 +38189,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O46" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P46" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q46" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
